--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
         <v>3.1</v>
@@ -679,7 +679,7 @@
         <v>2.86</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.6</v>
@@ -700,7 +700,7 @@
         <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,16 +805,16 @@
         <v>3.4</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I3" t="n">
         <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
         <v>1.9</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -856,46 +856,46 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
         <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
         <v>1.75</v>
@@ -961,28 +961,28 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.35</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.79</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.85</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.86</v>
-      </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1099,13 +1099,13 @@
         <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
@@ -1117,7 +1117,7 @@
         <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,16 +1126,16 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
         <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
@@ -1147,7 +1147,7 @@
         <v>18.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AF5" t="n">
         <v>12.5</v>
@@ -1168,16 +1168,16 @@
         <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN5" t="n">
         <v>11.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G6" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
         <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.5</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.7</v>
-      </c>
       <c r="H7" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
@@ -1423,7 +1423,7 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1435,16 +1435,16 @@
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I8" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>1.61</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
         <v>2.62</v>
@@ -1537,10 +1537,10 @@
         <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
         <v>22</v>
@@ -1555,7 +1555,7 @@
         <v>30</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
         <v>14.5</v>
@@ -1579,7 +1579,7 @@
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
@@ -1624,10 +1624,10 @@
         <v>16.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
         <v>1.38</v>
@@ -1669,7 +1669,7 @@
         <v>46</v>
       </c>
       <c r="Y9" t="n">
-        <v>880</v>
+        <v>790</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1684,13 +1684,13 @@
         <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1756,7 +1756,7 @@
         <v>1.74</v>
       </c>
       <c r="I10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1780,7 +1780,7 @@
         <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G11" t="n">
         <v>3.85</v>
@@ -1891,10 +1891,10 @@
         <v>2.14</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.07</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
         <v>40</v>
@@ -2122,7 +2122,7 @@
         <v>50</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>1.42</v>
@@ -2164,7 +2164,7 @@
         <v>1.43</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>5.5</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2341,43 +2341,43 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
         <v>18</v>
       </c>
       <c r="AA14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG14" t="n">
         <v>18</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="n">
         <v>50</v>
@@ -2389,10 +2389,10 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
         <v>3.4</v>
@@ -2437,7 +2437,7 @@
         <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>25</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
         <v>11.5</v>
@@ -2497,7 +2497,7 @@
         <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>16</v>
@@ -2509,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2518,13 +2518,13 @@
         <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
         <v>1.78</v>
@@ -2893,7 +2893,7 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>1000</v>
@@ -2974,16 +2974,16 @@
         <v>2.66</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
@@ -3037,7 +3037,7 @@
         <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
         <v>1000</v>
@@ -3061,7 +3061,7 @@
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G20" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="H20" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3160,46 +3160,46 @@
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
         <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3238,7 +3238,7 @@
         <v>5.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I21" t="n">
         <v>1.8</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="22">
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3451,16 +3451,16 @@
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
         <v>240</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
         <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>1.82</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H24" t="n">
         <v>1.78</v>
       </c>
       <c r="I24" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3664,25 +3664,25 @@
         <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q24" t="n">
         <v>1.58</v>
       </c>
       <c r="R24" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T24" t="n">
         <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,16 +3691,16 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB24" t="n">
         <v>1000</v>
@@ -3709,22 +3709,22 @@
         <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG24" t="n">
         <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ24" t="n">
         <v>110</v>
@@ -3733,16 +3733,16 @@
         <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H25" t="n">
         <v>17</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q25" t="n">
         <v>1.65</v>
@@ -3871,7 +3871,7 @@
         <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AN25" t="n">
         <v>4.4</v>
@@ -3910,16 +3910,16 @@
         <v>3.45</v>
       </c>
       <c r="G26" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H26" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I26" t="n">
         <v>2.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>3.65</v>
@@ -3931,13 +3931,13 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q26" t="n">
         <v>1.96</v>
@@ -3985,13 +3985,13 @@
         <v>34</v>
       </c>
       <c r="AF26" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -4054,7 +4054,7 @@
         <v>1.52</v>
       </c>
       <c r="J27" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
         <v>5.8</v>
@@ -4111,7 +4111,7 @@
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4180,7 +4180,7 @@
         <v>8.6</v>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="H28" t="n">
         <v>1.33</v>
@@ -4189,7 +4189,7 @@
         <v>1.4</v>
       </c>
       <c r="J28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
         <v>7.2</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U28" t="n">
         <v>1.8</v>
@@ -4315,7 +4315,7 @@
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H29" t="n">
         <v>1.17</v>
@@ -4354,7 +4354,7 @@
         <v>2.16</v>
       </c>
       <c r="T29" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U29" t="n">
         <v>1.64</v>
@@ -4417,7 +4417,7 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="30">
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
         <v>1000</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="I31" t="n">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
         <v>3.8</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.06</v>
+        <v>1.82</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
         <v>2.2</v>
@@ -4636,58 +4636,58 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y31" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB31" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA31" t="n">
+      <c r="AC31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL31" t="n">
         <v>50</v>
       </c>
-      <c r="AB31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH31" t="n">
+      <c r="AM31" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO31" t="n">
         <v>23</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4720,16 +4720,16 @@
         <v>3.4</v>
       </c>
       <c r="G32" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H32" t="n">
         <v>2.06</v>
       </c>
       <c r="I32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
@@ -4855,16 +4855,16 @@
         <v>2.1</v>
       </c>
       <c r="G33" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J33" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
         <v>3.8</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4894,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="U33" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4906,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,10 +4918,10 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AD33" t="n">
         <v>15.5</v>
@@ -4930,7 +4930,7 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG33" t="n">
         <v>11.5</v>
@@ -4939,7 +4939,7 @@
         <v>18</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ33" t="n">
         <v>1000</v>
@@ -4951,13 +4951,13 @@
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN33" t="n">
         <v>16.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -5002,7 +5002,7 @@
         <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>2.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
         <v>120</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G35" t="n">
         <v>2.02</v>
       </c>
       <c r="H35" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
         <v>4.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
         <v>3.85</v>
@@ -5182,7 +5182,7 @@
         <v>16</v>
       </c>
       <c r="Z35" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>3.4</v>
       </c>
       <c r="G37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H37" t="n">
         <v>2.16</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5434,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -844,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,58 +856,58 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>17.5</v>
       </c>
       <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>38</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +970,7 @@
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
@@ -1075,7 +1075,7 @@
         <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
@@ -1084,7 +1084,7 @@
         <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1114,7 +1114,7 @@
         <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U5" t="n">
         <v>2.18</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H6" t="n">
         <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
         <v>1.61</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>42</v>
@@ -1345,13 +1345,13 @@
         <v>3.4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
@@ -1375,7 +1375,7 @@
         <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1480,16 +1480,16 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
         <v>2.34</v>
       </c>
       <c r="I8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1543,19 +1543,19 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>30</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
         <v>14.5</v>
@@ -1573,7 +1573,7 @@
         <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>60</v>
@@ -1618,7 +1618,7 @@
         <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
         <v>16.5</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q9" t="n">
         <v>1.38</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="Y9" t="n">
         <v>790</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
         <v>1.74</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1780,7 +1780,7 @@
         <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1891,13 +1891,13 @@
         <v>2.14</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>48</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>120</v>
@@ -2020,7 +2020,7 @@
         <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H12" t="n">
         <v>2.28</v>
@@ -2050,7 +2050,7 @@
         <v>1.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2479,10 +2479,10 @@
         <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2497,13 +2497,13 @@
         <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
         <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
@@ -2512,13 +2512,13 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
         <v>85</v>
@@ -2560,7 +2560,7 @@
         <v>1.94</v>
       </c>
       <c r="G16" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.85</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G18" t="n">
         <v>1.54</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q18" t="n">
         <v>1.78</v>
@@ -2872,7 +2872,7 @@
         <v>1.87</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
         <v>32</v>
@@ -2896,7 +2896,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
         <v>34</v>
@@ -2926,7 +2926,7 @@
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
         <v>7</v>
@@ -2974,7 +2974,7 @@
         <v>2.66</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>3.5</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
@@ -3019,7 +3019,7 @@
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
@@ -3037,7 +3037,7 @@
         <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G20" t="n">
         <v>1.49</v>
@@ -3106,13 +3106,13 @@
         <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J20" t="n">
         <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G21" t="n">
         <v>5.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I21" t="n">
         <v>1.8</v>
@@ -3247,7 +3247,7 @@
         <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,34 +3286,34 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC21" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q22" t="n">
         <v>1.52</v>
@@ -3412,7 +3412,7 @@
         <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>4.4</v>
       </c>
       <c r="G24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I24" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="J24" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K24" t="n">
         <v>4.6</v>
@@ -3676,7 +3676,7 @@
         <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T24" t="n">
         <v>1.6</v>
@@ -3697,13 +3697,13 @@
         <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB24" t="n">
         <v>24</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1000</v>
       </c>
       <c r="AC24" t="n">
         <v>11</v>
@@ -3712,13 +3712,13 @@
         <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
@@ -3742,7 +3742,7 @@
         <v>44</v>
       </c>
       <c r="AO24" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G25" t="n">
         <v>1.24</v>
@@ -3784,16 +3784,16 @@
         <v>21</v>
       </c>
       <c r="J25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K25" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>2.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
         <v>230</v>
@@ -3841,13 +3841,13 @@
         <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE25" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AF25" t="n">
         <v>7.2</v>
@@ -3859,7 +3859,7 @@
         <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.800000000000001</v>
@@ -3871,10 +3871,10 @@
         <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3910,16 +3910,16 @@
         <v>3.45</v>
       </c>
       <c r="G26" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
         <v>3.65</v>
@@ -3931,13 +3931,13 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q26" t="n">
         <v>1.96</v>
@@ -4054,7 +4054,7 @@
         <v>1.52</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
         <v>5.8</v>
@@ -4111,7 +4111,7 @@
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4177,28 +4177,28 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="I28" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="J28" t="n">
         <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4234,10 +4234,10 @@
         <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4255,7 +4255,7 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG28" t="n">
         <v>1000</v>
@@ -4282,7 +4282,7 @@
         <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
         <v>27</v>
       </c>
       <c r="H29" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="I29" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J29" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4336,28 +4336,28 @@
         <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P29" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R29" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="S29" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T29" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U29" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,19 +4366,19 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
         <v>8</v>
       </c>
       <c r="AA29" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="n">
         <v>23</v>
@@ -4387,37 +4387,37 @@
         <v>15.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AG29" t="n">
         <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="AL29" t="n">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="AM29" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G30" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J30" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4525,7 +4525,7 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG30" t="n">
         <v>1000</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I32" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>1.58</v>
       </c>
       <c r="U32" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4858,7 +4858,7 @@
         <v>2.24</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I33" t="n">
         <v>3.85</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
         <v>1.81</v>
@@ -4921,7 +4921,7 @@
         <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
         <v>15.5</v>
@@ -4939,7 +4939,7 @@
         <v>18</v>
       </c>
       <c r="AI33" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ33" t="n">
         <v>1000</v>
@@ -5044,7 +5044,7 @@
         <v>20</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
         <v>13.5</v>
@@ -5092,7 +5092,7 @@
         <v>85</v>
       </c>
       <c r="AO34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="35">
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G35" t="n">
         <v>2.02</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I35" t="n">
         <v>4.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
         <v>3.85</v>
@@ -5155,7 +5155,7 @@
         <v>1.89</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U35" t="n">
         <v>2.06</v>
@@ -5260,7 +5260,7 @@
         <v>1.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H36" t="n">
         <v>7.4</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5395,10 +5395,10 @@
         <v>3.4</v>
       </c>
       <c r="G37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H37" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I37" t="n">
         <v>2.26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -682,7 +682,7 @@
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G3" t="n">
         <v>3.6</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
         <v>2.22</v>
@@ -961,7 +961,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
@@ -970,7 +970,7 @@
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
@@ -1075,10 +1075,10 @@
         <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
         <v>4.7</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
         <v>4.5</v>
@@ -1240,16 +1240,16 @@
         <v>2.42</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.61</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.62</v>
       </c>
       <c r="U6" t="n">
         <v>2.4</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
         <v>22</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G7" t="n">
         <v>3.6</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
         <v>1.85</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
@@ -1423,7 +1423,7 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1483,16 +1483,16 @@
         <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" t="n">
         <v>1.61</v>
@@ -1522,7 +1522,7 @@
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
         <v>30</v>
@@ -1561,7 +1561,7 @@
         <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1624,7 +1624,7 @@
         <v>16.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="K9" t="n">
         <v>8.4</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="n">
-        <v>790</v>
+        <v>470</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1684,19 +1684,19 @@
         <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1708,13 +1708,13 @@
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1756,7 +1756,7 @@
         <v>1.74</v>
       </c>
       <c r="I10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>24</v>
@@ -1888,7 +1888,7 @@
         <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I11" t="n">
         <v>2.2</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
         <v>2.28</v>
@@ -2332,7 +2332,7 @@
         <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
         <v>2.38</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
         <v>25</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
         <v>3.95</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q16" t="n">
         <v>1.84</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2698,7 +2698,7 @@
         <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I17" t="n">
         <v>2.58</v>
@@ -2752,7 +2752,7 @@
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
@@ -2764,7 +2764,7 @@
         <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>21</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G18" t="n">
         <v>1.54</v>
@@ -2893,7 +2893,7 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
         <v>14</v>
@@ -2920,7 +2920,7 @@
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2974,7 +2974,7 @@
         <v>2.66</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
         <v>3.5</v>
@@ -2995,7 +2995,7 @@
         <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3100,13 +3100,13 @@
         <v>1.44</v>
       </c>
       <c r="G20" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H20" t="n">
         <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
         <v>4.9</v>
@@ -3175,7 +3175,7 @@
         <v>140</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
         <v>12.5</v>
@@ -3238,16 +3238,16 @@
         <v>5.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="I21" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y21" t="n">
         <v>12.5</v>
@@ -3295,16 +3295,16 @@
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -3316,7 +3316,7 @@
         <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3331,13 +3331,13 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G22" t="n">
         <v>1.23</v>
@@ -3379,7 +3379,7 @@
         <v>18.5</v>
       </c>
       <c r="J22" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="K22" t="n">
         <v>8.6</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U22" t="n">
         <v>1.7</v>
@@ -3424,7 +3424,7 @@
         <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
         <v>200</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3547,7 +3547,7 @@
         <v>1.82</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J24" t="n">
         <v>4.4</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.3</v>
       </c>
       <c r="K24" t="n">
         <v>4.6</v>
@@ -3673,16 +3673,16 @@
         <v>1.58</v>
       </c>
       <c r="R24" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S24" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U24" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>15.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB24" t="n">
         <v>24</v>
@@ -3721,7 +3721,7 @@
         <v>19.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -3742,7 +3742,7 @@
         <v>44</v>
       </c>
       <c r="AO24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="25">
@@ -3781,7 +3781,7 @@
         <v>17</v>
       </c>
       <c r="I25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
         <v>7.2</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>2.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
         <v>18</v>
@@ -3874,7 +3874,7 @@
         <v>380</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G26" t="n">
         <v>3.45</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3931,13 +3931,13 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q26" t="n">
         <v>1.96</v>
@@ -3973,7 +3973,7 @@
         <v>32</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.199999999999999</v>
@@ -3988,10 +3988,10 @@
         <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -4054,7 +4054,7 @@
         <v>1.52</v>
       </c>
       <c r="J27" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K27" t="n">
         <v>5.8</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" t="n">
         <v>1.36</v>
       </c>
       <c r="I28" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K28" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
         <v>1000</v>
@@ -4318,16 +4318,16 @@
         <v>27</v>
       </c>
       <c r="H29" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="I29" t="n">
         <v>1.21</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4339,25 +4339,25 @@
         <v>5.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U29" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>36</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
         <v>8</v>
@@ -4378,7 +4378,7 @@
         <v>8.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AC29" t="n">
         <v>23</v>
@@ -4387,13 +4387,13 @@
         <v>15.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AF29" t="n">
         <v>290</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AH29" t="n">
         <v>60</v>
@@ -4417,7 +4417,7 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="30">
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
         <v>46</v>
@@ -4951,13 +4951,13 @@
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="n">
         <v>16.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -4993,7 +4993,7 @@
         <v>5.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="I34" t="n">
         <v>1.79</v>
@@ -5020,7 +5020,7 @@
         <v>2.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.65</v>
       </c>
       <c r="K35" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>1.89</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
         <v>8.4</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G36" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H36" t="n">
         <v>7.4</v>
@@ -5269,7 +5269,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K36" t="n">
         <v>4.7</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5299,10 +5299,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U36" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
         <v>1000</v>
@@ -5320,46 +5320,46 @@
         <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AB36" t="n">
         <v>8.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK36" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN36" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -679,7 +679,7 @@
         <v>2.86</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>3.55</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -808,7 +808,7 @@
         <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I3" t="n">
         <v>2.26</v>
@@ -847,7 +847,7 @@
         <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
         <v>15.5</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AO3" t="n">
         <v>17</v>
@@ -940,7 +940,7 @@
         <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
         <v>1.75</v>
@@ -982,7 +982,7 @@
         <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -994,16 +994,16 @@
         <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
@@ -1012,19 +1012,19 @@
         <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
         <v>170</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H5" t="n">
         <v>4.4</v>
@@ -1084,7 +1084,7 @@
         <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1099,13 +1099,13 @@
         <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
@@ -1114,7 +1114,7 @@
         <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
         <v>2.18</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
         <v>38</v>
@@ -1144,7 +1144,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>240</v>
@@ -1156,7 +1156,7 @@
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>60</v>
@@ -1165,7 +1165,7 @@
         <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G6" t="n">
         <v>1.9</v>
@@ -1216,10 +1216,10 @@
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>4.3</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
         <v>1.63</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
         <v>22</v>
@@ -1276,22 +1276,22 @@
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1303,16 +1303,16 @@
         <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1375,7 +1375,7 @@
         <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
@@ -1423,10 +1423,10 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1435,19 +1435,19 @@
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AC8" t="n">
         <v>9.4</v>
@@ -1552,10 +1552,10 @@
         <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AG8" t="n">
         <v>14.5</v>
@@ -1564,19 +1564,19 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>20</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I9" t="n">
         <v>16.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q9" t="n">
         <v>1.39</v>
@@ -1657,7 +1657,7 @@
         <v>1.93</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Y9" t="n">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA9" t="n">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="AB9" t="n">
         <v>14.5</v>
@@ -1684,13 +1684,13 @@
         <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1753,10 +1753,10 @@
         <v>5.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="I10" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1780,7 +1780,7 @@
         <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
@@ -1810,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>24</v>
@@ -1834,13 +1834,13 @@
         <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
         <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G11" t="n">
         <v>3.85</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
         <v>15</v>
@@ -1966,7 +1966,7 @@
         <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
         <v>40</v>
@@ -1984,10 +1984,10 @@
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="12">
@@ -2020,16 +2020,16 @@
         <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I12" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>3.65</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2074,52 +2074,52 @@
         <v>14</v>
       </c>
       <c r="Y12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
         <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>23</v>
@@ -2155,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>1.42</v>
@@ -2164,7 +2164,7 @@
         <v>1.43</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K13" t="n">
         <v>5.5</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="14">
@@ -2320,7 +2320,7 @@
         <v>1.97</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2341,19 +2341,19 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
         <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
@@ -2362,25 +2362,25 @@
         <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>60</v>
@@ -2389,7 +2389,7 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G15" t="n">
         <v>2.2</v>
       </c>
-      <c r="G15" t="n">
-        <v>2.38</v>
-      </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
         <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2491,13 +2491,13 @@
         <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>16</v>
@@ -2521,7 +2521,7 @@
         <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
         <v>17</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G16" t="n">
         <v>2.04</v>
@@ -2572,7 +2572,7 @@
         <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
@@ -2647,7 +2647,7 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
@@ -2656,10 +2656,10 @@
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2725,7 +2725,7 @@
         <v>1.94</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
         <v>2.16</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
@@ -2758,7 +2758,7 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
         <v>8.4</v>
@@ -2770,7 +2770,7 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>14</v>
@@ -2779,7 +2779,7 @@
         <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G18" t="n">
         <v>1.54</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
         <v>1.9</v>
@@ -2896,16 +2896,16 @@
         <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
@@ -2971,7 +2971,7 @@
         <v>2.46</v>
       </c>
       <c r="I19" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="J19" t="n">
         <v>3.15</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q19" t="n">
         <v>2.16</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
@@ -3103,7 +3103,7 @@
         <v>1.48</v>
       </c>
       <c r="H20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I20" t="n">
         <v>9</v>
@@ -3112,7 +3112,7 @@
         <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>300</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
         <v>12.5</v>
@@ -3175,10 +3175,10 @@
         <v>140</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
         <v>1000</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I21" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="J21" t="n">
         <v>4.3</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3286,43 +3286,43 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
@@ -3331,13 +3331,13 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G22" t="n">
         <v>1.23</v>
@@ -3376,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="I22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J22" t="n">
         <v>7.4</v>
@@ -3421,13 +3421,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z22" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3436,37 +3436,37 @@
         <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE22" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AF22" t="n">
         <v>8.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN22" t="n">
         <v>3.9</v>
@@ -3517,7 +3517,7 @@
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3544,10 +3544,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
         <v>12.5</v>
@@ -3571,16 +3571,16 @@
         <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
         <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG23" t="n">
         <v>12.5</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G24" t="n">
         <v>4.7</v>
       </c>
       <c r="H24" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I24" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J24" t="n">
         <v>4.4</v>
@@ -3667,7 +3667,7 @@
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q24" t="n">
         <v>1.58</v>
@@ -3676,13 +3676,13 @@
         <v>1.63</v>
       </c>
       <c r="S24" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T24" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AC24" t="n">
         <v>11</v>
@@ -3715,31 +3715,31 @@
         <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
         <v>19.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="n">
         <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="n">
         <v>7.8</v>
@@ -3781,13 +3781,13 @@
         <v>17</v>
       </c>
       <c r="I25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25" t="n">
         <v>7.2</v>
       </c>
       <c r="K25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
         <v>1000</v>
@@ -3844,34 +3844,34 @@
         <v>18</v>
       </c>
       <c r="AD25" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="AF25" t="n">
         <v>7.2</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AN25" t="n">
         <v>4.6</v>
@@ -3919,7 +3919,7 @@
         <v>2.36</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
         <v>3.6</v>
@@ -3931,13 +3931,13 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q26" t="n">
         <v>1.96</v>
@@ -3946,7 +3946,7 @@
         <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T26" t="n">
         <v>1.75</v>
@@ -3970,7 +3970,7 @@
         <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AB26" t="n">
         <v>13.5</v>
@@ -3991,7 +3991,7 @@
         <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4000,10 +4000,10 @@
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
         <v>110</v>
@@ -4048,16 +4048,16 @@
         <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="I27" t="n">
         <v>1.52</v>
       </c>
       <c r="J27" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H28" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="I28" t="n">
         <v>1.4</v>
       </c>
       <c r="J28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="U28" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4234,10 +4234,10 @@
         <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4282,7 +4282,7 @@
         <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4333,31 +4333,31 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q29" t="n">
         <v>1.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S29" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T29" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U29" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA29" t="n">
         <v>8.6</v>
@@ -4381,7 +4381,7 @@
         <v>70</v>
       </c>
       <c r="AC29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD29" t="n">
         <v>15.5</v>
@@ -4390,34 +4390,34 @@
         <v>15.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AG29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="AL29" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="AM29" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="30">
@@ -4450,19 +4450,19 @@
         <v>2.28</v>
       </c>
       <c r="G30" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>3.45</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q30" t="n">
         <v>1.78</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U30" t="n">
         <v>2.26</v>
@@ -4516,7 +4516,7 @@
         <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4525,7 +4525,7 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
         <v>1000</v>
@@ -4546,7 +4546,7 @@
         <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
         <v>1000</v>
@@ -4585,13 +4585,13 @@
         <v>2.92</v>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I31" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4672,19 +4672,19 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL31" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO31" t="n">
         <v>23</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H32" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="I32" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J32" t="n">
         <v>3.7</v>
@@ -4750,7 +4750,7 @@
         <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
         <v>1000</v>
@@ -4786,7 +4786,7 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
         <v>1000</v>
@@ -4819,10 +4819,10 @@
         <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="33">
@@ -4858,13 +4858,13 @@
         <v>2.24</v>
       </c>
       <c r="H33" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
         <v>3.8</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
         <v>1.81</v>
@@ -4906,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4921,7 +4921,7 @@
         <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
         <v>15.5</v>
@@ -4930,7 +4930,7 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG33" t="n">
         <v>11.5</v>
@@ -4939,25 +4939,25 @@
         <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
         <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM33" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN33" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO33" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4990,13 +4990,13 @@
         <v>5.1</v>
       </c>
       <c r="G34" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H34" t="n">
         <v>1.73</v>
       </c>
       <c r="I34" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q34" t="n">
         <v>1.76</v>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U34" t="n">
         <v>2.1</v>
@@ -5041,28 +5041,28 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z34" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF34" t="n">
         <v>50</v>
@@ -5071,10 +5071,10 @@
         <v>24</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
         <v>150</v>
@@ -5089,10 +5089,10 @@
         <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5125,7 +5125,7 @@
         <v>1.93</v>
       </c>
       <c r="G35" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H35" t="n">
         <v>4.3</v>
@@ -5176,22 +5176,22 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
         <v>16</v>
       </c>
       <c r="Z35" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD35" t="n">
         <v>18.5</v>
@@ -5200,31 +5200,31 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
         <v>22</v>
       </c>
       <c r="AL35" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
         <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G36" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H36" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I36" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J36" t="n">
         <v>4.2</v>
@@ -5314,10 +5314,10 @@
         <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA36" t="n">
         <v>330</v>
@@ -5326,7 +5326,7 @@
         <v>8.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD36" t="n">
         <v>32</v>
@@ -5335,13 +5335,13 @@
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5353,7 +5353,7 @@
         <v>17.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
         <v>180</v>
@@ -5395,10 +5395,10 @@
         <v>3.4</v>
       </c>
       <c r="G37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H37" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I37" t="n">
         <v>2.26</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="n">
         <v>12.5</v>
@@ -5458,7 +5458,7 @@
         <v>29</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
         <v>9.199999999999999</v>
@@ -5470,22 +5470,22 @@
         <v>23</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG37" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH37" t="n">
         <v>17</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL37" t="n">
         <v>1000</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO37" t="n">
         <v>14</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -682,7 +682,7 @@
         <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
         <v>2.26</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -874,16 +874,16 @@
         <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
         <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>17.5</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="n">
         <v>17</v>
@@ -940,7 +940,7 @@
         <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
         <v>1.75</v>
@@ -961,7 +961,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
@@ -1000,10 +1000,10 @@
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
@@ -1075,7 +1075,7 @@
         <v>1.84</v>
       </c>
       <c r="G5" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H5" t="n">
         <v>4.4</v>
@@ -1084,7 +1084,7 @@
         <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1105,7 +1105,7 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
@@ -1114,7 +1114,7 @@
         <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U5" t="n">
         <v>2.18</v>
@@ -1129,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
         <v>38</v>
@@ -1147,7 +1147,7 @@
         <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
         <v>12.5</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.89</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
         <v>4.1</v>
@@ -1240,7 +1240,7 @@
         <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U6" t="n">
         <v>2.42</v>
@@ -1291,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G7" t="n">
         <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I7" t="n">
         <v>2.22</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1405,19 +1405,19 @@
         <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
         <v>3.15</v>
@@ -1486,13 +1486,13 @@
         <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" t="n">
         <v>1.62</v>
@@ -1522,7 +1522,7 @@
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
         <v>16.5</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
         <v>1.39</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1669,16 +1669,16 @@
         <v>130</v>
       </c>
       <c r="Y9" t="n">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="Z9" t="n">
         <v>150</v>
       </c>
       <c r="AA9" t="n">
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
         <v>19</v>
@@ -1696,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1708,13 +1708,13 @@
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1756,7 +1756,7 @@
         <v>1.72</v>
       </c>
       <c r="I10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
         <v>1.63</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
         <v>3.85</v>
       </c>
       <c r="H11" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.16</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.2</v>
-      </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>3.7</v>
@@ -2092,10 +2092,10 @@
         <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="n">
         <v>15.5</v>
@@ -2104,7 +2104,7 @@
         <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2155,10 +2155,10 @@
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I13" t="n">
         <v>1.43</v>
@@ -2167,13 +2167,13 @@
         <v>4.9</v>
       </c>
       <c r="K13" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2209,10 +2209,10 @@
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2383,7 +2383,7 @@
         <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="n">
         <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>3.65</v>
@@ -2509,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2563,16 +2563,16 @@
         <v>2.04</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I16" t="n">
         <v>4.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
@@ -2614,7 +2614,7 @@
         <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2647,7 +2647,7 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2698,7 +2698,7 @@
         <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I17" t="n">
         <v>2.58</v>
@@ -2707,7 +2707,7 @@
         <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
         <v>2.16</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
         <v>1.78</v>
@@ -2893,13 +2893,13 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
         <v>130</v>
@@ -2974,10 +2974,10 @@
         <v>2.72</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>5.4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="I21" t="n">
         <v>1.74</v>
@@ -3265,7 +3265,7 @@
         <v>2.32</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G22" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="H22" t="n">
         <v>16</v>
       </c>
       <c r="I22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="J22" t="n">
         <v>7.4</v>
       </c>
       <c r="K22" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U22" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
         <v>210</v>
@@ -3436,13 +3436,13 @@
         <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AF22" t="n">
         <v>8.4</v>
@@ -3454,7 +3454,7 @@
         <v>50</v>
       </c>
       <c r="AI22" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AJ22" t="n">
         <v>10.5</v>
@@ -3469,7 +3469,7 @@
         <v>270</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H23" t="n">
         <v>3.15</v>
@@ -3514,7 +3514,7 @@
         <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
         <v>3.45</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>12.5</v>
@@ -3586,7 +3586,7 @@
         <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
         <v>55</v>
@@ -3643,7 +3643,7 @@
         <v>4.7</v>
       </c>
       <c r="H24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I24" t="n">
         <v>1.79</v>
@@ -3652,7 +3652,7 @@
         <v>4.4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R24" t="n">
         <v>1.63</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
@@ -3700,7 +3700,7 @@
         <v>13.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
         <v>32</v>
@@ -3724,7 +3724,7 @@
         <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
         <v>120</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
         <v>7.8</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G25" t="n">
         <v>1.24</v>
       </c>
       <c r="H25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="I25" t="n">
         <v>21</v>
@@ -3787,7 +3787,7 @@
         <v>7.2</v>
       </c>
       <c r="K25" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>2.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>75</v>
       </c>
       <c r="AE25" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AF25" t="n">
         <v>7.2</v>
@@ -3856,10 +3856,10 @@
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI25" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.800000000000001</v>
@@ -3913,7 +3913,7 @@
         <v>3.45</v>
       </c>
       <c r="H26" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I26" t="n">
         <v>2.36</v>
@@ -3931,22 +3931,22 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q26" t="n">
         <v>1.96</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T26" t="n">
         <v>1.75</v>
@@ -3970,7 +3970,7 @@
         <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
         <v>13.5</v>
@@ -4000,7 +4000,7 @@
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="n">
         <v>60</v>
@@ -4009,7 +4009,7 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="n">
         <v>23</v>
@@ -4048,16 +4048,16 @@
         <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I27" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4084,11 +4084,11 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.89</v>
       </c>
-      <c r="U27" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG27" t="n">
         <v>1000</v>
@@ -4147,7 +4147,7 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="G28" t="n">
         <v>14</v>
@@ -4186,19 +4186,19 @@
         <v>1.34</v>
       </c>
       <c r="I28" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q28" t="n">
         <v>1.64</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
         <v>1.83</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
@@ -4399,7 +4399,7 @@
         <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
@@ -4408,7 +4408,7 @@
         <v>600</v>
       </c>
       <c r="AL29" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AM29" t="n">
         <v>360</v>
@@ -4417,7 +4417,7 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="30">
@@ -4480,7 +4480,7 @@
         <v>2.04</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4585,19 +4585,19 @@
         <v>2.92</v>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I31" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
         <v>42</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G32" t="n">
         <v>3.55</v>
@@ -4750,7 +4750,7 @@
         <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U32" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
         <v>1000</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G33" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
         <v>3.95</v>
@@ -5065,10 +5065,10 @@
         <v>18.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
         <v>1000</v>
@@ -5089,7 +5089,7 @@
         <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
         <v>9.800000000000001</v>
@@ -5125,7 +5125,7 @@
         <v>1.93</v>
       </c>
       <c r="G35" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H35" t="n">
         <v>4.3</v>
@@ -5134,7 +5134,7 @@
         <v>4.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K35" t="n">
         <v>3.9</v>
@@ -5155,7 +5155,7 @@
         <v>1.89</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U35" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC35" t="n">
         <v>9.6</v>
@@ -5215,7 +5215,7 @@
         <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
         <v>40</v>
@@ -5320,7 +5320,7 @@
         <v>85</v>
       </c>
       <c r="AA36" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB36" t="n">
         <v>8.6</v>
@@ -5353,7 +5353,7 @@
         <v>17.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>180</v>
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G37" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="J37" t="n">
         <v>3.75</v>
@@ -5425,7 +5425,7 @@
         <v>2.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>1.64</v>
       </c>
       <c r="U37" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>29</v>
       </c>
       <c r="AB37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
         <v>12</v>
@@ -5470,13 +5470,13 @@
         <v>23</v>
       </c>
       <c r="AF37" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG37" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI37" t="n">
         <v>34</v>
@@ -5488,13 +5488,13 @@
         <v>40</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
         <v>14</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G2" t="n">
         <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
         <v>2.86</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
@@ -754,16 +754,16 @@
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
         <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
@@ -883,7 +883,7 @@
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>17.5</v>
@@ -892,19 +892,19 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
         <v>17</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="I4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -994,7 +994,7 @@
         <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -1099,13 +1099,13 @@
         <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
@@ -1114,7 +1114,7 @@
         <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
         <v>2.18</v>
@@ -1129,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
         <v>38</v>
@@ -1210,13 +1210,13 @@
         <v>1.88</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
         <v>4.1</v>
@@ -1240,7 +1240,7 @@
         <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
         <v>2.42</v>
@@ -1270,7 +1270,7 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1303,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G7" t="n">
         <v>3.6</v>
@@ -1354,7 +1354,7 @@
         <v>2.22</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
         <v>2.22</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1405,7 +1405,7 @@
         <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1417,7 +1417,7 @@
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1480,13 +1480,13 @@
         <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1522,7 +1522,7 @@
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
         <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
         <v>7.6</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
         <v>1.97</v>
@@ -1687,7 +1687,7 @@
         <v>200</v>
       </c>
       <c r="AE9" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF9" t="n">
         <v>10</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G10" t="n">
         <v>5.2</v>
@@ -1804,25 +1804,25 @@
         <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>44</v>
@@ -1831,10 +1831,10 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>130</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>8.199999999999999</v>
@@ -1885,7 +1885,7 @@
         <v>3.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
         <v>2.14</v>
@@ -1894,7 +1894,7 @@
         <v>2.16</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
         <v>3.7</v>
@@ -1957,37 +1957,37 @@
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG11" t="n">
         <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD12" t="n">
         <v>14</v>
       </c>
-      <c r="Y12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12</v>
-      </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
         <v>1.68</v>
@@ -2197,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="14">
@@ -2332,7 +2332,7 @@
         <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,46 +2341,46 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="15">
@@ -2425,16 +2425,16 @@
         <v>2.18</v>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
         <v>3.65</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
@@ -2524,7 +2524,7 @@
         <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2590,7 +2590,7 @@
         <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
@@ -2641,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>3.2</v>
@@ -2746,37 +2746,37 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG17" t="n">
         <v>16</v>
       </c>
-      <c r="Y17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>14</v>
-      </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>40</v>
@@ -2785,7 +2785,7 @@
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,10 +2794,10 @@
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
         <v>7.8</v>
@@ -2842,7 +2842,7 @@
         <v>4.7</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
         <v>1.9</v>
@@ -2884,7 +2884,7 @@
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2896,16 +2896,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
@@ -2920,7 +2920,7 @@
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2995,7 +2995,7 @@
         <v>1.71</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>1.44</v>
       </c>
       <c r="G20" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H20" t="n">
         <v>7.8</v>
@@ -3112,7 +3112,7 @@
         <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3154,46 +3154,46 @@
         <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="n">
         <v>300</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="n">
         <v>140</v>
       </c>
       <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
         <v>12</v>
       </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
         <v>140</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G21" t="n">
         <v>5.4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I21" t="n">
         <v>1.74</v>
@@ -3277,7 +3277,7 @@
         <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
@@ -3307,10 +3307,10 @@
         <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
         <v>1000</v>
@@ -3331,7 +3331,7 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -3370,7 +3370,7 @@
         <v>1.22</v>
       </c>
       <c r="G22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H22" t="n">
         <v>16</v>
@@ -3469,7 +3469,7 @@
         <v>270</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3508,13 +3508,13 @@
         <v>2.58</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>3.45</v>
@@ -3565,7 +3565,7 @@
         <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
         <v>10.5</v>
@@ -3577,7 +3577,7 @@
         <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="n">
         <v>16.5</v>
@@ -3592,13 +3592,13 @@
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL23" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
         <v>120</v>
@@ -3643,16 +3643,16 @@
         <v>4.7</v>
       </c>
       <c r="H24" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I24" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="J24" t="n">
         <v>4.4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R24" t="n">
         <v>1.63</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
@@ -3706,7 +3706,7 @@
         <v>32</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
         <v>10.5</v>
@@ -3727,13 +3727,13 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y25" t="n">
         <v>1000</v>
@@ -3838,19 +3838,19 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
         <v>18</v>
       </c>
       <c r="AD25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
         <v>490</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
@@ -3871,10 +3871,10 @@
         <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G26" t="n">
         <v>3.45</v>
@@ -3931,22 +3931,22 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T26" t="n">
         <v>1.75</v>
@@ -3961,19 +3961,19 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
         <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
         <v>8.199999999999999</v>
@@ -3985,7 +3985,7 @@
         <v>34</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="n">
         <v>14.5</v>
@@ -4000,7 +4000,7 @@
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL26" t="n">
         <v>60</v>
@@ -4009,7 +4009,7 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AO26" t="n">
         <v>23</v>
@@ -4057,7 +4057,7 @@
         <v>3.85</v>
       </c>
       <c r="K27" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
@@ -4120,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AG27" t="n">
         <v>1000</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G28" t="n">
         <v>14</v>
       </c>
       <c r="H28" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="I28" t="n">
         <v>1.41</v>
       </c>
       <c r="J28" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="K28" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>1.84</v>
       </c>
       <c r="U28" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4321,10 +4321,10 @@
         <v>1.17</v>
       </c>
       <c r="I29" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K29" t="n">
         <v>9.199999999999999</v>
@@ -4453,7 +4453,7 @@
         <v>2.54</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
         <v>3.45</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" t="n">
         <v>1.79</v>
@@ -4492,7 +4492,7 @@
         <v>1.64</v>
       </c>
       <c r="U30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4504,31 +4504,31 @@
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH30" t="n">
         <v>1000</v>
@@ -4537,22 +4537,22 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G31" t="n">
         <v>3.35</v>
       </c>
       <c r="H31" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I31" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I32" t="n">
         <v>2.32</v>
@@ -4786,7 +4786,7 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD32" t="n">
         <v>1000</v>
@@ -4819,7 +4819,7 @@
         <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>14.5</v>
@@ -4858,7 +4858,7 @@
         <v>2.26</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
         <v>3.95</v>
@@ -4906,58 +4906,58 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y33" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF33" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL33" t="n">
         <v>36</v>
       </c>
       <c r="AM33" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -5041,40 +5041,40 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE34" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="n">
         <v>150</v>
@@ -5092,7 +5092,7 @@
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -5125,7 +5125,7 @@
         <v>1.93</v>
       </c>
       <c r="G35" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H35" t="n">
         <v>4.3</v>
@@ -5176,13 +5176,13 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
@@ -5191,13 +5191,13 @@
         <v>10</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="n">
         <v>13.5</v>
@@ -5206,28 +5206,28 @@
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
         <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM35" t="n">
         <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -5269,7 +5269,7 @@
         <v>8.6</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K36" t="n">
         <v>4.7</v>
@@ -5287,23 +5287,23 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="U36" t="n">
         <v>1.83</v>
       </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.84</v>
-      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
@@ -5311,49 +5311,49 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z36" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>320</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK36" t="n">
         <v>17.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
         <v>180</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G37" t="n">
         <v>3.5</v>
       </c>
       <c r="H37" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I37" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J37" t="n">
         <v>3.75</v>
       </c>
       <c r="K37" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5446,19 +5446,19 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB37" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC37" t="n">
         <v>9</v>
@@ -5467,16 +5467,16 @@
         <v>12</v>
       </c>
       <c r="AE37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AG37" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
         <v>34</v>
@@ -5485,19 +5485,19 @@
         <v>70</v>
       </c>
       <c r="AK37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="n">
         <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO37" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
         <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
         <v>2.86</v>
@@ -682,31 +682,31 @@
         <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
         <v>1.74</v>
@@ -715,16 +715,16 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>38</v>
@@ -748,28 +748,28 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
         <v>2.04</v>
@@ -838,76 +838,76 @@
         <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
         <v>11</v>
       </c>
-      <c r="Z3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
         <v>26</v>
       </c>
       <c r="AG3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO3" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
         <v>5.4</v>
@@ -955,7 +955,7 @@
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -982,13 +982,13 @@
         <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
         <v>15.5</v>
@@ -1000,10 +1000,10 @@
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
@@ -1012,10 +1012,10 @@
         <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
@@ -1024,7 +1024,7 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
         <v>170</v>
@@ -1033,7 +1033,7 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
         <v>140</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
         <v>1.88</v>
@@ -1081,7 +1081,7 @@
         <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
@@ -1090,16 +1090,16 @@
         <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
         <v>2.14</v>
@@ -1108,76 +1108,76 @@
         <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
         <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
         <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1225,28 +1225,28 @@
         <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
         <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
         <v>1.62</v>
@@ -1255,64 +1255,64 @@
         <v>2.42</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
         <v>22</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
         <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1351,49 +1351,49 @@
         <v>2.16</v>
       </c>
       <c r="I7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
         <v>1.86</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
@@ -1432,7 +1432,7 @@
         <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1441,7 +1441,7 @@
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
         <v>2.36</v>
@@ -1495,40 +1495,40 @@
         <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
         <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
         <v>24</v>
@@ -1549,7 +1549,7 @@
         <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
@@ -1627,19 +1627,19 @@
         <v>7.6</v>
       </c>
       <c r="K9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
         <v>3.25</v>
@@ -1648,28 +1648,28 @@
         <v>1.39</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="X9" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>150</v>
@@ -1684,7 +1684,7 @@
         <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
         <v>260</v>
@@ -1693,10 +1693,10 @@
         <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1756,7 +1756,7 @@
         <v>1.72</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1765,16 +1765,16 @@
         <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
         <v>2.38</v>
@@ -1783,10 +1783,10 @@
         <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
         <v>1.66</v>
@@ -1795,10 +1795,10 @@
         <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
         <v>25</v>
@@ -1813,13 +1813,13 @@
         <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -1834,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
         <v>130</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H11" t="n">
         <v>2.14</v>
       </c>
       <c r="I11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
         <v>1.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK11" t="n">
         <v>46</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>50</v>
-      </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
         <v>2.26</v>
@@ -2035,16 +2035,16 @@
         <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
         <v>1.81</v>
@@ -2053,22 +2053,22 @@
         <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
         <v>16</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q13" t="n">
         <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG13" t="n">
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14">
@@ -2305,16 +2305,16 @@
         <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
         <v>1.97</v>
@@ -2323,28 +2323,28 @@
         <v>1.84</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
         <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
         <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
         <v>18</v>
@@ -2353,7 +2353,7 @@
         <v>36</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
@@ -2434,22 +2434,22 @@
         <v>3.65</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
         <v>2.02</v>
@@ -2458,10 +2458,10 @@
         <v>1.84</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
         <v>1.7</v>
@@ -2470,58 +2470,58 @@
         <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
         <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
         <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
         <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI15" t="n">
         <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
         <v>16.5</v>
@@ -2563,7 +2563,7 @@
         <v>2.04</v>
       </c>
       <c r="H16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>4.7</v>
@@ -2575,28 +2575,28 @@
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
         <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T16" t="n">
         <v>1.74</v>
@@ -2605,10 +2605,10 @@
         <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -2641,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2698,7 +2698,7 @@
         <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I17" t="n">
         <v>2.58</v>
@@ -2710,43 +2710,43 @@
         <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
         <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y17" t="n">
         <v>13</v>
@@ -2785,7 +2785,7 @@
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2830,109 +2830,109 @@
         <v>1.5</v>
       </c>
       <c r="G18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H18" t="n">
         <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q18" t="n">
         <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U18" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
         <v>2.46</v>
@@ -2974,52 +2974,52 @@
         <v>2.72</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U19" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3142,7 +3142,7 @@
         <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>1.7</v>
       </c>
       <c r="I21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J21" t="n">
         <v>4.3</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
         <v>1.7</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3379,10 +3379,10 @@
         <v>18.5</v>
       </c>
       <c r="J22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K22" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="U22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I24" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="J24" t="n">
         <v>4.4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q24" t="n">
         <v>1.58</v>
@@ -3691,22 +3691,22 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
         <v>10.5</v>
@@ -3718,28 +3718,28 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
         <v>95</v>
       </c>
       <c r="AK24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO24" t="n">
         <v>7.8</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
         <v>1.64</v>
@@ -3817,7 +3817,7 @@
         <v>2.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>3.45</v>
       </c>
       <c r="H26" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I26" t="n">
         <v>2.36</v>
@@ -3931,25 +3931,25 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U26" t="n">
         <v>2.22</v>
@@ -3964,7 +3964,7 @@
         <v>14.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="n">
         <v>15</v>
@@ -3976,7 +3976,7 @@
         <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
         <v>11.5</v>
@@ -3988,10 +3988,10 @@
         <v>42</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>42</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="I27" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="J27" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="K27" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4096,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4114,13 +4114,13 @@
         <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG27" t="n">
         <v>1000</v>
@@ -4135,10 +4135,10 @@
         <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
@@ -4399,7 +4399,7 @@
         <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
@@ -4450,16 +4450,16 @@
         <v>2.28</v>
       </c>
       <c r="G30" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I30" t="n">
         <v>3.45</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K30" t="n">
         <v>3.85</v>
@@ -4480,7 +4480,7 @@
         <v>2.06</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>40</v>
       </c>
       <c r="AK30" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G31" t="n">
         <v>3.35</v>
       </c>
       <c r="H31" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I31" t="n">
         <v>2.62</v>
@@ -4720,10 +4720,10 @@
         <v>3.2</v>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="I32" t="n">
         <v>2.32</v>
@@ -4786,7 +4786,7 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
         <v>1000</v>
@@ -4885,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z34" t="n">
         <v>14</v>
@@ -5056,13 +5056,13 @@
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
         <v>12</v>
       </c>
       <c r="AE34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF34" t="n">
         <v>50</v>
@@ -5125,7 +5125,7 @@
         <v>1.93</v>
       </c>
       <c r="G35" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>4.3</v>
@@ -5134,7 +5134,7 @@
         <v>4.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
         <v>3.9</v>
@@ -5167,7 +5167,7 @@
         <v>1.86</v>
       </c>
       <c r="U35" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
         <v>9.199999999999999</v>
@@ -5218,16 +5218,16 @@
         <v>26</v>
       </c>
       <c r="AL35" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5290,7 +5290,7 @@
         <v>1.97</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>1.98</v>
       </c>
       <c r="U36" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>17.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>180</v>
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H37" t="n">
         <v>2.18</v>
       </c>
       <c r="I37" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J37" t="n">
         <v>3.75</v>
@@ -5473,7 +5473,7 @@
         <v>32</v>
       </c>
       <c r="AG37" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH37" t="n">
         <v>19</v>
@@ -5491,7 +5491,7 @@
         <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
         <v>34</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -679,31 +679,31 @@
         <v>2.86</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>3.5</v>
@@ -715,13 +715,13 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11.5</v>
@@ -736,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
         <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -847,10 +847,10 @@
         <v>1.72</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W3" t="n">
         <v>1.36</v>
@@ -862,13 +862,13 @@
         <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
         <v>27</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
@@ -907,7 +907,7 @@
         <v>40</v>
       </c>
       <c r="AO3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>5.4</v>
@@ -961,16 +961,16 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
@@ -979,10 +979,10 @@
         <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
         <v>2.24</v>
@@ -991,55 +991,55 @@
         <v>1.23</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB4" t="n">
         <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AJ4" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
@@ -1102,19 +1102,19 @@
         <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U5" t="n">
         <v>2.18</v>
@@ -1123,34 +1123,34 @@
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
         <v>9.800000000000001</v>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
         <v>18</v>
@@ -1177,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1246,7 +1246,7 @@
         <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T6" t="n">
         <v>1.62</v>
@@ -1264,13 +1264,13 @@
         <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
         <v>36</v>
       </c>
       <c r="AA6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1279,7 +1279,7 @@
         <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE6" t="n">
         <v>44</v>
@@ -1372,13 +1372,13 @@
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
         <v>1.86</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S7" t="n">
         <v>3.2</v>
@@ -1387,7 +1387,7 @@
         <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
         <v>1.83</v>
@@ -1402,10 +1402,10 @@
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1414,13 +1414,13 @@
         <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
         <v>15.5</v>
@@ -1435,7 +1435,7 @@
         <v>70</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,10 +1444,10 @@
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>2.36</v>
@@ -1507,10 +1507,10 @@
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
         <v>1.61</v>
@@ -1522,13 +1522,13 @@
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V8" t="n">
         <v>1.69</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
         <v>24</v>
@@ -1540,22 +1540,22 @@
         <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
         <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
         <v>14.5</v>
@@ -1564,19 +1564,19 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ8" t="n">
         <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
@@ -1630,7 +1630,7 @@
         <v>8.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1642,22 +1642,22 @@
         <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q9" t="n">
         <v>1.39</v>
       </c>
       <c r="R9" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
         <v>1.97</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
@@ -1669,10 +1669,10 @@
         <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1705,10 +1705,10 @@
         <v>10.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
         <v>1.72</v>
       </c>
       <c r="I10" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
         <v>4.5</v>
@@ -1771,28 +1771,28 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>2.42</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
         <v>2.28</v>
@@ -1804,43 +1804,43 @@
         <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>24</v>
       </c>
-      <c r="AC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>20</v>
-      </c>
       <c r="AF10" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1849,10 +1849,10 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
         <v>3.85</v>
@@ -1906,7 +1906,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
         <v>1.34</v>
@@ -1915,16 +1915,16 @@
         <v>1.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -1966,13 +1966,13 @@
         <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="n">
         <v>46</v>
@@ -1981,7 +1981,7 @@
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
         <v>46</v>
@@ -2155,19 +2155,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I13" t="n">
         <v>1.44</v>
       </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2194,13 +2194,13 @@
         <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W13" t="n">
         <v>1.11</v>
@@ -2212,10 +2212,10 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
@@ -2227,19 +2227,19 @@
         <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="n">
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
         <v>340</v>
@@ -2254,10 +2254,10 @@
         <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.35</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.45</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
@@ -2308,91 +2308,91 @@
         <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.85</v>
+        <v>1.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.97</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="W14" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
         <v>1.28</v>
@@ -2476,7 +2476,7 @@
         <v>1.77</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>15</v>
@@ -2509,7 +2509,7 @@
         <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
         <v>30</v>
@@ -2527,7 +2527,7 @@
         <v>16.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G16" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I16" t="n">
         <v>4.7</v>
@@ -2578,28 +2578,28 @@
         <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
         <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
         <v>3.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
         <v>2.08</v>
@@ -2608,13 +2608,13 @@
         <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2629,7 +2629,7 @@
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2638,7 +2638,7 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
@@ -2656,7 +2656,7 @@
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G17" t="n">
         <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I17" t="n">
         <v>2.58</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
         <v>3.7</v>
@@ -2731,55 +2731,55 @@
         <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W17" t="n">
         <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>36</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2788,16 +2788,16 @@
         <v>36</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -2830,16 +2830,16 @@
         <v>1.5</v>
       </c>
       <c r="G18" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I18" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K18" t="n">
         <v>4.9</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.24</v>
@@ -2866,10 +2866,10 @@
         <v>1.49</v>
       </c>
       <c r="S18" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
         <v>1.94</v>
@@ -2878,7 +2878,7 @@
         <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="X18" t="n">
         <v>20</v>
@@ -2926,10 +2926,10 @@
         <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
         <v>140</v>
@@ -2968,13 +2968,13 @@
         <v>3.45</v>
       </c>
       <c r="H19" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I19" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>3.35</v>
@@ -2992,7 +2992,7 @@
         <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q19" t="n">
         <v>2.2</v>
@@ -3004,10 +3004,10 @@
         <v>4.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V19" t="n">
         <v>1.58</v>
@@ -3016,10 +3016,10 @@
         <v>1.41</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,13 +3028,13 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -3046,7 +3046,7 @@
         <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3061,10 +3061,10 @@
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,109 +3097,109 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="G20" t="n">
         <v>1.49</v>
       </c>
       <c r="H20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="U20" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG20" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12</v>
-      </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H21" t="n">
         <v>1.7</v>
       </c>
       <c r="I21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="J21" t="n">
         <v>4.3</v>
@@ -3250,16 +3250,16 @@
         <v>4.6</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
         <v>2.3</v>
@@ -3268,22 +3268,22 @@
         <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T21" t="n">
         <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X21" t="n">
         <v>22</v>
@@ -3292,13 +3292,13 @@
         <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
@@ -3313,13 +3313,13 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ21" t="n">
         <v>150</v>
@@ -3370,10 +3370,10 @@
         <v>1.22</v>
       </c>
       <c r="G22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I22" t="n">
         <v>18.5</v>
@@ -3382,46 +3382,46 @@
         <v>7.2</v>
       </c>
       <c r="K22" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
         <v>2.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U22" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
         <v>1000</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3448,28 +3448,28 @@
         <v>8.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI22" t="n">
         <v>250</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
         <v>270</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3520,94 +3520,94 @@
         <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
         <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
         <v>1.8</v>
       </c>
       <c r="U23" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
         <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL23" t="n">
         <v>42</v>
       </c>
-      <c r="AK23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>50</v>
-      </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -3652,10 +3652,10 @@
         <v>4.4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3664,13 +3664,13 @@
         <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R24" t="n">
         <v>1.63</v>
@@ -3679,67 +3679,67 @@
         <v>2.46</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U24" t="n">
         <v>2.42</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X24" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB24" t="n">
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AO24" t="n">
         <v>7.8</v>
@@ -3790,46 +3790,46 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T25" t="n">
         <v>2.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="X25" t="n">
         <v>30</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z25" t="n">
         <v>230</v>
@@ -3841,28 +3841,28 @@
         <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AF25" t="n">
         <v>7.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
         <v>330</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AK25" t="n">
         <v>16</v>
@@ -3919,13 +3919,13 @@
         <v>2.36</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -3937,79 +3937,79 @@
         <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
         <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U26" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z26" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>15</v>
-      </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
         <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AF26" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AG26" t="n">
         <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL26" t="n">
         <v>48</v>
       </c>
-      <c r="AL26" t="n">
-        <v>60</v>
-      </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO26" t="n">
         <v>18.5</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="G27" t="n">
         <v>10</v>
@@ -4051,7 +4051,7 @@
         <v>1.43</v>
       </c>
       <c r="I27" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J27" t="n">
         <v>4.7</v>
@@ -4060,50 +4060,50 @@
         <v>6.2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P27" t="n">
         <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T27" t="n">
         <v>1.9</v>
       </c>
       <c r="U27" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
       </c>
       <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
         <v>11</v>
       </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4141,13 +4141,13 @@
         <v>120</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="G28" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="H28" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="I28" t="n">
         <v>1.41</v>
       </c>
       <c r="J28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
         <v>4.8</v>
       </c>
-      <c r="K28" t="n">
-        <v>7</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="U28" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4237,7 +4237,7 @@
         <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4315,7 +4315,7 @@
         <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H29" t="n">
         <v>1.17</v>
@@ -4330,7 +4330,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -4348,7 +4348,7 @@
         <v>1.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S29" t="n">
         <v>2.26</v>
@@ -4357,16 +4357,16 @@
         <v>2.36</v>
       </c>
       <c r="U29" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X29" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
@@ -4393,13 +4393,13 @@
         <v>310</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
@@ -4411,7 +4411,7 @@
         <v>390</v>
       </c>
       <c r="AM29" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
@@ -4447,88 +4447,88 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G30" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>3.85</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P30" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U30" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
         <v>1000</v>
@@ -4537,7 +4537,7 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
         <v>1000</v>
@@ -4549,10 +4549,10 @@
         <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4600,16 +4600,16 @@
         <v>3.65</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -4618,22 +4618,22 @@
         <v>1.81</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T31" t="n">
         <v>1.67</v>
       </c>
       <c r="U31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X31" t="n">
         <v>19.5</v>
@@ -4729,52 +4729,52 @@
         <v>2.32</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U32" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4786,22 +4786,22 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -4822,7 +4822,7 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.12</v>
+        <v>1.09</v>
       </c>
       <c r="G33" t="n">
         <v>2.26</v>
       </c>
       <c r="H33" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I33" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
         <v>3.5</v>
@@ -4870,94 +4870,94 @@
         <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.82</v>
+        <v>1.22</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X33" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4990,109 +4990,109 @@
         <v>5.1</v>
       </c>
       <c r="G34" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I34" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
       </c>
       <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
         <v>11</v>
       </c>
-      <c r="AD34" t="n">
-        <v>12</v>
-      </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG34" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ34" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM34" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="35">
@@ -5113,118 +5113,118 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.93</v>
+        <v>3.45</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H35" t="n">
-        <v>4.3</v>
+        <v>2.14</v>
       </c>
       <c r="I35" t="n">
-        <v>4.6</v>
+        <v>2.28</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K35" t="n">
         <v>3.9</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T35" t="n">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="U35" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X35" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5260,31 +5260,31 @@
         <v>1.49</v>
       </c>
       <c r="G36" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H36" t="n">
         <v>7.2</v>
       </c>
       <c r="I36" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K36" t="n">
         <v>4.7</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
         <v>1.97</v>
@@ -5293,25 +5293,25 @@
         <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T36" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U36" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="X36" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
         <v>25</v>
@@ -5326,10 +5326,10 @@
         <v>8.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
@@ -5341,25 +5341,25 @@
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ36" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AK36" t="n">
         <v>17.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
         <v>180</v>
       </c>
       <c r="AN36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.4</v>
+        <v>1.93</v>
       </c>
       <c r="G37" t="n">
-        <v>3.6</v>
+        <v>2.02</v>
       </c>
       <c r="H37" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.28</v>
+        <v>4.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K37" t="n">
         <v>3.9</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="U37" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Z37" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD37" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>12</v>
-      </c>
       <c r="AE37" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AG37" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AL37" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AO37" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
         <v>2.62</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -697,10 +697,10 @@
         <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -715,13 +715,13 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
         <v>11.5</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
         <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -850,16 +850,16 @@
         <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>14</v>
@@ -871,10 +871,10 @@
         <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -886,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
         <v>36</v>
@@ -904,7 +904,7 @@
         <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
         <v>16</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -961,61 +961,61 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X4" t="n">
         <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z4" t="n">
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
         <v>75</v>
@@ -1042,7 +1042,7 @@
         <v>80</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1099,37 +1099,37 @@
         <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
         <v>36</v>
@@ -1150,7 +1150,7 @@
         <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
         <v>9.800000000000001</v>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
         <v>18</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.29</v>
@@ -1237,7 +1237,7 @@
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
         <v>1.64</v>
@@ -1246,10 +1246,10 @@
         <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
         <v>2.42</v>
@@ -1258,13 +1258,13 @@
         <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
         <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z6" t="n">
         <v>36</v>
@@ -1273,16 +1273,16 @@
         <v>85</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
         <v>13.5</v>
@@ -1312,7 +1312,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1381,7 +1381,7 @@
         <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
         <v>1.73</v>
@@ -1390,7 +1390,7 @@
         <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W7" t="n">
         <v>1.38</v>
@@ -1480,7 +1480,7 @@
         <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
         <v>2.36</v>
@@ -1522,7 +1522,7 @@
         <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="V8" t="n">
         <v>1.69</v>
@@ -1549,7 +1549,7 @@
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
@@ -1615,10 +1615,10 @@
         <v>1.23</v>
       </c>
       <c r="G9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I9" t="n">
         <v>17</v>
@@ -1642,7 +1642,7 @@
         <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
         <v>1.39</v>
@@ -1657,7 +1657,7 @@
         <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
@@ -1672,7 +1672,7 @@
         <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,19 +1681,19 @@
         <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD9" t="n">
         <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>36</v>
@@ -1705,7 +1705,7 @@
         <v>10.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
         <v>38</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I10" t="n">
         <v>1.77</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
         <v>4.5</v>
@@ -1771,28 +1771,28 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>2.42</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
         <v>2.28</v>
@@ -1801,46 +1801,46 @@
         <v>1.23</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>30</v>
       </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G11" t="n">
         <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -1906,13 +1906,13 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q11" t="n">
         <v>2.02</v>
@@ -1924,19 +1924,19 @@
         <v>3.55</v>
       </c>
       <c r="T11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.83</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.84</v>
       </c>
       <c r="W11" t="n">
         <v>1.35</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>9.800000000000001</v>
@@ -2155,13 +2155,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>1.41</v>
       </c>
       <c r="I13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J13" t="n">
         <v>5.4</v>
@@ -2188,10 +2188,10 @@
         <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
         <v>1.99</v>
@@ -2209,7 +2209,7 @@
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z13" t="n">
         <v>8.6</v>
@@ -2224,10 +2224,10 @@
         <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF13" t="n">
         <v>85</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="H14" t="n">
         <v>2.12</v>
       </c>
       <c r="I14" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
@@ -2308,58 +2308,58 @@
         <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.97</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="W14" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2368,10 +2368,10 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2389,10 +2389,10 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O15" t="n">
         <v>1.28</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G16" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>4.7</v>
@@ -2578,22 +2578,22 @@
         <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.28</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
         <v>3.1</v>
@@ -2602,13 +2602,13 @@
         <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
         <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -2656,7 +2656,7 @@
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
@@ -2722,7 +2722,7 @@
         <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
         <v>1.86</v>
@@ -2737,7 +2737,7 @@
         <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V17" t="n">
         <v>1.63</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H18" t="n">
         <v>7.4</v>
       </c>
       <c r="I18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J18" t="n">
         <v>4.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>1.34</v>
@@ -2866,7 +2866,7 @@
         <v>1.49</v>
       </c>
       <c r="S18" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T18" t="n">
         <v>1.9</v>
@@ -2875,31 +2875,31 @@
         <v>1.94</v>
       </c>
       <c r="V18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W18" t="n">
         <v>2.94</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
         <v>120</v>
@@ -2908,13 +2908,13 @@
         <v>9.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="n">
         <v>13.5</v>
@@ -2926,10 +2926,10 @@
         <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO18" t="n">
         <v>140</v>
@@ -2965,10 +2965,10 @@
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I19" t="n">
         <v>2.7</v>
@@ -2977,7 +2977,7 @@
         <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.55</v>
@@ -3010,10 +3010,10 @@
         <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W19" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X19" t="n">
         <v>14</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G20" t="n">
         <v>1.49</v>
@@ -3106,13 +3106,13 @@
         <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -3121,85 +3121,85 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="S20" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="T20" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W20" t="n">
         <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3262,7 +3262,7 @@
         <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q21" t="n">
         <v>1.7</v>
@@ -3274,7 +3274,7 @@
         <v>2.76</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
         <v>2.22</v>
@@ -3325,7 +3325,7 @@
         <v>150</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
         <v>1000</v>
@@ -3370,7 +3370,7 @@
         <v>1.22</v>
       </c>
       <c r="G22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H22" t="n">
         <v>15.5</v>
@@ -3379,10 +3379,10 @@
         <v>18.5</v>
       </c>
       <c r="J22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K22" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.26</v>
@@ -3394,13 +3394,13 @@
         <v>5.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
         <v>1.65</v>
@@ -3409,7 +3409,7 @@
         <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="U22" t="n">
         <v>1.69</v>
@@ -3418,10 +3418,10 @@
         <v>1.05</v>
       </c>
       <c r="W22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
         <v>1000</v>
@@ -3433,13 +3433,13 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
         <v>18.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="n">
         <v>360</v>
@@ -3469,7 +3469,7 @@
         <v>270</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.54</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.58</v>
-      </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3526,13 +3526,13 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q23" t="n">
         <v>2.06</v>
@@ -3550,10 +3550,10 @@
         <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W23" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="X23" t="n">
         <v>12.5</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H24" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I24" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
         <v>4.4</v>
@@ -3664,13 +3664,13 @@
         <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
         <v>2.54</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
         <v>1.63</v>
@@ -3685,22 +3685,22 @@
         <v>2.42</v>
       </c>
       <c r="V24" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="W24" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X24" t="n">
         <v>24</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>13</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="n">
         <v>23</v>
@@ -3712,7 +3712,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
         <v>40</v>
@@ -3727,7 +3727,7 @@
         <v>25</v>
       </c>
       <c r="AJ24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="n">
         <v>50</v>
@@ -3739,7 +3739,7 @@
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
         <v>7.8</v>
@@ -3778,16 +3778,16 @@
         <v>1.24</v>
       </c>
       <c r="H25" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="I25" t="n">
         <v>21</v>
       </c>
       <c r="J25" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="K25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.3</v>
@@ -3802,13 +3802,13 @@
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R25" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
         <v>2.62</v>
@@ -3817,7 +3817,7 @@
         <v>2.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V25" t="n">
         <v>1.05</v>
@@ -3832,7 +3832,7 @@
         <v>50</v>
       </c>
       <c r="Z25" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3841,25 +3841,25 @@
         <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AF25" t="n">
         <v>7.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AJ25" t="n">
         <v>10.5</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
         <v>2.34</v>
@@ -3940,19 +3940,19 @@
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
         <v>1.73</v>
       </c>
       <c r="U26" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V26" t="n">
         <v>1.73</v>
@@ -4012,7 +4012,7 @@
         <v>38</v>
       </c>
       <c r="AO26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -4045,19 +4045,19 @@
         <v>6.8</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>1.43</v>
       </c>
       <c r="I27" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="J27" t="n">
         <v>4.7</v>
       </c>
       <c r="K27" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.33</v>
@@ -4075,7 +4075,7 @@
         <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R27" t="n">
         <v>1.46</v>
@@ -4201,7 +4201,7 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O28" t="n">
         <v>1.22</v>
@@ -4336,13 +4336,13 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O29" t="n">
         <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q29" t="n">
         <v>1.5</v>
@@ -4357,7 +4357,7 @@
         <v>2.36</v>
       </c>
       <c r="U29" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V29" t="n">
         <v>6</v>
@@ -4396,7 +4396,7 @@
         <v>100</v>
       </c>
       <c r="AH29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI29" t="n">
         <v>60</v>
@@ -4417,7 +4417,7 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="30">
@@ -4486,7 +4486,7 @@
         <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="T30" t="n">
         <v>1.65</v>
@@ -4585,7 +4585,7 @@
         <v>2.94</v>
       </c>
       <c r="G31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
         <v>2.36</v>
@@ -4630,10 +4630,10 @@
         <v>2.22</v>
       </c>
       <c r="V31" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W31" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X31" t="n">
         <v>19.5</v>
@@ -4729,7 +4729,7 @@
         <v>2.32</v>
       </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
@@ -4747,10 +4747,10 @@
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R32" t="n">
         <v>1.51</v>
@@ -4759,7 +4759,7 @@
         <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U32" t="n">
         <v>2.4</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.09</v>
+        <v>2.1</v>
       </c>
       <c r="G33" t="n">
         <v>2.26</v>
       </c>
       <c r="H33" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="J33" t="n">
         <v>3.5</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
         <v>1.45</v>
@@ -4876,88 +4876,88 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O33" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.22</v>
+        <v>1.91</v>
       </c>
       <c r="R33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.34</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.27</v>
       </c>
       <c r="W33" t="n">
         <v>1.79</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -4990,13 +4990,13 @@
         <v>5.1</v>
       </c>
       <c r="G34" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H34" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I34" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J34" t="n">
         <v>4.1</v>
@@ -5029,52 +5029,52 @@
         <v>2.94</v>
       </c>
       <c r="T34" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U34" t="n">
         <v>2.12</v>
       </c>
       <c r="V34" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="W34" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y34" t="n">
         <v>12</v>
       </c>
       <c r="Z34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD34" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AE34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH34" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>20</v>
-      </c>
       <c r="AI34" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="n">
         <v>130</v>
@@ -5092,7 +5092,7 @@
         <v>70</v>
       </c>
       <c r="AO34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H35" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="I35" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
         <v>3.9</v>
@@ -5146,88 +5146,88 @@
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R35" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S35" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="T35" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V35" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -5269,10 +5269,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K36" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>1.38</v>
@@ -5287,7 +5287,7 @@
         <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q36" t="n">
         <v>1.83</v>
@@ -5296,7 +5296,7 @@
         <v>1.38</v>
       </c>
       <c r="S36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T36" t="n">
         <v>1.99</v>
@@ -5308,7 +5308,7 @@
         <v>1.13</v>
       </c>
       <c r="W36" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="X36" t="n">
         <v>17.5</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G37" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H37" t="n">
         <v>4.3</v>
@@ -5419,22 +5419,22 @@
         <v>3.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P37" t="n">
         <v>1.91</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R37" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S37" t="n">
         <v>3.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
         <v>2.04</v>
@@ -5443,7 +5443,7 @@
         <v>1.27</v>
       </c>
       <c r="W37" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X37" t="n">
         <v>17</v>
@@ -5485,7 +5485,7 @@
         <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL37" t="n">
         <v>40</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -700,7 +700,7 @@
         <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
         <v>3.75</v>
@@ -853,13 +853,13 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
         <v>14</v>
@@ -889,7 +889,7 @@
         <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>70</v>
@@ -907,7 +907,7 @@
         <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J4" t="n">
         <v>3.85</v>
@@ -958,55 +958,55 @@
         <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
         <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="W4" t="n">
         <v>1.24</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>10</v>
@@ -1015,7 +1015,7 @@
         <v>19.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
@@ -1027,10 +1027,10 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
         <v>75</v>
@@ -1087,7 +1087,7 @@
         <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1105,16 +1105,16 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
         <v>2.2</v>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
         <v>18</v>
@@ -1177,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1231,7 +1231,7 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
@@ -1240,13 +1240,13 @@
         <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
         <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T6" t="n">
         <v>1.63</v>
@@ -1390,7 +1390,7 @@
         <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>1.38</v>
@@ -1423,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>17.5</v>
@@ -1447,7 +1447,7 @@
         <v>80</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
@@ -1480,13 +1480,13 @@
         <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1504,28 +1504,28 @@
         <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.62</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.61</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U8" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="V8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
         <v>1.46</v>
@@ -1546,7 +1546,7 @@
         <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
@@ -1558,10 +1558,10 @@
         <v>26</v>
       </c>
       <c r="AG8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH8" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>30</v>
@@ -1579,10 +1579,10 @@
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K9" t="n">
         <v>8.4</v>
@@ -1654,10 +1654,10 @@
         <v>1.97</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
         <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I11" t="n">
         <v>2.2</v>
@@ -1921,10 +1921,10 @@
         <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
         <v>2.12</v>
@@ -2029,10 +2029,10 @@
         <v>2.52</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.48</v>
@@ -2065,7 +2065,7 @@
         <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W12" t="n">
         <v>1.37</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J13" t="n">
         <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2188,10 +2188,10 @@
         <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
         <v>1.99</v>
@@ -2200,10 +2200,10 @@
         <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2212,7 +2212,7 @@
         <v>9.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2320,7 +2320,7 @@
         <v>1.97</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>1.38</v>
@@ -2476,7 +2476,7 @@
         <v>1.77</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
         <v>15</v>
@@ -2560,7 +2560,7 @@
         <v>1.9</v>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -2572,7 +2572,7 @@
         <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>1.38</v>
@@ -2608,7 +2608,7 @@
         <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -2782,7 +2782,7 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="n">
         <v>36</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H18" t="n">
         <v>7.4</v>
@@ -2848,7 +2848,7 @@
         <v>1.34</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>4.5</v>
@@ -2860,13 +2860,13 @@
         <v>2.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
         <v>1.49</v>
       </c>
       <c r="S18" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="T18" t="n">
         <v>1.9</v>
@@ -2881,7 +2881,7 @@
         <v>2.94</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2920,7 +2920,7 @@
         <v>13.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
         <v>34</v>
@@ -2968,7 +2968,7 @@
         <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I19" t="n">
         <v>2.7</v>
@@ -3010,7 +3010,7 @@
         <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W19" t="n">
         <v>1.42</v>
@@ -3043,7 +3043,7 @@
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
@@ -3139,10 +3139,10 @@
         <v>2.56</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>1.12</v>
@@ -3175,7 +3175,7 @@
         <v>140</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
@@ -3235,7 +3235,7 @@
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H21" t="n">
         <v>1.7</v>
@@ -3256,25 +3256,25 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R21" t="n">
         <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
         <v>2.22</v>
@@ -3379,7 +3379,7 @@
         <v>18.5</v>
       </c>
       <c r="J22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K22" t="n">
         <v>8.6</v>
@@ -3397,19 +3397,19 @@
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S22" t="n">
         <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="U22" t="n">
         <v>1.69</v>
@@ -3439,7 +3439,7 @@
         <v>18.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
         <v>360</v>
@@ -3469,7 +3469,7 @@
         <v>270</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G23" t="n">
         <v>2.54</v>
@@ -3511,7 +3511,7 @@
         <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3520,13 +3520,13 @@
         <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -3538,7 +3538,7 @@
         <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
         <v>3.75</v>
@@ -3553,7 +3553,7 @@
         <v>1.44</v>
       </c>
       <c r="W23" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
         <v>12.5</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="n">
         <v>4.7</v>
       </c>
       <c r="H24" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I24" t="n">
         <v>1.8</v>
@@ -3667,13 +3667,13 @@
         <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R24" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
         <v>2.46</v>
@@ -3775,19 +3775,19 @@
         <v>1.22</v>
       </c>
       <c r="G25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" t="n">
         <v>21</v>
       </c>
       <c r="J25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K25" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L25" t="n">
         <v>1.3</v>
@@ -3796,7 +3796,7 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
         <v>1.23</v>
@@ -3817,13 +3817,13 @@
         <v>2.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W25" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X25" t="n">
         <v>30</v>
@@ -3832,7 +3832,7 @@
         <v>50</v>
       </c>
       <c r="Z25" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3844,10 +3844,10 @@
         <v>19</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE25" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="AF25" t="n">
         <v>7.4</v>
@@ -3859,7 +3859,7 @@
         <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AJ25" t="n">
         <v>10.5</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G26" t="n">
         <v>3.4</v>
       </c>
-      <c r="G26" t="n">
-        <v>3.5</v>
-      </c>
       <c r="H26" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I26" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
         <v>3.6</v>
@@ -3940,13 +3940,13 @@
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R26" t="n">
         <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
         <v>1.73</v>
@@ -3955,13 +3955,13 @@
         <v>2.26</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
         <v>11.5</v>
@@ -3970,7 +3970,7 @@
         <v>14.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
         <v>13.5</v>
@@ -3988,7 +3988,7 @@
         <v>24</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
@@ -4003,16 +4003,16 @@
         <v>40</v>
       </c>
       <c r="AL26" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
         <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="27">
@@ -4216,7 +4216,7 @@
         <v>1.51</v>
       </c>
       <c r="S28" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T28" t="n">
         <v>1.99</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29" t="n">
         <v>1.17</v>
@@ -4324,10 +4324,10 @@
         <v>1.2</v>
       </c>
       <c r="J29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L29" t="n">
         <v>1.26</v>
@@ -4336,13 +4336,13 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q29" t="n">
         <v>1.5</v>
@@ -4354,10 +4354,10 @@
         <v>2.26</v>
       </c>
       <c r="T29" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="U29" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="V29" t="n">
         <v>6</v>
@@ -4375,7 +4375,7 @@
         <v>7.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AB29" t="n">
         <v>70</v>
@@ -4393,19 +4393,19 @@
         <v>310</v>
       </c>
       <c r="AG29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
         <v>55</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
         <v>390</v>
@@ -4519,7 +4519,7 @@
         <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
@@ -4591,7 +4591,7 @@
         <v>2.36</v>
       </c>
       <c r="I31" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4624,7 +4624,7 @@
         <v>3.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U31" t="n">
         <v>2.22</v>
@@ -4747,7 +4747,7 @@
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q32" t="n">
         <v>1.64</v>
@@ -4819,7 +4819,7 @@
         <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO32" t="n">
         <v>15</v>
@@ -4882,7 +4882,7 @@
         <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q33" t="n">
         <v>1.91</v>
@@ -4918,13 +4918,13 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" t="n">
         <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE33" t="n">
         <v>48</v>
@@ -5026,7 +5026,7 @@
         <v>1.44</v>
       </c>
       <c r="S34" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T34" t="n">
         <v>1.77</v>
@@ -5065,7 +5065,7 @@
         <v>17.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AG34" t="n">
         <v>25</v>
@@ -5074,13 +5074,13 @@
         <v>19.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="n">
         <v>130</v>
       </c>
       <c r="AK34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
         <v>70</v>
@@ -5128,25 +5128,25 @@
         <v>3.55</v>
       </c>
       <c r="H35" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K35" t="n">
         <v>3.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -5161,7 +5161,7 @@
         <v>1.48</v>
       </c>
       <c r="S35" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T35" t="n">
         <v>1.65</v>
@@ -5170,7 +5170,7 @@
         <v>2.34</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W35" t="n">
         <v>1.39</v>
@@ -5182,28 +5182,28 @@
         <v>12.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AB35" t="n">
         <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD35" t="n">
         <v>11.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG35" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH35" t="n">
         <v>17</v>
@@ -5212,10 +5212,10 @@
         <v>60</v>
       </c>
       <c r="AJ35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
         <v>44</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO35" t="n">
         <v>14</v>
@@ -5416,7 +5416,7 @@
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O37" t="n">
         <v>1.34</v>
@@ -5437,7 +5437,7 @@
         <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V37" t="n">
         <v>1.27</v>
@@ -5485,7 +5485,7 @@
         <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
         <v>40</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,19 +793,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H3" t="n">
         <v>2.16</v>
@@ -814,61 +814,61 @@
         <v>2.2</v>
       </c>
       <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.7</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>27</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
         <v>8</v>
@@ -877,37 +877,37 @@
         <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO3" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -928,121 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="G4" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.84</v>
+        <v>2.28</v>
       </c>
       <c r="I4" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.95</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.65</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.04</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>2.14</v>
+        <v>1.74</v>
       </c>
       <c r="W4" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH4" t="n">
         <v>17</v>
       </c>
-      <c r="AC4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AI4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK4" t="n">
         <v>38</v>
       </c>
-      <c r="AG4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>70</v>
-      </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>4.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1.88</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>1.84</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>1.87</v>
       </c>
       <c r="J5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.95</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W5" t="n">
-        <v>2.12</v>
+        <v>1.24</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>19.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>2.54</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
         <v>36</v>
       </c>
       <c r="AA6" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1369,22 +1369,22 @@
         <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
         <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
         <v>2.22</v>
@@ -1480,10 +1480,10 @@
         <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
         <v>2.42</v>
@@ -1501,7 +1501,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
@@ -1510,25 +1510,25 @@
         <v>2.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S8" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T8" t="n">
         <v>1.53</v>
       </c>
       <c r="U8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
         <v>24</v>
@@ -1546,7 +1546,7 @@
         <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
@@ -1579,7 +1579,7 @@
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>12.5</v>
@@ -1621,13 +1621,13 @@
         <v>14.5</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.21</v>
@@ -1636,19 +1636,19 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q9" t="n">
         <v>1.39</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S9" t="n">
         <v>1.97</v>
@@ -1657,7 +1657,7 @@
         <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
@@ -1750,16 +1750,16 @@
         <v>4.8</v>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="I10" t="n">
         <v>1.77</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
         <v>4.5</v>
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>3.85</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.14</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.35</v>
-      </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
         <v>27</v>
       </c>
-      <c r="AB11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>55</v>
-      </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>46</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>2.52</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
@@ -2041,13 +2041,13 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q12" t="n">
         <v>1.98</v>
@@ -2116,7 +2116,7 @@
         <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
         <v>55</v>
@@ -2167,7 +2167,7 @@
         <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2200,16 +2200,16 @@
         <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W13" t="n">
         <v>1.12</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z13" t="n">
         <v>8.800000000000001</v>
@@ -2224,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>15.5</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I14" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
@@ -2311,16 +2311,16 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
         <v>1.38</v>
@@ -2335,7 +2335,7 @@
         <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W14" t="n">
         <v>1.35</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I18" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
         <v>4.8</v>
@@ -2848,7 +2848,7 @@
         <v>1.34</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
         <v>4.5</v>
@@ -2872,34 +2872,34 @@
         <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
         <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
         <v>70</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
         <v>120</v>
@@ -2914,7 +2914,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
         <v>13.5</v>
@@ -2980,7 +2980,7 @@
         <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
@@ -2989,13 +2989,13 @@
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
         <v>1.69</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R19" t="n">
         <v>1.24</v>
@@ -3007,7 +3007,7 @@
         <v>1.89</v>
       </c>
       <c r="U19" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V19" t="n">
         <v>1.58</v>
@@ -3061,7 +3061,7 @@
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.43</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="n">
-        <v>1.49</v>
+        <v>4.7</v>
       </c>
       <c r="H20" t="n">
-        <v>7.6</v>
+        <v>1.78</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
         <v>5.5</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="R20" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
-        <v>1.12</v>
+        <v>2.24</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>1.27</v>
       </c>
       <c r="X20" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AD20" t="n">
-        <v>32</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE20" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.9</v>
+        <v>36</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>2.46</v>
       </c>
       <c r="G21" t="n">
-        <v>5.4</v>
+        <v>2.52</v>
       </c>
       <c r="H21" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1.74</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>2.3</v>
+        <v>1.87</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="V21" t="n">
-        <v>2.36</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
-        <v>1.23</v>
+        <v>1.66</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="n">
         <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>8.199999999999999</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -3376,13 +3376,13 @@
         <v>15.5</v>
       </c>
       <c r="I22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J22" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="K22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L22" t="n">
         <v>1.26</v>
@@ -3397,19 +3397,19 @@
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T22" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
         <v>1.69</v>
@@ -3418,7 +3418,7 @@
         <v>1.05</v>
       </c>
       <c r="W22" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X22" t="n">
         <v>32</v>
@@ -3469,7 +3469,7 @@
         <v>270</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.44</v>
+        <v>1.94</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
         <v>3.55</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q23" t="n">
         <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>1.43</v>
       </c>
       <c r="G24" t="n">
-        <v>4.7</v>
+        <v>1.49</v>
       </c>
       <c r="H24" t="n">
-        <v>1.79</v>
+        <v>7.6</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="S24" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="T24" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="V24" t="n">
-        <v>2.24</v>
+        <v>1.12</v>
       </c>
       <c r="W24" t="n">
-        <v>1.27</v>
+        <v>3</v>
       </c>
       <c r="X24" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
         <v>24</v>
       </c>
-      <c r="Y24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AI24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>13</v>
       </c>
-      <c r="AA24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>100</v>
-      </c>
       <c r="AK24" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>36</v>
+        <v>5.9</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.22</v>
+        <v>3.35</v>
       </c>
       <c r="G25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.25</v>
       </c>
-      <c r="H25" t="n">
+      <c r="P25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO25" t="n">
         <v>14</v>
-      </c>
-      <c r="I25" t="n">
-        <v>21</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W25" t="n">
-        <v>5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>1.22</v>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>1.26</v>
       </c>
       <c r="H26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>18</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P26" t="n">
         <v>2.36</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2</v>
-      </c>
       <c r="Q26" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="T26" t="n">
-        <v>1.73</v>
+        <v>2.52</v>
       </c>
       <c r="U26" t="n">
-        <v>2.26</v>
+        <v>1.59</v>
       </c>
       <c r="V26" t="n">
-        <v>1.72</v>
+        <v>1.06</v>
       </c>
       <c r="W26" t="n">
-        <v>1.42</v>
+        <v>5</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
       <c r="Z26" t="n">
-        <v>14.5</v>
+        <v>200</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>18.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AE26" t="n">
-        <v>24</v>
+        <v>420</v>
       </c>
       <c r="AF26" t="n">
-        <v>24</v>
+        <v>7.4</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AJ26" t="n">
-        <v>65</v>
+        <v>10.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>4.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>9.199999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H27" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="J27" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="K27" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.23</v>
       </c>
       <c r="P27" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="S27" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="V27" t="n">
-        <v>2.84</v>
+        <v>2.36</v>
       </c>
       <c r="W27" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK27" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AL27" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>9.4</v>
+        <v>3.3</v>
       </c>
       <c r="G28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>11.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z28" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="n">
-        <v>29</v>
+        <v>2.26</v>
       </c>
       <c r="H29" t="n">
-        <v>1.17</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>9.800000000000001</v>
+        <v>3.85</v>
       </c>
       <c r="L29" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="O29" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>2.62</v>
+        <v>1.94</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="R29" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>2.26</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="V29" t="n">
-        <v>6</v>
+        <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="X29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL29" t="n">
         <v>38</v>
       </c>
-      <c r="Y29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>310</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>390</v>
-      </c>
       <c r="AM29" t="n">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
-        <v>3.7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -4438,118 +4438,118 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.3</v>
+        <v>1.49</v>
       </c>
       <c r="G30" t="n">
-        <v>2.42</v>
+        <v>1.56</v>
       </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>7.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.35</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="S30" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="U30" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="V30" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="W30" t="n">
-        <v>1.7</v>
+        <v>2.78</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.94</v>
+        <v>19.5</v>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>27</v>
       </c>
       <c r="H31" t="n">
-        <v>2.36</v>
+        <v>1.17</v>
       </c>
       <c r="I31" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>9.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>2.58</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="S31" t="n">
-        <v>3.1</v>
+        <v>2.26</v>
       </c>
       <c r="T31" t="n">
-        <v>1.68</v>
+        <v>2.42</v>
       </c>
       <c r="U31" t="n">
-        <v>2.22</v>
+        <v>1.59</v>
       </c>
       <c r="V31" t="n">
-        <v>1.62</v>
+        <v>6</v>
       </c>
       <c r="W31" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="X31" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>7.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>42</v>
+        <v>8.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AI31" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>42</v>
+        <v>610</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>390</v>
       </c>
       <c r="AM31" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="AN31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="32">
@@ -4708,73 +4708,73 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>2.42</v>
       </c>
       <c r="H32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P32" t="n">
         <v>2.12</v>
       </c>
-      <c r="I32" t="n">
+      <c r="Q32" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U32" t="n">
         <v>2.32</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.4</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="W32" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,25 +4783,25 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -4816,13 +4816,13 @@
         <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>9.4</v>
       </c>
       <c r="G33" t="n">
-        <v>2.26</v>
+        <v>11.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>1.36</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>1.41</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>2.64</v>
       </c>
       <c r="T33" t="n">
-        <v>1.73</v>
+        <v>1.99</v>
       </c>
       <c r="U33" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="V33" t="n">
-        <v>1.34</v>
+        <v>3.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1.79</v>
+        <v>1.1</v>
       </c>
       <c r="X33" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.1</v>
+        <v>2.94</v>
       </c>
       <c r="G34" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>1.74</v>
+        <v>2.36</v>
       </c>
       <c r="I34" t="n">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="J34" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R34" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="S34" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="U34" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V34" t="n">
-        <v>2.28</v>
+        <v>1.62</v>
       </c>
       <c r="W34" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="X34" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z34" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AA34" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AB34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH34" t="n">
         <v>20</v>
       </c>
-      <c r="AC34" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF34" t="n">
+      <c r="AI34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL34" t="n">
         <v>55</v>
       </c>
-      <c r="AG34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>70</v>
-      </c>
       <c r="AM34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN34" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AO34" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,103 +5113,103 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G35" t="n">
         <v>3.55</v>
       </c>
       <c r="H35" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I35" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="J35" t="n">
         <v>3.7</v>
       </c>
       <c r="K35" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>1.32</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="R35" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S35" t="n">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="T35" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U35" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="V35" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="W35" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
         <v>1000</v>
@@ -5218,16 +5218,16 @@
         <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN35" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.49</v>
+        <v>5.1</v>
       </c>
       <c r="G36" t="n">
-        <v>1.56</v>
+        <v>5.5</v>
       </c>
       <c r="H36" t="n">
-        <v>7.2</v>
+        <v>1.74</v>
       </c>
       <c r="I36" t="n">
-        <v>8.800000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="J36" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P36" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R36" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S36" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="T36" t="n">
-        <v>1.99</v>
+        <v>1.77</v>
       </c>
       <c r="U36" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="V36" t="n">
-        <v>1.13</v>
+        <v>2.28</v>
       </c>
       <c r="W36" t="n">
-        <v>2.78</v>
+        <v>1.22</v>
       </c>
       <c r="X36" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE36" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y36" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF36" t="n">
-        <v>9.199999999999999</v>
+        <v>55</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="n">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="AK36" t="n">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AM36" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>8.4</v>
+        <v>70</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,121 +5383,661 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.94</v>
+        <v>6.8</v>
       </c>
       <c r="G37" t="n">
-        <v>1.99</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>4.3</v>
+        <v>1.43</v>
       </c>
       <c r="I37" t="n">
-        <v>4.6</v>
+        <v>1.55</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="K37" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="P37" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="Q37" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>San Antonio Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I38" t="n">
+        <v>42</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P41" t="n">
         <v>2.06</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W37" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X37" t="n">
+      <c r="Q41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH41" t="n">
         <v>17</v>
       </c>
-      <c r="Y37" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
+      <c r="AI41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="n">
         <v>15</v>
       </c>
-      <c r="AG37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1000</v>
+      <c r="AO41" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
@@ -688,79 +688,79 @@
         <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12</v>
-      </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I3" t="n">
         <v>2.2</v>
@@ -820,22 +820,22 @@
         <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
         <v>1.34</v>
@@ -844,7 +844,7 @@
         <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
         <v>2.12</v>
@@ -859,10 +859,10 @@
         <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
         <v>27</v>
@@ -880,7 +880,7 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
         <v>15.5</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -970,7 +970,7 @@
         <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
         <v>1.4</v>
@@ -979,49 +979,49 @@
         <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
         <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
         <v>36</v>
@@ -1030,19 +1030,19 @@
         <v>65</v>
       </c>
       <c r="AK4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN4" t="n">
         <v>38</v>
       </c>
-      <c r="AL4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>36</v>
-      </c>
       <c r="AO4" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1084,19 +1084,19 @@
         <v>1.87</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.34</v>
@@ -1105,7 +1105,7 @@
         <v>1.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
@@ -1117,7 +1117,7 @@
         <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
         <v>2.14</v>
@@ -1129,7 +1129,7 @@
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
         <v>10.5</v>
@@ -1138,7 +1138,7 @@
         <v>19.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.199999999999999</v>
@@ -1153,16 +1153,16 @@
         <v>38</v>
       </c>
       <c r="AG5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH5" t="n">
         <v>20</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
         <v>70</v>
@@ -1177,7 +1177,7 @@
         <v>80</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
         <v>4.8</v>
@@ -1222,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>4.3</v>
@@ -1240,28 +1240,28 @@
         <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
         <v>18.5</v>
@@ -1273,7 +1273,7 @@
         <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1285,7 +1285,7 @@
         <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
         <v>9.800000000000001</v>
@@ -1297,7 +1297,7 @@
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
@@ -1312,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1345,22 +1345,22 @@
         <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
         <v>2.16</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1369,64 +1369,64 @@
         <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
         <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
         <v>28</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>36</v>
@@ -1435,16 +1435,16 @@
         <v>70</v>
       </c>
       <c r="AK7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL7" t="n">
         <v>50</v>
       </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
         <v>15.5</v>
@@ -1480,13 +1480,13 @@
         <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1501,37 +1501,37 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
         <v>1.61</v>
       </c>
       <c r="S8" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
         <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
         <v>15.5</v>
@@ -1540,7 +1540,7 @@
         <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>18.5</v>
@@ -1564,16 +1564,16 @@
         <v>14.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
         <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>60</v>
@@ -1582,7 +1582,7 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H9" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L9" t="n">
         <v>1.21</v>
@@ -1645,34 +1645,34 @@
         <v>3.35</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="S9" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T9" t="n">
         <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1684,10 +1684,10 @@
         <v>18.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF9" t="n">
         <v>10</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,40 +1747,40 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I10" t="n">
         <v>1.77</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
         <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
         <v>1.56</v>
@@ -1789,7 +1789,7 @@
         <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
         <v>2.28</v>
@@ -1798,7 +1798,7 @@
         <v>2.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
         <v>24</v>
@@ -1807,25 +1807,25 @@
         <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA10" t="n">
         <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
         <v>17.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -1834,13 +1834,13 @@
         <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
         <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
         <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -1909,7 +1909,7 @@
         <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
         <v>2.46</v>
@@ -1918,28 +1918,28 @@
         <v>1.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="S11" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T11" t="n">
         <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
         <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
         <v>36</v>
@@ -1954,7 +1954,7 @@
         <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
         <v>46</v>
@@ -1972,7 +1972,7 @@
         <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
@@ -1984,10 +1984,10 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I12" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.48</v>
@@ -2041,55 +2041,55 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S12" t="n">
         <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="W12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>16</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
         <v>40</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
         <v>32</v>
@@ -2110,7 +2110,7 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
         <v>65</v>
@@ -2119,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO12" t="n">
         <v>26</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="G13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J13" t="n">
         <v>5.4</v>
@@ -2185,34 +2185,34 @@
         <v>2.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2227,7 +2227,7 @@
         <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF13" t="n">
         <v>85</v>
@@ -2290,52 +2290,52 @@
         <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
         <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W14" t="n">
         <v>1.35</v>
@@ -2359,7 +2359,7 @@
         <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2371,7 +2371,7 @@
         <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2383,7 +2383,7 @@
         <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
         <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
         <v>3.65</v>
@@ -2446,19 +2446,19 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
         <v>3.1</v>
@@ -2467,16 +2467,16 @@
         <v>1.7</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W15" t="n">
         <v>1.77</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>15</v>
@@ -2485,7 +2485,7 @@
         <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="n">
         <v>11.5</v>
@@ -2494,7 +2494,7 @@
         <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
         <v>40</v>
@@ -2509,25 +2509,25 @@
         <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J16" t="n">
         <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
         <v>1.37</v>
@@ -2602,13 +2602,13 @@
         <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -2623,13 +2623,13 @@
         <v>110</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2698,10 +2698,10 @@
         <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I17" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J17" t="n">
         <v>3.45</v>
@@ -2710,40 +2710,40 @@
         <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
         <v>16</v>
@@ -2752,28 +2752,28 @@
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
         <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>27</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
         <v>17</v>
@@ -2782,22 +2782,22 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -2830,13 +2830,13 @@
         <v>1.47</v>
       </c>
       <c r="G18" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="H18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J18" t="n">
         <v>4.8</v>
@@ -2851,25 +2851,25 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
         <v>1.49</v>
       </c>
       <c r="S18" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
         <v>1.93</v>
@@ -2878,10 +2878,10 @@
         <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
@@ -2893,7 +2893,7 @@
         <v>270</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
         <v>11</v>
@@ -2905,10 +2905,10 @@
         <v>120</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
         <v>25</v>
@@ -2929,7 +2929,7 @@
         <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO18" t="n">
         <v>140</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>3.4</v>
@@ -2986,67 +2986,67 @@
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q19" t="n">
         <v>2.22</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.89</v>
       </c>
       <c r="U19" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="W19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3055,10 +3055,10 @@
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
         <v>150</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.78</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.8</v>
       </c>
       <c r="J20" t="n">
         <v>4.4</v>
@@ -3127,31 +3127,31 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S20" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T20" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="W20" t="n">
         <v>1.27</v>
       </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
@@ -3160,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB20" t="n">
         <v>23</v>
@@ -3187,10 +3187,10 @@
         <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL20" t="n">
         <v>48</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.3</v>
       </c>
       <c r="J21" t="n">
         <v>3.4</v>
@@ -3259,31 +3259,31 @@
         <v>3.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
         <v>3.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U21" t="n">
         <v>2.14</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X21" t="n">
         <v>12.5</v>
@@ -3304,13 +3304,13 @@
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>38</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -3337,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -3370,109 +3370,109 @@
         <v>1.22</v>
       </c>
       <c r="G22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H22" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="I22" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="J22" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="K22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U22" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="Z22" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG22" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>360</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH22" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23">
@@ -3502,34 +3502,34 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P23" t="n">
         <v>1.91</v>
@@ -3538,28 +3538,28 @@
         <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S23" t="n">
         <v>3.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U23" t="n">
         <v>2.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>18.5</v>
@@ -3580,10 +3580,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
         <v>19.5</v>
@@ -3592,19 +3592,19 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G24" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="H24" t="n">
         <v>7.6</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="J24" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3661,58 +3661,58 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R24" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
         <v>2.54</v>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W24" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="X24" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA24" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AB24" t="n">
         <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
         <v>32</v>
       </c>
       <c r="AE24" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="n">
         <v>10</v>
@@ -3721,7 +3721,7 @@
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>110</v>
@@ -3733,16 +3733,16 @@
         <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO24" t="n">
         <v>140</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,82 +3772,82 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="G25" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I25" t="n">
         <v>2.2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.26</v>
       </c>
       <c r="J25" t="n">
         <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
         <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
         <v>2.88</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U25" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V25" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="W25" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X25" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AB25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
         <v>27</v>
@@ -3856,28 +3856,28 @@
         <v>15.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="n">
         <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G26" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="H26" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I26" t="n">
         <v>18</v>
       </c>
       <c r="J26" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="K26" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L26" t="n">
         <v>1.3</v>
@@ -3931,85 +3931,85 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S26" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T26" t="n">
         <v>2.52</v>
       </c>
       <c r="U26" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="n">
         <v>50</v>
       </c>
       <c r="Z26" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD26" t="n">
         <v>70</v>
       </c>
       <c r="AE26" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="AF26" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AI26" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4045,49 +4045,49 @@
         <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H27" t="n">
         <v>1.7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K27" t="n">
         <v>4.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O27" t="n">
         <v>1.23</v>
       </c>
       <c r="P27" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="R27" t="n">
         <v>1.52</v>
       </c>
       <c r="S27" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T27" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U27" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V27" t="n">
         <v>2.36</v>
@@ -4096,7 +4096,7 @@
         <v>1.23</v>
       </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
@@ -4105,16 +4105,16 @@
         <v>11.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>16.5</v>
@@ -4126,7 +4126,7 @@
         <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI27" t="n">
         <v>30</v>
@@ -4141,13 +4141,13 @@
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -4195,7 +4195,7 @@
         <v>3.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4210,28 +4210,28 @@
         <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R28" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V28" t="n">
         <v>1.72</v>
       </c>
       <c r="W28" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
         <v>11.5</v>
@@ -4258,7 +4258,7 @@
         <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH28" t="n">
         <v>17</v>
@@ -4267,7 +4267,7 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="n">
         <v>40</v>
@@ -4282,7 +4282,7 @@
         <v>34</v>
       </c>
       <c r="AO28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G29" t="n">
         <v>2.26</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
@@ -4339,37 +4339,37 @@
         <v>3.75</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R29" t="n">
         <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="n">
         <v>2.14</v>
       </c>
       <c r="V29" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z29" t="n">
         <v>28</v>
@@ -4378,19 +4378,19 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
         <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
         <v>11.5</v>
@@ -4402,7 +4402,7 @@
         <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
@@ -4414,10 +4414,10 @@
         <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G30" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H30" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
         <v>4.4</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.38</v>
@@ -4471,76 +4471,76 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="U30" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V30" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W30" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA30" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC30" t="n">
         <v>11</v>
       </c>
       <c r="AD30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH30" t="n">
         <v>30</v>
       </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>26</v>
-      </c>
       <c r="AI30" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>42</v>
@@ -4549,7 +4549,7 @@
         <v>180</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="I31" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J31" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.26</v>
@@ -4606,88 +4606,88 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
         <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R31" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S31" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T31" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U31" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="V31" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="W31" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="X31" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AB31" t="n">
         <v>70</v>
       </c>
       <c r="AC31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AG31" t="n">
         <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
+        <v>430</v>
+      </c>
+      <c r="AM31" t="n">
         <v>390</v>
       </c>
-      <c r="AM31" t="n">
-        <v>370</v>
-      </c>
       <c r="AN31" t="n">
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="32">
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G32" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H32" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
         <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
         <v>1.37</v>
@@ -4744,13 +4744,13 @@
         <v>4.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="n">
         <v>2.12</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R32" t="n">
         <v>1.44</v>
@@ -4759,22 +4759,22 @@
         <v>2.92</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U32" t="n">
         <v>2.32</v>
       </c>
       <c r="V32" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X32" t="n">
         <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4795,16 +4795,16 @@
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG32" t="n">
         <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
@@ -4816,10 +4816,10 @@
         <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H33" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I33" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="J33" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="K33" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L33" t="n">
         <v>1.32</v>
@@ -4879,85 +4879,85 @@
         <v>4.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R33" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="T33" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U33" t="n">
         <v>1.85</v>
       </c>
       <c r="V33" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="W33" t="n">
         <v>1.1</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z33" t="n">
         <v>9</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB33" t="n">
         <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="34">
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H34" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
         <v>3.65</v>
@@ -5011,19 +5011,19 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
         <v>1.28</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R34" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S34" t="n">
         <v>3.1</v>
@@ -5032,34 +5032,34 @@
         <v>1.68</v>
       </c>
       <c r="U34" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="V34" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="W34" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X34" t="n">
         <v>19.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE34" t="n">
         <v>32</v>
@@ -5068,7 +5068,7 @@
         <v>27</v>
       </c>
       <c r="AG34" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH34" t="n">
         <v>20</v>
@@ -5077,22 +5077,22 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM34" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN34" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G35" t="n">
         <v>3.55</v>
       </c>
       <c r="H35" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="I35" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
         <v>4</v>
@@ -5143,34 +5143,34 @@
         <v>1.32</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O35" t="n">
         <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q35" t="n">
         <v>1.64</v>
       </c>
       <c r="R35" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S35" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T35" t="n">
         <v>1.57</v>
       </c>
       <c r="U35" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V35" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W35" t="n">
         <v>1.4</v>
@@ -5179,37 +5179,37 @@
         <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB35" t="n">
         <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>85</v>
       </c>
       <c r="AD35" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
         <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ35" t="n">
         <v>1000</v>
@@ -5224,10 +5224,10 @@
         <v>65</v>
       </c>
       <c r="AN35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO35" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="G36" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I36" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="J36" t="n">
         <v>4.1</v>
@@ -5284,31 +5284,31 @@
         <v>4.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R36" t="n">
         <v>1.44</v>
       </c>
       <c r="S36" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
         <v>1.77</v>
       </c>
       <c r="U36" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="W36" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X36" t="n">
         <v>22</v>
@@ -5323,7 +5323,7 @@
         <v>22</v>
       </c>
       <c r="AB36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
         <v>9.800000000000001</v>
@@ -5344,13 +5344,13 @@
         <v>19.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
         <v>130</v>
       </c>
       <c r="AK36" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="n">
         <v>70</v>
@@ -5359,10 +5359,10 @@
         <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AO36" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G37" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I37" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J37" t="n">
         <v>4.7</v>
@@ -5422,25 +5422,25 @@
         <v>1.23</v>
       </c>
       <c r="P37" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="R37" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S37" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U37" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V37" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="W37" t="n">
         <v>1.12</v>
@@ -5551,7 +5551,7 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>3.25</v>
+        <v>1.1</v>
       </c>
       <c r="O38" t="n">
         <v>1.04</v>
@@ -5566,13 +5566,13 @@
         <v>3.25</v>
       </c>
       <c r="S38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.04</v>
       </c>
-      <c r="T38" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V38" t="n">
         <v>1.02</v>
@@ -5674,7 +5674,7 @@
         <v>1000</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
         <v>1000</v>
@@ -5698,16 +5698,16 @@
         <v>1.06</v>
       </c>
       <c r="R39" t="n">
-        <v>2.58</v>
+        <v>1.69</v>
       </c>
       <c r="S39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V39" t="n">
         <v>1.01</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G40" t="n">
         <v>1000</v>
@@ -5806,10 +5806,10 @@
         <v>1.04</v>
       </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.91</v>
       </c>
       <c r="K40" t="n">
         <v>1000</v>
@@ -5824,28 +5824,28 @@
         <v>2.04</v>
       </c>
       <c r="O40" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P40" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="R40" t="n">
         <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V40" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="W40" t="n">
         <v>1.01</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G41" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I41" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J41" t="n">
         <v>3.5</v>
@@ -5950,85 +5950,85 @@
         <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.26</v>
       </c>
       <c r="P41" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R41" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T41" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U41" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="V41" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W41" t="n">
         <v>1.79</v>
       </c>
       <c r="X41" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Z41" t="n">
         <v>29</v>
       </c>
       <c r="AA41" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF41" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG41" t="n">
         <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI41" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ41" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK41" t="n">
         <v>23</v>
       </c>
       <c r="AL41" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM41" t="n">
         <v>80</v>
@@ -6037,7 +6037,7 @@
         <v>15</v>
       </c>
       <c r="AO41" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -670,7 +670,7 @@
         <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
         <v>2.66</v>
@@ -679,7 +679,7 @@
         <v>2.86</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
@@ -697,7 +697,7 @@
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
@@ -811,7 +811,7 @@
         <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
@@ -823,34 +823,34 @@
         <v>1.42</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W3" t="n">
         <v>1.35</v>
@@ -880,10 +880,10 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
@@ -904,7 +904,7 @@
         <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
         <v>17.5</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -985,10 +985,10 @@
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
@@ -1030,10 +1030,10 @@
         <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
@@ -1042,7 +1042,7 @@
         <v>38</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
         <v>1.87</v>
@@ -1093,7 +1093,7 @@
         <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>3.7</v>
@@ -1102,7 +1102,7 @@
         <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
         <v>2.06</v>
@@ -1114,19 +1114,19 @@
         <v>3.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W5" t="n">
         <v>1.24</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.6</v>
@@ -1141,7 +1141,7 @@
         <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
@@ -1153,7 +1153,7 @@
         <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.84</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.86</v>
       </c>
       <c r="H6" t="n">
         <v>4.6</v>
@@ -1234,31 +1234,31 @@
         <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
         <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X6" t="n">
         <v>18</v>
@@ -1282,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
@@ -1348,7 +1348,7 @@
         <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
         <v>2.22</v>
@@ -1357,7 +1357,7 @@
         <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
@@ -1381,16 +1381,16 @@
         <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
         <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
         <v>1.37</v>
@@ -1444,7 +1444,7 @@
         <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
         <v>15.5</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
         <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I8" t="n">
         <v>2.36</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.6</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.61</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V8" t="n">
         <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
         <v>25</v>
@@ -1561,7 +1561,7 @@
         <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>29</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
         <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.21</v>
@@ -1636,49 +1636,49 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="R9" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
         <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="X9" t="n">
         <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
         <v>18.5</v>
@@ -1690,10 +1690,10 @@
         <v>250</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>36</v>
@@ -1708,13 +1708,13 @@
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,10 +1753,10 @@
         <v>5.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="I10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1777,28 +1777,28 @@
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
         <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
         <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
         <v>24</v>
@@ -1840,7 +1840,7 @@
         <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="11">
@@ -1894,7 +1894,7 @@
         <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1915,25 +1915,25 @@
         <v>2.46</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
         <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X11" t="n">
         <v>22</v>
@@ -2020,19 +2020,19 @@
         <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I12" t="n">
         <v>2.44</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>1.48</v>
@@ -2047,7 +2047,7 @@
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q12" t="n">
         <v>2.02</v>
@@ -2059,7 +2059,7 @@
         <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
         <v>2.1</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H13" t="n">
         <v>1.41</v>
@@ -2167,7 +2167,7 @@
         <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2194,13 +2194,13 @@
         <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W13" t="n">
         <v>1.11</v>
@@ -2209,10 +2209,10 @@
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2242,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AK13" t="n">
         <v>150</v>
@@ -2302,7 +2302,7 @@
         <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -2317,10 +2317,10 @@
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
         <v>1.39</v>
@@ -2437,10 +2437,10 @@
         <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2449,25 +2449,25 @@
         <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>1.38</v>
@@ -2476,10 +2476,10 @@
         <v>1.77</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
         <v>26</v>
@@ -2488,7 +2488,7 @@
         <v>65</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>8.4</v>
@@ -2497,7 +2497,7 @@
         <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -2515,16 +2515,16 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>36</v>
@@ -2560,7 +2560,7 @@
         <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -2596,7 +2596,7 @@
         <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
         <v>1.73</v>
@@ -2608,7 +2608,7 @@
         <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -2704,10 +2704,10 @@
         <v>2.56</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
         <v>1.4</v>
@@ -2716,7 +2716,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -2737,7 +2737,7 @@
         <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
         <v>1.64</v>
@@ -2833,16 +2833,16 @@
         <v>1.48</v>
       </c>
       <c r="H18" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I18" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.34</v>
@@ -2872,13 +2872,13 @@
         <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
         <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G19" t="n">
         <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
         <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
@@ -2992,10 +2992,10 @@
         <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
         <v>1.26</v>
@@ -3007,19 +3007,19 @@
         <v>1.89</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
         <v>1.64</v>
       </c>
       <c r="W19" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
         <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
         <v>17.5</v>
@@ -3043,7 +3043,7 @@
         <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3052,10 +3052,10 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL19" t="n">
         <v>75</v>
@@ -3100,7 +3100,7 @@
         <v>4.6</v>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H20" t="n">
         <v>1.77</v>
@@ -3115,10 +3115,10 @@
         <v>4.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
         <v>5.5</v>
@@ -3127,10 +3127,10 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R20" t="n">
         <v>1.63</v>
@@ -3238,7 +3238,7 @@
         <v>2.56</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
         <v>3.2</v>
@@ -3259,16 +3259,16 @@
         <v>3.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S21" t="n">
         <v>3.8</v>
@@ -3376,13 +3376,13 @@
         <v>14.5</v>
       </c>
       <c r="I22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J22" t="n">
         <v>7.8</v>
       </c>
       <c r="K22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.27</v>
@@ -3391,13 +3391,13 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q22" t="n">
         <v>1.54</v>
@@ -3424,13 +3424,13 @@
         <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Z22" t="n">
         <v>180</v>
       </c>
       <c r="AA22" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="AB22" t="n">
         <v>10.5</v>
@@ -3448,7 +3448,7 @@
         <v>7.8</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
         <v>40</v>
@@ -3457,7 +3457,7 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK22" t="n">
         <v>13.5</v>
@@ -3472,7 +3472,7 @@
         <v>3.85</v>
       </c>
       <c r="AO22" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G23" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="H23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I23" t="n">
         <v>4.4</v>
       </c>
-      <c r="I23" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3532,52 +3532,52 @@
         <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q23" t="n">
         <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S23" t="n">
         <v>3.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
         <v>11.5</v>
@@ -3589,25 +3589,25 @@
         <v>19.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
         <v>14.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.45</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.46</v>
-      </c>
       <c r="H24" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K24" t="n">
         <v>5.4</v>
@@ -3661,34 +3661,34 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S24" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V24" t="n">
         <v>1.13</v>
       </c>
       <c r="W24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X24" t="n">
         <v>25</v>
@@ -3697,7 +3697,7 @@
         <v>30</v>
       </c>
       <c r="Z24" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="n">
         <v>270</v>
@@ -3706,43 +3706,43 @@
         <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE24" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO24" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I25" t="n">
         <v>2.18</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.2</v>
       </c>
       <c r="J25" t="n">
         <v>3.7</v>
@@ -3796,7 +3796,7 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -3811,25 +3811,25 @@
         <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T25" t="n">
         <v>1.66</v>
       </c>
       <c r="U25" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W25" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X25" t="n">
         <v>18</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z25" t="n">
         <v>14.5</v>
@@ -3841,7 +3841,7 @@
         <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
         <v>10.5</v>
@@ -3913,16 +3913,16 @@
         <v>1.24</v>
       </c>
       <c r="H26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="I26" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="J26" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.3</v>
@@ -3946,25 +3946,25 @@
         <v>1.54</v>
       </c>
       <c r="S26" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T26" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W26" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
@@ -3991,13 +3991,13 @@
         <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
@@ -4006,7 +4006,7 @@
         <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AN26" t="n">
         <v>4.4</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I27" t="n">
         <v>1.7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.73</v>
       </c>
       <c r="J27" t="n">
         <v>4.4</v>
@@ -4060,25 +4060,25 @@
         <v>4.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
         <v>1.23</v>
       </c>
       <c r="P27" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R27" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S27" t="n">
         <v>2.74</v>
@@ -4090,10 +4090,10 @@
         <v>2.26</v>
       </c>
       <c r="V27" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="W27" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X27" t="n">
         <v>21</v>
@@ -4105,19 +4105,19 @@
         <v>11.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB27" t="n">
         <v>22</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
@@ -4147,7 +4147,7 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="28">
@@ -4180,13 +4180,13 @@
         <v>3.3</v>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I28" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J28" t="n">
         <v>3.55</v>
@@ -4216,19 +4216,19 @@
         <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U28" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V28" t="n">
         <v>1.72</v>
       </c>
       <c r="W28" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X28" t="n">
         <v>14</v>
@@ -4237,7 +4237,7 @@
         <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
         <v>32</v>
@@ -4315,13 +4315,13 @@
         <v>2.14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H29" t="n">
         <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
@@ -4384,7 +4384,7 @@
         <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4447,61 +4447,61 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="G30" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H30" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J30" t="n">
         <v>4.4</v>
       </c>
       <c r="K30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L30" t="n">
         <v>1.38</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="R30" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="S30" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="U30" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="V30" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W30" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="X30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
         <v>27</v>
@@ -4513,13 +4513,13 @@
         <v>350</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC30" t="n">
         <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
@@ -4531,25 +4531,25 @@
         <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
         <v>15.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H31" t="n">
         <v>1.16</v>
@@ -4594,40 +4594,40 @@
         <v>1.19</v>
       </c>
       <c r="J31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K31" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O31" t="n">
         <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S31" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T31" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="U31" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="V31" t="n">
         <v>6.2</v>
@@ -4636,19 +4636,19 @@
         <v>1.03</v>
       </c>
       <c r="X31" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AA31" t="n">
         <v>8</v>
       </c>
       <c r="AB31" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="n">
         <v>21</v>
@@ -4660,16 +4660,16 @@
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="AG31" t="n">
         <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
@@ -4678,16 +4678,16 @@
         <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="AM31" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="32">
@@ -4756,7 +4756,7 @@
         <v>1.44</v>
       </c>
       <c r="S32" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
         <v>1.67</v>
@@ -4768,7 +4768,7 @@
         <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X32" t="n">
         <v>21</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G33" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I33" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J33" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L33" t="n">
         <v>1.32</v>
@@ -4888,10 +4888,10 @@
         <v>1.68</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S33" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T33" t="n">
         <v>2.02</v>
@@ -4900,10 +4900,10 @@
         <v>1.85</v>
       </c>
       <c r="V33" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="W33" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X33" t="n">
         <v>22</v>
@@ -4912,13 +4912,13 @@
         <v>9.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AA33" t="n">
         <v>11.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="n">
         <v>13</v>
@@ -4936,19 +4936,19 @@
         <v>38</v>
       </c>
       <c r="AH33" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="AK33" t="n">
         <v>170</v>
       </c>
       <c r="AL33" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
         <v>170</v>
@@ -4957,7 +4957,7 @@
         <v>200</v>
       </c>
       <c r="AO33" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>3.25</v>
@@ -4999,10 +4999,10 @@
         <v>2.42</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.38</v>
@@ -5122,52 +5122,52 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G35" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I35" t="n">
         <v>2.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K35" t="n">
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="R35" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="S35" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="T35" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U35" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="V35" t="n">
         <v>1.76</v>
@@ -5182,16 +5182,16 @@
         <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
         <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>85</v>
+        <v>11.5</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
@@ -5260,13 +5260,13 @@
         <v>4.8</v>
       </c>
       <c r="G36" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I36" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="J36" t="n">
         <v>4.1</v>
@@ -5305,16 +5305,16 @@
         <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W36" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X36" t="n">
         <v>22</v>
       </c>
       <c r="Y36" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
         <v>11.5</v>
@@ -5362,7 +5362,7 @@
         <v>85</v>
       </c>
       <c r="AO36" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="G37" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="I37" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J37" t="n">
         <v>4.7</v>
       </c>
       <c r="K37" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L37" t="n">
         <v>1.33</v>
@@ -5419,7 +5419,7 @@
         <v>4.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P37" t="n">
         <v>2.24</v>
@@ -5434,16 +5434,16 @@
         <v>2.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U37" t="n">
         <v>1.94</v>
       </c>
       <c r="V37" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="W37" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5470,7 +5470,7 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="n">
         <v>1000</v>
@@ -5488,16 +5488,16 @@
         <v>140</v>
       </c>
       <c r="AL37" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM37" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="38">
@@ -5545,7 +5545,7 @@
         <v>1000</v>
       </c>
       <c r="L38" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M38" t="n">
         <v>1.01</v>
@@ -5554,13 +5554,13 @@
         <v>1.1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P38" t="n">
         <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="R38" t="n">
         <v>3.25</v>
@@ -5698,10 +5698,10 @@
         <v>1.06</v>
       </c>
       <c r="R39" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="S39" t="n">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="T39" t="n">
         <v>1.04</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G40" t="n">
         <v>1000</v>
       </c>
       <c r="H40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I40" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="K40" t="n">
         <v>1000</v>
@@ -5824,7 +5824,7 @@
         <v>2.04</v>
       </c>
       <c r="O40" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -5836,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T40" t="n">
         <v>1.04</v>
@@ -5845,7 +5845,7 @@
         <v>1.04</v>
       </c>
       <c r="V40" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="W40" t="n">
         <v>1.01</v>
@@ -5938,7 +5938,7 @@
         <v>2.26</v>
       </c>
       <c r="H41" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
         <v>3.95</v>
@@ -5962,19 +5962,19 @@
         <v>1.26</v>
       </c>
       <c r="P41" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="R41" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S41" t="n">
         <v>2.88</v>
       </c>
       <c r="T41" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U41" t="n">
         <v>2.32</v>
@@ -5986,7 +5986,7 @@
         <v>1.79</v>
       </c>
       <c r="X41" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y41" t="n">
         <v>18</v>
@@ -5998,22 +5998,22 @@
         <v>65</v>
       </c>
       <c r="AB41" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD41" t="n">
         <v>15.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF41" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AG41" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
         <v>16</v>
@@ -6025,7 +6025,7 @@
         <v>27</v>
       </c>
       <c r="AK41" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL41" t="n">
         <v>34</v>
@@ -6034,7 +6034,7 @@
         <v>80</v>
       </c>
       <c r="AN41" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO41" t="n">
         <v>34</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,13 +673,13 @@
         <v>3.05</v>
       </c>
       <c r="H2" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
@@ -691,88 +691,88 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
         <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -826,22 +826,22 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
         <v>1.81</v>
@@ -865,7 +865,7 @@
         <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G4" t="n">
         <v>3.5</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.55</v>
-      </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -982,13 +982,13 @@
         <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
@@ -1000,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB4" t="n">
         <v>14.5</v>
@@ -1075,13 +1075,13 @@
         <v>4.8</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H5" t="n">
         <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
@@ -1105,7 +1105,7 @@
         <v>1.93</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
@@ -1129,7 +1129,7 @@
         <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
         <v>10.5</v>
@@ -1141,7 +1141,7 @@
         <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.83</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.84</v>
-      </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1237,7 +1237,7 @@
         <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
         <v>1.83</v>
@@ -1249,7 +1249,7 @@
         <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
         <v>2.18</v>
@@ -1258,7 +1258,7 @@
         <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
         <v>18</v>
@@ -1273,7 +1273,7 @@
         <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1282,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
@@ -1309,7 +1309,7 @@
         <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO6" t="n">
         <v>55</v>
@@ -1348,7 +1348,7 @@
         <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I7" t="n">
         <v>2.22</v>
@@ -1387,7 +1387,7 @@
         <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
         <v>1.82</v>
@@ -1405,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB7" t="n">
         <v>14.5</v>
@@ -1444,7 +1444,7 @@
         <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
         <v>15.5</v>
@@ -1483,7 +1483,7 @@
         <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
         <v>2.36</v>
@@ -1495,58 +1495,58 @@
         <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.62</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U8" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V8" t="n">
         <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
@@ -1555,10 +1555,10 @@
         <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1567,22 +1567,22 @@
         <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.22</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.24</v>
-      </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I9" t="n">
         <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.21</v>
@@ -1648,25 +1648,25 @@
         <v>1.41</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
         <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="n">
         <v>70</v>
@@ -1690,10 +1690,10 @@
         <v>250</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
         <v>36</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,10 +1753,10 @@
         <v>5.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1783,7 +1783,7 @@
         <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>2.58</v>
@@ -1795,13 +1795,13 @@
         <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W10" t="n">
         <v>1.23</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
@@ -1813,7 +1813,7 @@
         <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
         <v>10.5</v>
@@ -1825,31 +1825,31 @@
         <v>17.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN10" t="n">
         <v>65</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>7.8</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I11" t="n">
         <v>4.2</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.3</v>
-      </c>
       <c r="J11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
@@ -1921,31 +1921,31 @@
         <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="X11" t="n">
         <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
         <v>12.5</v>
@@ -1957,10 +1957,10 @@
         <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>10.5</v>
@@ -1969,10 +1969,10 @@
         <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
@@ -1984,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AO11" t="n">
         <v>34</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
         <v>1.39</v>
@@ -2053,7 +2053,7 @@
         <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
         <v>3.55</v>
@@ -2071,19 +2071,19 @@
         <v>1.38</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
         <v>40</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
         <v>9.199999999999999</v>
@@ -2095,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
         <v>17.5</v>
@@ -2110,16 +2110,16 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>26</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="G13" t="n">
         <v>9.6</v>
@@ -2167,7 +2167,7 @@
         <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2197,10 +2197,10 @@
         <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="W13" t="n">
         <v>1.11</v>
@@ -2329,7 +2329,7 @@
         <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
@@ -2341,58 +2341,58 @@
         <v>1.35</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.35</v>
       </c>
-      <c r="I15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S15" t="n">
         <v>4.1</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.3</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="V15" t="n">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="W15" t="n">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AA15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG15" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AH15" t="n">
         <v>26</v>
       </c>
-      <c r="AA15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>1.39</v>
@@ -2581,85 +2581,85 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
         <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2683,100 +2683,100 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.98</v>
+        <v>1.97</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>2.44</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.56</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2785,19 +2785,19 @@
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.47</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3.05</v>
-      </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="n">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN18" t="n">
         <v>34</v>
       </c>
-      <c r="AM18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AO18" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.2</v>
+        <v>1.49</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>1.51</v>
       </c>
       <c r="H19" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>2.56</v>
+        <v>7.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="R19" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>2.96</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>9.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Academia de Balompie Boliviano</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
         <v>4.6</v>
       </c>
-      <c r="G20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.78</v>
-      </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>1.27</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.56</v>
+        <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.88</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="W21" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK21" t="n">
         <v>21</v>
       </c>
-      <c r="AA21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AL21" t="n">
         <v>38</v>
       </c>
-      <c r="AF21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>42</v>
-      </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.22</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.25</v>
       </c>
-      <c r="H22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P22" t="n">
-        <v>2.74</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
-        <v>2.36</v>
+        <v>2.94</v>
       </c>
       <c r="T22" t="n">
-        <v>2.22</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>2.42</v>
       </c>
       <c r="V22" t="n">
-        <v>1.06</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="X22" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>180</v>
+        <v>15.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>60</v>
       </c>
-      <c r="AE22" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AK22" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.85</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>370</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.99</v>
+        <v>1.44</v>
       </c>
       <c r="G23" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>1.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="T23" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U23" t="n">
         <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>1.98</v>
+        <v>3.2</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.43</v>
+        <v>5.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.45</v>
+        <v>5.6</v>
       </c>
       <c r="H24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
         <v>7.8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>270</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.7</v>
+        <v>1.22</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
-        <v>2.16</v>
+        <v>14.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.18</v>
+        <v>17</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>7.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>8.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="R25" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>2.92</v>
+        <v>2.38</v>
       </c>
       <c r="T25" t="n">
-        <v>1.66</v>
+        <v>2.22</v>
       </c>
       <c r="U25" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.85</v>
+        <v>1.06</v>
       </c>
       <c r="W25" t="n">
-        <v>1.36</v>
+        <v>5.1</v>
       </c>
       <c r="X25" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Y25" t="n">
+        <v>160</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG25" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>70</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL25" t="n">
         <v>40</v>
       </c>
-      <c r="AL25" t="n">
-        <v>44</v>
-      </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AN25" t="n">
-        <v>32</v>
+        <v>3.85</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.23</v>
+        <v>2.54</v>
       </c>
       <c r="G26" t="n">
-        <v>1.24</v>
+        <v>2.56</v>
       </c>
       <c r="H26" t="n">
-        <v>15</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>16.5</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>8.4</v>
+        <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>2.4</v>
+        <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.54</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.06</v>
+        <v>1.45</v>
       </c>
       <c r="W26" t="n">
-        <v>5.2</v>
+        <v>1.64</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>18</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>480</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.800000000000001</v>
+        <v>36</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AL26" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.4</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -4033,25 +4033,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="J27" t="n">
         <v>4.4</v>
@@ -4060,91 +4060,91 @@
         <v>4.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="S27" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="T27" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="U27" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="V27" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="W27" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE27" t="n">
         <v>16</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH27" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AK27" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO27" t="n">
         <v>7.8</v>
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>1.22</v>
       </c>
       <c r="G28" t="n">
-        <v>3.35</v>
+        <v>1.24</v>
       </c>
       <c r="H28" t="n">
-        <v>2.38</v>
+        <v>15</v>
       </c>
       <c r="I28" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
         <v>2.4</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2</v>
-      </c>
       <c r="Q28" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="R28" t="n">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>2.72</v>
       </c>
       <c r="T28" t="n">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="U28" t="n">
-        <v>2.26</v>
+        <v>1.61</v>
       </c>
       <c r="V28" t="n">
-        <v>1.72</v>
+        <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>1.42</v>
+        <v>5.2</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.5</v>
+        <v>46</v>
       </c>
       <c r="Z28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>18.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AE28" t="n">
-        <v>24</v>
+        <v>430</v>
       </c>
       <c r="AF28" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK28" t="n">
         <v>17</v>
       </c>
-      <c r="AI28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>40</v>
-      </c>
       <c r="AL28" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>90</v>
+        <v>430</v>
       </c>
       <c r="AN28" t="n">
-        <v>34</v>
+        <v>4.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,52 +4303,52 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.14</v>
+        <v>3.35</v>
       </c>
       <c r="G29" t="n">
-        <v>2.28</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="I29" t="n">
-        <v>3.85</v>
+        <v>2.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S29" t="n">
         <v>3.35</v>
@@ -4357,67 +4357,67 @@
         <v>1.75</v>
       </c>
       <c r="U29" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V29" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="W29" t="n">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="X29" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG29" t="n">
         <v>14</v>
       </c>
-      <c r="Z29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AJ29" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN29" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -4438,118 +4438,118 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="G30" t="n">
-        <v>1.52</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>8.4</v>
+        <v>2.18</v>
       </c>
       <c r="I30" t="n">
-        <v>9.6</v>
+        <v>2.3</v>
       </c>
       <c r="J30" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="K30" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>3.65</v>
+        <v>5.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="R30" t="n">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
       <c r="S30" t="n">
-        <v>3.4</v>
+        <v>2.42</v>
       </c>
       <c r="T30" t="n">
-        <v>2.16</v>
+        <v>1.54</v>
       </c>
       <c r="U30" t="n">
-        <v>1.74</v>
+        <v>2.52</v>
       </c>
       <c r="V30" t="n">
-        <v>1.11</v>
+        <v>1.76</v>
       </c>
       <c r="W30" t="n">
-        <v>2.92</v>
+        <v>1.4</v>
       </c>
       <c r="X30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24</v>
+        <v>1.46</v>
       </c>
       <c r="G31" t="n">
-        <v>32</v>
+        <v>1.52</v>
       </c>
       <c r="H31" t="n">
-        <v>1.16</v>
+        <v>8.4</v>
       </c>
       <c r="I31" t="n">
-        <v>1.19</v>
+        <v>9.6</v>
       </c>
       <c r="J31" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="K31" t="n">
-        <v>9.4</v>
+        <v>4.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>5.9</v>
+        <v>3.65</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>2.62</v>
+        <v>1.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="R31" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="S31" t="n">
-        <v>2.34</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="V31" t="n">
-        <v>6.2</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>1.03</v>
+        <v>2.92</v>
       </c>
       <c r="X31" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.2</v>
+        <v>85</v>
       </c>
       <c r="AA31" t="n">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="AB31" t="n">
-        <v>75</v>
+        <v>7.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>370</v>
+        <v>10</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>480</v>
+        <v>60</v>
       </c>
       <c r="AM31" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO31" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,103 +4708,103 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.32</v>
+        <v>24</v>
       </c>
       <c r="G32" t="n">
-        <v>2.44</v>
+        <v>32</v>
       </c>
       <c r="H32" t="n">
-        <v>3.05</v>
+        <v>1.16</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>1.19</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="P32" t="n">
-        <v>2.12</v>
+        <v>2.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="R32" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="T32" t="n">
-        <v>1.67</v>
+        <v>2.48</v>
       </c>
       <c r="U32" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>6.2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE32" t="n">
         <v>15</v>
       </c>
-      <c r="Z32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF32" t="n">
-        <v>17.5</v>
+        <v>370</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
@@ -4813,16 +4813,16 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AM32" t="n">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AN32" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9.6</v>
+        <v>2.32</v>
       </c>
       <c r="G33" t="n">
-        <v>11.5</v>
+        <v>2.44</v>
       </c>
       <c r="H33" t="n">
-        <v>1.38</v>
+        <v>3.05</v>
       </c>
       <c r="I33" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="J33" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P33" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="S33" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>2.02</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>3.45</v>
+        <v>1.44</v>
       </c>
       <c r="W33" t="n">
-        <v>1.09</v>
+        <v>1.7</v>
       </c>
       <c r="X33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.4</v>
+        <v>28</v>
       </c>
       <c r="AA33" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>38</v>
+        <v>14.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE33" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AF33" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="AG33" t="n">
-        <v>38</v>
+        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="n">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM33" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>3.25</v>
+        <v>11.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
       <c r="I34" t="n">
-        <v>2.42</v>
+        <v>1.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="R34" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="S34" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="T34" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="V34" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="X34" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z34" t="n">
-        <v>20</v>
+        <v>8.4</v>
       </c>
       <c r="AA34" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE34" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="AG34" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AH34" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>430</v>
       </c>
       <c r="AK34" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AL34" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AN34" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H35" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="I35" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="J35" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K35" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
         <v>4</v>
       </c>
-      <c r="L35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5.1</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="R35" t="n">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="S35" t="n">
-        <v>2.42</v>
+        <v>3.05</v>
       </c>
       <c r="T35" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="U35" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="V35" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="W35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI35" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM35" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AN35" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.8</v>
+        <v>2.14</v>
       </c>
       <c r="G36" t="n">
-        <v>5.5</v>
+        <v>2.28</v>
       </c>
       <c r="H36" t="n">
-        <v>1.74</v>
+        <v>3.45</v>
       </c>
       <c r="I36" t="n">
-        <v>1.79</v>
+        <v>3.85</v>
       </c>
       <c r="J36" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.36</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="S36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U36" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q36" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.14</v>
-      </c>
       <c r="V36" t="n">
-        <v>2.26</v>
+        <v>1.35</v>
       </c>
       <c r="W36" t="n">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="X36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH36" t="n">
         <v>22</v>
       </c>
-      <c r="Y36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI36" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AK36" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AL36" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AM36" t="n">
         <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="AO36" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="G37" t="n">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="H37" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="I37" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="J37" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P37" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="R37" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="S37" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="U37" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="V37" t="n">
-        <v>2.84</v>
+        <v>2.28</v>
       </c>
       <c r="W37" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
         <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK37" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AL37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM37" t="n">
         <v>110</v>
       </c>
-      <c r="AM37" t="n">
-        <v>150</v>
-      </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO37" t="n">
-        <v>6.6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,72 +5513,72 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28</v>
+        <v>8.4</v>
       </c>
       <c r="H38" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="I38" t="n">
-        <v>42</v>
+        <v>1.55</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>4.7</v>
       </c>
       <c r="K38" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="P38" t="n">
-        <v>3.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="R38" t="n">
-        <v>3.25</v>
+        <v>1.47</v>
       </c>
       <c r="S38" t="n">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U38" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V38" t="n">
-        <v>1.02</v>
+        <v>2.8</v>
       </c>
       <c r="W38" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5587,7 +5587,7 @@
         <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
@@ -5605,7 +5605,7 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="n">
         <v>1000</v>
@@ -5620,13 +5620,13 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN38" t="n">
         <v>1000</v>
@@ -5648,66 +5648,66 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>140</v>
       </c>
       <c r="H39" t="n">
         <v>1.04</v>
       </c>
       <c r="I39" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="J39" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K39" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="L39" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="O39" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="P39" t="n">
-        <v>5.1</v>
+        <v>2.78</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="R39" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="S39" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="T39" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V39" t="n">
         <v>1.01</v>
@@ -5788,67 +5788,67 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="G40" t="n">
-        <v>1000</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="I40" t="n">
-        <v>1.9</v>
+        <v>15</v>
       </c>
       <c r="J40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K40" t="n">
+        <v>11</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M40" t="n">
         <v>1.01</v>
       </c>
-      <c r="K40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.02</v>
-      </c>
       <c r="N40" t="n">
-        <v>2.04</v>
+        <v>1.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="S40" t="n">
-        <v>1.05</v>
+        <v>1.53</v>
       </c>
       <c r="T40" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="U40" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V40" t="n">
-        <v>2.1</v>
+        <v>1.07</v>
       </c>
       <c r="W40" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5857,7 +5857,7 @@
         <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
@@ -5872,7 +5872,7 @@
         <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF40" t="n">
         <v>1000</v>
@@ -5884,7 +5884,7 @@
         <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>2.86</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5908,136 +5908,541 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>San Antonio Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I42" t="n">
+        <v>42</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Olancho</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>CD Marathon</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>2025-12-11</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>23:00:00</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Tigres</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Toluca</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="F44" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.5</v>
       </c>
-      <c r="I41" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="I44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M44" t="n">
         <v>1.05</v>
       </c>
-      <c r="N41" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="N44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.26</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P44" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q41" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X41" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y41" t="n">
+      <c r="Q44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X44" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF44" t="n">
         <v>18</v>
       </c>
-      <c r="Z41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE41" t="n">
+      <c r="AG44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL44" t="n">
         <v>40</v>
       </c>
-      <c r="AF41" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM41" t="n">
+      <c r="AM44" t="n">
         <v>80</v>
       </c>
-      <c r="AN41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>34</v>
+      <c r="AN44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H2" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
@@ -697,28 +697,28 @@
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
         <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
@@ -733,10 +733,10 @@
         <v>50</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
@@ -745,7 +745,7 @@
         <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
         <v>15.5</v>
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>60</v>
@@ -763,7 +763,7 @@
         <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
@@ -772,7 +772,7 @@
         <v>38</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>3.65</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
         <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
@@ -820,43 +820,43 @@
         <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.36</v>
       </c>
-      <c r="S3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.35</v>
-      </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
         <v>9.6</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
         <v>2.02</v>
@@ -973,37 +973,37 @@
         <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
         <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1012,10 +1012,10 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1027,22 +1027,22 @@
         <v>36</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>4.8</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
         <v>1.83</v>
@@ -1087,7 +1087,7 @@
         <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.34</v>
@@ -1117,7 +1117,7 @@
         <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
         <v>2.16</v>
@@ -1126,10 +1126,10 @@
         <v>1.24</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
         <v>10.5</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -1231,22 +1231,22 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
         <v>1.79</v>
@@ -1255,22 +1255,22 @@
         <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
         <v>9.800000000000001</v>
@@ -1279,10 +1279,10 @@
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
@@ -1291,13 +1291,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
@@ -1306,13 +1306,13 @@
         <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
         <v>10.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H7" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="J7" t="n">
         <v>3.7</v>
@@ -1360,7 +1360,7 @@
         <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1372,7 +1372,7 @@
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
         <v>1.89</v>
@@ -1387,13 +1387,13 @@
         <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
@@ -1405,13 +1405,13 @@
         <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
         <v>10.5</v>
@@ -1420,19 +1420,19 @@
         <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
         <v>42</v>
@@ -1441,13 +1441,13 @@
         <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>2.36</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
@@ -1504,16 +1504,16 @@
         <v>5.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
         <v>2.52</v>
@@ -1522,7 +1522,7 @@
         <v>1.54</v>
       </c>
       <c r="U8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V8" t="n">
         <v>1.73</v>
@@ -1531,55 +1531,55 @@
         <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH8" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>12.5</v>
@@ -1618,13 +1618,13 @@
         <v>1.22</v>
       </c>
       <c r="H9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
         <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
         <v>8.6</v>
@@ -1636,7 +1636,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.13</v>
@@ -1648,16 +1648,16 @@
         <v>1.41</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S9" t="n">
         <v>2.04</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
         <v>1.05</v>
@@ -1666,10 +1666,10 @@
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
         <v>200</v>
@@ -1684,7 +1684,7 @@
         <v>18.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
         <v>250</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
         <v>4.5</v>
@@ -1771,49 +1771,49 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V10" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC10" t="n">
         <v>10.5</v>
@@ -1822,13 +1822,13 @@
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>18.5</v>
@@ -1837,22 +1837,22 @@
         <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.93</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>4.1</v>
@@ -1918,10 +1918,10 @@
         <v>1.64</v>
       </c>
       <c r="R11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
         <v>1.62</v>
@@ -1933,13 +1933,13 @@
         <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
         <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -1957,7 +1957,7 @@
         <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -1984,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO11" t="n">
         <v>34</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G12" t="n">
         <v>3.3</v>
       </c>
-      <c r="G12" t="n">
-        <v>3.65</v>
-      </c>
       <c r="H12" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="I12" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="n">
         <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
         <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
         <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="W12" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G13" t="n">
         <v>9.6</v>
@@ -2185,22 +2185,22 @@
         <v>2.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
         <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U13" t="n">
         <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W13" t="n">
         <v>1.11</v>
@@ -2209,10 +2209,10 @@
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2224,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>14.5</v>
@@ -2233,16 +2233,16 @@
         <v>85</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH13" t="n">
         <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AK13" t="n">
         <v>150</v>
@@ -2257,7 +2257,7 @@
         <v>180</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="14">
@@ -2290,10 +2290,10 @@
         <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I14" t="n">
         <v>2.26</v>
@@ -2317,10 +2317,10 @@
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>1.39</v>
@@ -2347,7 +2347,7 @@
         <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA14" t="n">
         <v>34</v>
@@ -2365,13 +2365,13 @@
         <v>28</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
         <v>18.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>44</v>
@@ -2383,7 +2383,7 @@
         <v>50</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>46</v>
       </c>
       <c r="AO14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
         <v>3.5</v>
@@ -2431,10 +2431,10 @@
         <v>2.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.4</v>
@@ -2452,7 +2452,7 @@
         <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" t="n">
         <v>2.2</v>
@@ -2464,13 +2464,13 @@
         <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
         <v>1.99</v>
       </c>
       <c r="V15" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2500,13 +2500,13 @@
         <v>32</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>60</v>
@@ -2515,7 +2515,7 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
         <v>3.65</v>
@@ -2587,7 +2587,7 @@
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
         <v>1.94</v>
@@ -2605,10 +2605,10 @@
         <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X16" t="n">
         <v>14.5</v>
@@ -2629,7 +2629,7 @@
         <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>40</v>
@@ -2659,10 +2659,10 @@
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G17" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>3.95</v>
@@ -2725,25 +2725,25 @@
         <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
         <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
         <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X17" t="n">
         <v>19</v>
@@ -2770,10 +2770,10 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>3.65</v>
@@ -2851,88 +2851,88 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
         <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
         <v>8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN18" t="n">
         <v>32</v>
       </c>
-      <c r="AF18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH18" t="n">
+      <c r="AO18" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.49</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.51</v>
       </c>
       <c r="H19" t="n">
         <v>7</v>
@@ -2974,10 +2974,10 @@
         <v>7.6</v>
       </c>
       <c r="J19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.34</v>
@@ -2989,22 +2989,22 @@
         <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R19" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
         <v>1.96</v>
@@ -3013,13 +3013,13 @@
         <v>1.15</v>
       </c>
       <c r="W19" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z19" t="n">
         <v>70</v>
@@ -3028,28 +3028,28 @@
         <v>260</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>120</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
         <v>120</v>
@@ -3097,58 +3097,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.27</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="n">
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>2.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.79</v>
       </c>
       <c r="S20" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H21" t="n">
         <v>4.1</v>
@@ -3247,13 +3247,13 @@
         <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
         <v>3.7</v>
@@ -3271,22 +3271,22 @@
         <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
         <v>1.88</v>
       </c>
       <c r="U21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V21" t="n">
         <v>1.29</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
         <v>15</v>
@@ -3301,7 +3301,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
         <v>17</v>
@@ -3310,7 +3310,7 @@
         <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3322,10 +3322,10 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>38</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
         <v>2.22</v>
       </c>
       <c r="I22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3394,7 +3394,7 @@
         <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
         <v>2.2</v>
@@ -3412,13 +3412,13 @@
         <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
         <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X22" t="n">
         <v>16.5</v>
@@ -3427,10 +3427,10 @@
         <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB22" t="n">
         <v>16</v>
@@ -3445,7 +3445,7 @@
         <v>22</v>
       </c>
       <c r="AF22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
         <v>14</v>
@@ -3457,7 +3457,7 @@
         <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK22" t="n">
         <v>36</v>
@@ -3469,10 +3469,10 @@
         <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="23">
@@ -3511,7 +3511,7 @@
         <v>7.8</v>
       </c>
       <c r="I23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J23" t="n">
         <v>5.2</v>
@@ -3541,10 +3541,10 @@
         <v>1.58</v>
       </c>
       <c r="S23" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T23" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U23" t="n">
         <v>2.06</v>
@@ -3589,7 +3589,7 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
         <v>12.5</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G24" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I24" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="J24" t="n">
         <v>4.4</v>
@@ -3670,28 +3670,28 @@
         <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V24" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="W24" t="n">
         <v>1.22</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
@@ -3706,40 +3706,40 @@
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="n">
         <v>65</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
         <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
         <v>7.8</v>
@@ -3781,13 +3781,13 @@
         <v>14.5</v>
       </c>
       <c r="I25" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J25" t="n">
         <v>7.8</v>
       </c>
       <c r="K25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.27</v>
@@ -3796,7 +3796,7 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
         <v>1.18</v>
@@ -3829,13 +3829,13 @@
         <v>30</v>
       </c>
       <c r="Y25" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Z25" t="n">
         <v>180</v>
       </c>
       <c r="AA25" t="n">
-        <v>970</v>
+        <v>930</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
@@ -3871,13 +3871,13 @@
         <v>40</v>
       </c>
       <c r="AM25" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="n">
         <v>3.85</v>
       </c>
       <c r="AO25" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="G26" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
@@ -3925,7 +3925,7 @@
         <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
@@ -3934,31 +3934,31 @@
         <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P26" t="n">
         <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S26" t="n">
         <v>3.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U26" t="n">
         <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W26" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="X26" t="n">
         <v>12.5</v>
@@ -3967,10 +3967,10 @@
         <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
         <v>10.5</v>
@@ -3979,7 +3979,7 @@
         <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
         <v>38</v>
@@ -3997,10 +3997,10 @@
         <v>50</v>
       </c>
       <c r="AJ26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>42</v>
@@ -4009,7 +4009,7 @@
         <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
         <v>36</v>
@@ -4066,7 +4066,7 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O27" t="n">
         <v>1.2</v>
@@ -4183,13 +4183,13 @@
         <v>1.24</v>
       </c>
       <c r="H28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K28" t="n">
         <v>8.4</v>
@@ -4219,22 +4219,22 @@
         <v>2.72</v>
       </c>
       <c r="T28" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="U28" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V28" t="n">
         <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X28" t="n">
         <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4252,7 +4252,7 @@
         <v>70</v>
       </c>
       <c r="AE28" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
@@ -4267,19 +4267,19 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL28" t="n">
         <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G29" t="n">
         <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I29" t="n">
         <v>2.4</v>
@@ -4345,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R29" t="n">
         <v>1.39</v>
@@ -4354,22 +4354,22 @@
         <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U29" t="n">
         <v>2.24</v>
       </c>
       <c r="V29" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
         <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
         <v>14.5</v>
@@ -4399,7 +4399,7 @@
         <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="n">
         <v>60</v>
@@ -4417,7 +4417,7 @@
         <v>34</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="30">
@@ -4480,7 +4480,7 @@
         <v>2.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="R30" t="n">
         <v>1.58</v>
@@ -4549,7 +4549,7 @@
         <v>65</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4585,7 +4585,7 @@
         <v>1.46</v>
       </c>
       <c r="G31" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H31" t="n">
         <v>8.4</v>
@@ -4597,7 +4597,7 @@
         <v>4.4</v>
       </c>
       <c r="K31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.43</v>
@@ -4606,16 +4606,16 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O31" t="n">
         <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
         <v>1.35</v>
@@ -4624,16 +4624,16 @@
         <v>3.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U31" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V31" t="n">
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X31" t="n">
         <v>18</v>
@@ -4660,7 +4660,7 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H32" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="I32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J32" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L32" t="n">
         <v>1.27</v>
@@ -4759,13 +4759,13 @@
         <v>2.28</v>
       </c>
       <c r="T32" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U32" t="n">
         <v>1.58</v>
       </c>
       <c r="V32" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="W32" t="n">
         <v>1.03</v>
@@ -4774,7 +4774,7 @@
         <v>38</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
         <v>7.4</v>
@@ -4795,16 +4795,16 @@
         <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
@@ -4813,10 +4813,10 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AM32" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
@@ -4891,7 +4891,7 @@
         <v>1.44</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T33" t="n">
         <v>1.66</v>
@@ -4909,13 +4909,13 @@
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z33" t="n">
         <v>28</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB33" t="n">
         <v>14.5</v>
@@ -4936,10 +4936,10 @@
         <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
         <v>40</v>
@@ -4951,10 +4951,10 @@
         <v>42</v>
       </c>
       <c r="AM33" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO33" t="n">
         <v>34</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="G34" t="n">
         <v>11.5</v>
       </c>
       <c r="H34" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I34" t="n">
         <v>1.4</v>
@@ -5002,7 +5002,7 @@
         <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L34" t="n">
         <v>1.32</v>
@@ -5038,7 +5038,7 @@
         <v>3.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X34" t="n">
         <v>22</v>
@@ -5059,10 +5059,10 @@
         <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
         <v>95</v>
@@ -5071,10 +5071,10 @@
         <v>38</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ34" t="n">
         <v>430</v>
@@ -5083,10 +5083,10 @@
         <v>170</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM34" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN34" t="n">
         <v>200</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="G35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I35" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="J35" t="n">
         <v>3.55</v>
@@ -5170,10 +5170,10 @@
         <v>2.36</v>
       </c>
       <c r="V35" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="W35" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X35" t="n">
         <v>20</v>
@@ -5188,7 +5188,7 @@
         <v>42</v>
       </c>
       <c r="AB35" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC35" t="n">
         <v>10</v>
@@ -5200,10 +5200,10 @@
         <v>32</v>
       </c>
       <c r="AF35" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG35" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH35" t="n">
         <v>20</v>
@@ -5260,10 +5260,10 @@
         <v>2.14</v>
       </c>
       <c r="G36" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H36" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I36" t="n">
         <v>3.85</v>
@@ -5308,7 +5308,7 @@
         <v>1.35</v>
       </c>
       <c r="W36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X36" t="n">
         <v>17.5</v>
@@ -5329,7 +5329,7 @@
         <v>8</v>
       </c>
       <c r="AD36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="n">
         <v>55</v>
@@ -5350,7 +5350,7 @@
         <v>36</v>
       </c>
       <c r="AK36" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL36" t="n">
         <v>44</v>
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G37" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H37" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="I37" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="J37" t="n">
         <v>4.1</v>
@@ -5440,22 +5440,22 @@
         <v>2.12</v>
       </c>
       <c r="V37" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="W37" t="n">
         <v>1.23</v>
       </c>
       <c r="X37" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="n">
         <v>21</v>
@@ -5470,10 +5470,10 @@
         <v>17.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH37" t="n">
         <v>19.5</v>
@@ -5482,22 +5482,22 @@
         <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK37" t="n">
         <v>65</v>
       </c>
       <c r="AL37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM37" t="n">
         <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G38" t="n">
         <v>8.4</v>
@@ -5551,13 +5551,13 @@
         <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="O38" t="n">
         <v>1.24</v>
       </c>
       <c r="P38" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q38" t="n">
         <v>1.6</v>
@@ -5566,7 +5566,7 @@
         <v>1.47</v>
       </c>
       <c r="S38" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T38" t="n">
         <v>1.9</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="G39" t="n">
-        <v>140</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="I39" t="n">
-        <v>110</v>
+        <v>3.35</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="K39" t="n">
-        <v>110</v>
+        <v>5.7</v>
       </c>
       <c r="L39" t="n">
         <v>1.19</v>
@@ -5686,34 +5686,34 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O39" t="n">
         <v>1.1</v>
       </c>
       <c r="P39" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
         <v>1.29</v>
       </c>
       <c r="R39" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S39" t="n">
         <v>1.71</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,25 +5797,25 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G40" t="n">
         <v>1.22</v>
       </c>
-      <c r="G40" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H40" t="n">
-        <v>1.09</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="K40" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
@@ -5830,25 +5830,25 @@
         <v>5.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R40" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="S40" t="n">
         <v>1.53</v>
       </c>
       <c r="T40" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U40" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="V40" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W40" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5857,7 +5857,7 @@
         <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
@@ -5872,7 +5872,7 @@
         <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AF40" t="n">
         <v>1000</v>
@@ -5884,7 +5884,7 @@
         <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.04</v>
+        <v>3.85</v>
       </c>
       <c r="G41" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="H41" t="n">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="I41" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="J41" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,34 +5956,34 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>2.04</v>
+        <v>1.1</v>
       </c>
       <c r="O41" t="n">
         <v>1.13</v>
       </c>
       <c r="P41" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="R41" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="S41" t="n">
         <v>1.93</v>
       </c>
       <c r="T41" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="U41" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="V41" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W41" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6067,64 +6067,64 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="G42" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="H42" t="n">
-        <v>1.04</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J42" t="n">
-        <v>1.03</v>
+        <v>8.4</v>
       </c>
       <c r="K42" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="L42" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>3.25</v>
+        <v>1.1</v>
       </c>
       <c r="O42" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P42" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="R42" t="n">
         <v>3.25</v>
       </c>
       <c r="S42" t="n">
-        <v>1.05</v>
+        <v>1.41</v>
       </c>
       <c r="T42" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="U42" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="V42" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="W42" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6142,7 +6142,7 @@
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6226,28 +6226,28 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="O43" t="n">
         <v>1.28</v>
       </c>
       <c r="P43" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q43" t="n">
         <v>1.28</v>
       </c>
       <c r="R43" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S43" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V43" t="n">
         <v>1.01</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G44" t="n">
         <v>2.24</v>
@@ -6352,13 +6352,13 @@
         <v>3.55</v>
       </c>
       <c r="K44" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L44" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
         <v>4.2</v>
@@ -6367,22 +6367,22 @@
         <v>1.26</v>
       </c>
       <c r="P44" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="R44" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S44" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T44" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U44" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="V44" t="n">
         <v>1.35</v>
@@ -6391,28 +6391,28 @@
         <v>1.8</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA44" t="n">
         <v>70</v>
       </c>
       <c r="AB44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD44" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE44" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF44" t="n">
         <v>18</v>
@@ -6421,28 +6421,28 @@
         <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ44" t="n">
         <v>28</v>
       </c>
       <c r="AK44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL44" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM44" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN44" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="G2" t="n">
         <v>2.96</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I2" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -700,10 +700,10 @@
         <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>3.65</v>
@@ -715,7 +715,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W2" t="n">
         <v>1.51</v>
@@ -724,7 +724,7 @@
         <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
         <v>22</v>
@@ -736,13 +736,13 @@
         <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>23</v>
@@ -751,25 +751,25 @@
         <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
         <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
         <v>36</v>
@@ -808,16 +808,16 @@
         <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
         <v>2.24</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
         <v>1.43</v>
@@ -832,25 +832,25 @@
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
         <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>1.36</v>
@@ -943,13 +943,13 @@
         <v>3.75</v>
       </c>
       <c r="H4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.16</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.18</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>3.8</v>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>2.02</v>
@@ -973,31 +973,31 @@
         <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
         <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W4" t="n">
         <v>1.36</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA4" t="n">
         <v>26</v>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>36</v>
@@ -1030,7 +1030,7 @@
         <v>70</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL4" t="n">
         <v>50</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G5" t="n">
         <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I5" t="n">
         <v>1.86</v>
@@ -1087,7 +1087,7 @@
         <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1117,7 +1117,7 @@
         <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
         <v>2.16</v>
@@ -1210,19 +1210,19 @@
         <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
         <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -1237,13 +1237,13 @@
         <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
         <v>3.05</v>
@@ -1252,16 +1252,16 @@
         <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
@@ -1276,7 +1276,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>19</v>
@@ -1294,13 +1294,13 @@
         <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>32</v>
@@ -1309,7 +1309,7 @@
         <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO6" t="n">
         <v>60</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="J7" t="n">
         <v>3.7</v>
@@ -1390,16 +1390,16 @@
         <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>14</v>
@@ -1429,10 +1429,10 @@
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
         <v>42</v>
@@ -1441,7 +1441,7 @@
         <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
         <v>40</v>
@@ -1480,7 +1480,7 @@
         <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
         <v>2.32</v>
@@ -1501,7 +1501,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
@@ -1510,7 +1510,7 @@
         <v>2.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
         <v>1.63</v>
@@ -1531,10 +1531,10 @@
         <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
         <v>18</v>
@@ -1621,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
@@ -1636,7 +1636,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.13</v>
@@ -1648,13 +1648,13 @@
         <v>1.41</v>
       </c>
       <c r="R9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
         <v>1.92</v>
@@ -1672,7 +1672,7 @@
         <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1684,7 +1684,7 @@
         <v>18.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE9" t="n">
         <v>250</v>
@@ -1699,10 +1699,10 @@
         <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,10 +1753,10 @@
         <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="J10" t="n">
         <v>4.3</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
@@ -1780,25 +1780,25 @@
         <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
         <v>2.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X10" t="n">
         <v>24</v>
@@ -1825,7 +1825,7 @@
         <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -1834,25 +1834,25 @@
         <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
         <v>60</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11">
@@ -1888,10 +1888,10 @@
         <v>1.93</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
@@ -1930,7 +1930,7 @@
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
         <v>2.06</v>
@@ -1960,7 +1960,7 @@
         <v>44</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
         <v>10.5</v>
@@ -1984,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>34</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>1.44</v>
@@ -2047,58 +2047,58 @@
         <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
         <v>2.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V12" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>18</v>
@@ -2107,22 +2107,22 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.41</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.43</v>
-      </c>
       <c r="J13" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2188,7 +2188,7 @@
         <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
         <v>2.76</v>
@@ -2200,16 +2200,16 @@
         <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z13" t="n">
         <v>8.6</v>
@@ -2242,7 +2242,7 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AK13" t="n">
         <v>150</v>
@@ -2347,19 +2347,19 @@
         <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
         <v>28</v>
@@ -2368,13 +2368,13 @@
         <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>46</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="15">
@@ -2425,10 +2425,10 @@
         <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I15" t="n">
         <v>2.5</v>
@@ -2461,25 +2461,25 @@
         <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
         <v>1.66</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
         <v>15.5</v>
@@ -2488,7 +2488,7 @@
         <v>42</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
         <v>7.6</v>
@@ -2497,10 +2497,10 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
         <v>1000</v>
@@ -2509,7 +2509,7 @@
         <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2587,7 +2587,7 @@
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q16" t="n">
         <v>1.94</v>
@@ -2626,7 +2626,7 @@
         <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         <v>50</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -2662,7 +2662,7 @@
         <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -2737,7 +2737,7 @@
         <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
         <v>1.3</v>
@@ -2749,22 +2749,22 @@
         <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA17" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC17" t="n">
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2776,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2785,10 +2785,10 @@
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
         <v>120</v>
@@ -2830,16 +2830,16 @@
         <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H18" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I18" t="n">
         <v>2.48</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.65</v>
@@ -2878,7 +2878,7 @@
         <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X18" t="n">
         <v>16</v>
@@ -2965,28 +2965,28 @@
         <v>1.47</v>
       </c>
       <c r="G19" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I19" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.34</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.25</v>
@@ -2998,22 +2998,22 @@
         <v>1.77</v>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S19" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X19" t="n">
         <v>25</v>
@@ -3025,7 +3025,7 @@
         <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB19" t="n">
         <v>9</v>
@@ -3034,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
         <v>120</v>
@@ -3049,7 +3049,7 @@
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
         <v>2.7</v>
@@ -3109,7 +3109,7 @@
         <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
         <v>7.8</v>
@@ -3118,37 +3118,37 @@
         <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q20" t="n">
         <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
         <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V20" t="n">
         <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3241,13 +3241,13 @@
         <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
         <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>1.42</v>
@@ -3271,7 +3271,7 @@
         <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T21" t="n">
         <v>1.88</v>
@@ -3280,7 +3280,7 @@
         <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
         <v>1.96</v>
@@ -3301,7 +3301,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>17</v>
@@ -3316,13 +3316,13 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>22</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G22" t="n">
         <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.35</v>
@@ -3400,34 +3400,34 @@
         <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R22" t="n">
         <v>1.48</v>
       </c>
       <c r="S22" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W22" t="n">
         <v>1.38</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
         <v>28</v>
@@ -3436,7 +3436,7 @@
         <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G23" t="n">
         <v>1.45</v>
@@ -3517,7 +3517,7 @@
         <v>5.2</v>
       </c>
       <c r="K23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.3</v>
@@ -3544,7 +3544,7 @@
         <v>2.58</v>
       </c>
       <c r="T23" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U23" t="n">
         <v>2.06</v>
@@ -3562,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="Z23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="n">
         <v>270</v>
@@ -3577,7 +3577,7 @@
         <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
         <v>9.199999999999999</v>
@@ -3607,7 +3607,7 @@
         <v>5.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -3643,16 +3643,16 @@
         <v>5.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J24" t="n">
         <v>4.4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.32</v>
@@ -3676,16 +3676,16 @@
         <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W24" t="n">
         <v>1.22</v>
@@ -3709,16 +3709,16 @@
         <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE24" t="n">
         <v>15.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>18</v>
@@ -3727,7 +3727,7 @@
         <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="n">
         <v>65</v>
@@ -3775,10 +3775,10 @@
         <v>1.22</v>
       </c>
       <c r="G25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I25" t="n">
         <v>17.5</v>
@@ -3808,7 +3808,7 @@
         <v>1.54</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S25" t="n">
         <v>2.38</v>
@@ -3817,46 +3817,46 @@
         <v>2.22</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V25" t="n">
         <v>1.06</v>
       </c>
       <c r="W25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X25" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y25" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="Z25" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD25" t="n">
         <v>60</v>
       </c>
       <c r="AE25" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3865,19 +3865,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AK25" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AM25" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO25" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
@@ -3934,10 +3934,10 @@
         <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q26" t="n">
         <v>2.06</v>
@@ -3949,70 +3949,70 @@
         <v>3.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="n">
         <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W26" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="X26" t="n">
         <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA26" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
         <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G27" t="n">
         <v>4.7</v>
@@ -4075,7 +4075,7 @@
         <v>2.58</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R27" t="n">
         <v>1.63</v>
@@ -4084,10 +4084,10 @@
         <v>2.48</v>
       </c>
       <c r="T27" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V27" t="n">
         <v>2.28</v>
@@ -4096,7 +4096,7 @@
         <v>1.27</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
         <v>12.5</v>
@@ -4114,7 +4114,7 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
         <v>16</v>
@@ -4189,7 +4189,7 @@
         <v>19</v>
       </c>
       <c r="J28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K28" t="n">
         <v>8.4</v>
@@ -4204,10 +4204,10 @@
         <v>5.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q28" t="n">
         <v>1.67</v>
@@ -4216,19 +4216,19 @@
         <v>1.54</v>
       </c>
       <c r="S28" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T28" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="U28" t="n">
         <v>1.6</v>
       </c>
       <c r="V28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X28" t="n">
         <v>26</v>
@@ -4252,7 +4252,7 @@
         <v>70</v>
       </c>
       <c r="AE28" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
@@ -4264,13 +4264,13 @@
         <v>55</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AK28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
         <v>65</v>
@@ -4279,7 +4279,7 @@
         <v>420</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G29" t="n">
         <v>3.4</v>
@@ -4321,7 +4321,7 @@
         <v>2.36</v>
       </c>
       <c r="I29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J29" t="n">
         <v>3.55</v>
@@ -4354,28 +4354,28 @@
         <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
         <v>2.24</v>
       </c>
       <c r="V29" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W29" t="n">
         <v>1.41</v>
       </c>
       <c r="X29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
         <v>14.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB29" t="n">
         <v>13.5</v>
@@ -4405,7 +4405,7 @@
         <v>60</v>
       </c>
       <c r="AK29" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="n">
         <v>46</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J30" t="n">
         <v>3.8</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -4471,67 +4471,67 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
         <v>2.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="R30" t="n">
         <v>1.58</v>
       </c>
       <c r="S30" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U30" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
         <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4540,19 +4540,19 @@
         <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -4594,7 +4594,7 @@
         <v>9.6</v>
       </c>
       <c r="J31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K31" t="n">
         <v>4.9</v>
@@ -4633,13 +4633,13 @@
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z31" t="n">
         <v>85</v>
@@ -4654,37 +4654,37 @@
         <v>10.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN31" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G32" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H32" t="n">
         <v>1.17</v>
       </c>
       <c r="I32" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J32" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.27</v>
@@ -4741,37 +4741,37 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O32" t="n">
         <v>1.17</v>
       </c>
       <c r="P32" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R32" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S32" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T32" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U32" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V32" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X32" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="n">
         <v>12</v>
@@ -4786,22 +4786,22 @@
         <v>75</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD32" t="n">
         <v>13.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -4813,16 +4813,16 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="AM32" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="33">
@@ -4858,13 +4858,13 @@
         <v>2.44</v>
       </c>
       <c r="H33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
         <v>3.8</v>
@@ -4882,19 +4882,19 @@
         <v>1.27</v>
       </c>
       <c r="P33" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q33" t="n">
         <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S33" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U33" t="n">
         <v>2.32</v>
@@ -4909,13 +4909,13 @@
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
         <v>14.5</v>
@@ -4927,37 +4927,37 @@
         <v>15</v>
       </c>
       <c r="AE33" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN33" t="n">
         <v>20</v>
       </c>
-      <c r="AG33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>21</v>
-      </c>
       <c r="AO33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -4996,16 +4996,16 @@
         <v>1.39</v>
       </c>
       <c r="I34" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="J34" t="n">
         <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5014,28 +5014,28 @@
         <v>4.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R34" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T34" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W34" t="n">
         <v>1.1</v>
@@ -5053,16 +5053,16 @@
         <v>11.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF34" t="n">
         <v>95</v>
@@ -5071,13 +5071,13 @@
         <v>38</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI34" t="n">
         <v>36</v>
       </c>
       <c r="AJ34" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="AK34" t="n">
         <v>170</v>
@@ -5086,7 +5086,7 @@
         <v>140</v>
       </c>
       <c r="AM34" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AN34" t="n">
         <v>200</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H35" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
         <v>3.7</v>
@@ -5161,28 +5161,28 @@
         <v>1.41</v>
       </c>
       <c r="S35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T35" t="n">
         <v>1.68</v>
       </c>
       <c r="U35" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="V35" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W35" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X35" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z35" t="n">
         <v>20</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>21</v>
       </c>
       <c r="AA35" t="n">
         <v>42</v>
@@ -5191,10 +5191,10 @@
         <v>15.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE35" t="n">
         <v>32</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G36" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
         <v>3.85</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K36" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
         <v>1.41</v>
@@ -5281,88 +5281,88 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R36" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
         <v>1.75</v>
       </c>
       <c r="U36" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V36" t="n">
         <v>1.35</v>
       </c>
       <c r="W36" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH36" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y36" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA36" t="n">
+      <c r="AI36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM36" t="n">
         <v>90</v>
       </c>
-      <c r="AB36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>110</v>
-      </c>
       <c r="AN36" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H37" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="I37" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="J37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K37" t="n">
         <v>4.3</v>
@@ -5413,76 +5413,76 @@
         <v>1.37</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.26</v>
       </c>
       <c r="P37" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R37" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="T37" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V37" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X37" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z37" t="n">
         <v>11</v>
       </c>
-      <c r="Z37" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AA37" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG37" t="n">
         <v>21</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>19.5</v>
       </c>
       <c r="AH37" t="n">
         <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AJ37" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="n">
         <v>65</v>
@@ -5494,10 +5494,10 @@
         <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO37" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="38">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="G38" t="n">
         <v>8.4</v>
@@ -5536,13 +5536,13 @@
         <v>1.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="J38" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K38" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.35</v>
@@ -5551,7 +5551,7 @@
         <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="O38" t="n">
         <v>1.24</v>
@@ -5560,25 +5560,25 @@
         <v>2.2</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="R38" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S38" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U38" t="n">
         <v>1.96</v>
       </c>
       <c r="V38" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="W38" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5707,7 +5707,7 @@
         <v>1.32</v>
       </c>
       <c r="U39" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V39" t="n">
         <v>1.43</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G40" t="n">
         <v>1.22</v>
@@ -5809,10 +5809,10 @@
         <v>17.5</v>
       </c>
       <c r="J40" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="K40" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="L40" t="n">
         <v>1.15</v>
@@ -5830,25 +5830,25 @@
         <v>5.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="R40" t="n">
         <v>2.58</v>
       </c>
       <c r="S40" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="T40" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U40" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V40" t="n">
         <v>1.06</v>
       </c>
       <c r="W40" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5935,7 +5935,7 @@
         <v>3.85</v>
       </c>
       <c r="G41" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H41" t="n">
         <v>1.61</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="G42" t="n">
         <v>1.23</v>
       </c>
       <c r="H42" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
         <v>16</v>
       </c>
       <c r="J42" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="K42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L42" t="n">
         <v>1.12</v>
@@ -6109,13 +6109,13 @@
         <v>1.41</v>
       </c>
       <c r="T42" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="U42" t="n">
         <v>2.48</v>
       </c>
       <c r="V42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W42" t="n">
         <v>5.3</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6226,13 +6226,13 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="O43" t="n">
         <v>1.28</v>
       </c>
       <c r="P43" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q43" t="n">
         <v>1.28</v>
@@ -6241,7 +6241,7 @@
         <v>1.21</v>
       </c>
       <c r="S43" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T43" t="n">
         <v>1.04</v>
@@ -6337,31 +6337,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G44" t="n">
         <v>2.24</v>
       </c>
       <c r="H44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J44" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.55</v>
       </c>
       <c r="K44" t="n">
         <v>3.85</v>
       </c>
       <c r="L44" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.26</v>
@@ -6370,7 +6370,7 @@
         <v>2.08</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R44" t="n">
         <v>1.43</v>
@@ -6379,10 +6379,10 @@
         <v>3.05</v>
       </c>
       <c r="T44" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U44" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V44" t="n">
         <v>1.35</v>
@@ -6397,7 +6397,7 @@
         <v>16.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA44" t="n">
         <v>70</v>
@@ -6409,7 +6409,7 @@
         <v>9</v>
       </c>
       <c r="AD44" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE44" t="n">
         <v>48</v>
@@ -6421,7 +6421,7 @@
         <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI44" t="n">
         <v>55</v>
@@ -6430,7 +6430,7 @@
         <v>28</v>
       </c>
       <c r="AK44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL44" t="n">
         <v>36</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
         <v>2.96</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
@@ -700,7 +700,7 @@
         <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -715,7 +715,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>1.51</v>
@@ -766,7 +766,7 @@
         <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
         <v>32</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.2</v>
       </c>
-      <c r="I3" t="n">
-        <v>2.24</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>3.65</v>
@@ -832,10 +832,10 @@
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -844,16 +844,16 @@
         <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
         <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
         <v>14</v>
@@ -865,7 +865,7 @@
         <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
@@ -904,7 +904,7 @@
         <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="n">
         <v>17.5</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
@@ -982,13 +982,13 @@
         <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -997,13 +997,13 @@
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1015,7 +1015,7 @@
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1039,10 +1039,10 @@
         <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1075,19 +1075,19 @@
         <v>4.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I5" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1096,19 +1096,19 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
         <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
         <v>3.65</v>
@@ -1120,16 +1120,16 @@
         <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
         <v>10.5</v>
@@ -1144,13 +1144,13 @@
         <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG5" t="n">
         <v>19.5</v>
@@ -1162,7 +1162,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
         <v>70</v>
@@ -1177,7 +1177,7 @@
         <v>80</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -1213,28 +1213,28 @@
         <v>1.79</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
         <v>2.2</v>
@@ -1246,25 +1246,25 @@
         <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
         <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
         <v>2.26</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z6" t="n">
         <v>38</v>
@@ -1273,19 +1273,19 @@
         <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE6" t="n">
         <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>9.800000000000001</v>
@@ -1297,7 +1297,7 @@
         <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK6" t="n">
         <v>17</v>
@@ -1309,7 +1309,7 @@
         <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO6" t="n">
         <v>60</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H7" t="n">
         <v>2.14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J7" t="n">
         <v>3.7</v>
@@ -1360,55 +1360,55 @@
         <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
         <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.199999999999999</v>
@@ -1417,7 +1417,7 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>27</v>
@@ -1429,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
         <v>70</v>
@@ -1441,13 +1441,13 @@
         <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
@@ -1507,25 +1507,25 @@
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="n">
         <v>2.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W8" t="n">
         <v>1.45</v>
@@ -1534,10 +1534,10 @@
         <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
         <v>32</v>
@@ -1579,10 +1579,10 @@
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1618,16 +1618,16 @@
         <v>1.22</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I9" t="n">
         <v>18.5</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L9" t="n">
         <v>1.21</v>
@@ -1636,7 +1636,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.13</v>
@@ -1645,34 +1645,34 @@
         <v>3.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
         <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,40 +1681,40 @@
         <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="n">
         <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,16 +1753,16 @@
         <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="I10" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.31</v>
@@ -1777,7 +1777,7 @@
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
         <v>1.63</v>
@@ -1789,19 +1789,19 @@
         <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
         <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
@@ -1810,46 +1810,46 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>25</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
         <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>7.2</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="H11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I11" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.3</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
@@ -1912,10 +1912,10 @@
         <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R11" t="n">
         <v>1.59</v>
@@ -1930,16 +1930,16 @@
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X11" t="n">
         <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -1948,7 +1948,7 @@
         <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>9.4</v>
@@ -1957,10 +1957,10 @@
         <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>10.5</v>
@@ -1972,22 +1972,22 @@
         <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL11" t="n">
         <v>27</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2023,10 +2023,10 @@
         <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I12" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2041,13 +2041,13 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q12" t="n">
         <v>2.04</v>
@@ -2065,7 +2065,7 @@
         <v>2.14</v>
       </c>
       <c r="V12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W12" t="n">
         <v>1.46</v>
@@ -2074,13 +2074,13 @@
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
@@ -2089,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>29</v>
@@ -2098,7 +2098,7 @@
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>18</v>
@@ -2122,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,76 +2152,76 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G13" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J13" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
@@ -2230,31 +2230,31 @@
         <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AK13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="n">
         <v>130</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AO13" t="n">
         <v>6.2</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I14" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -2311,10 +2311,10 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>2.04</v>
@@ -2323,76 +2323,76 @@
         <v>1.86</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
         <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="W14" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI14" t="n">
         <v>34</v>
       </c>
-      <c r="AG14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>42</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.45</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.47</v>
@@ -2446,16 +2446,16 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R15" t="n">
         <v>1.27</v>
@@ -2464,70 +2464,70 @@
         <v>4.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V15" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="W15" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
         <v>14</v>
       </c>
-      <c r="Y15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AA15" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
         <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>3.65</v>
@@ -2587,7 +2587,7 @@
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="Q16" t="n">
         <v>1.94</v>
@@ -2596,22 +2596,22 @@
         <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
         <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V16" t="n">
         <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
         <v>14</v>
@@ -2620,7 +2620,7 @@
         <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
@@ -2659,7 +2659,7 @@
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO16" t="n">
         <v>38</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H17" t="n">
         <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.95</v>
       </c>
       <c r="L17" t="n">
         <v>1.39</v>
@@ -2725,10 +2725,10 @@
         <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
         <v>3.2</v>
@@ -2740,64 +2740,64 @@
         <v>2.12</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W17" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
         <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
         <v>10</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN17" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
         <v>2.36</v>
       </c>
       <c r="I18" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.4</v>
@@ -2857,16 +2857,16 @@
         <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
         <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T18" t="n">
         <v>1.72</v>
@@ -2875,31 +2875,31 @@
         <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
         <v>16.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="n">
         <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
@@ -2908,7 +2908,7 @@
         <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -2917,22 +2917,22 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
         <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
         <v>32</v>
       </c>
       <c r="AO18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>1.47</v>
       </c>
       <c r="G19" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H19" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.34</v>
@@ -2986,28 +2986,28 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
         <v>2.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R19" t="n">
         <v>1.49</v>
       </c>
       <c r="S19" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T19" t="n">
         <v>1.95</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V19" t="n">
         <v>1.13</v>
@@ -3016,31 +3016,31 @@
         <v>3.05</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="Y19" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="Z19" t="n">
         <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>120</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG19" t="n">
         <v>9.800000000000001</v>
@@ -3049,10 +3049,10 @@
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
@@ -3061,13 +3061,13 @@
         <v>34</v>
       </c>
       <c r="AM19" t="n">
+        <v>470</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO19" t="n">
         <v>130</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3112,7 +3112,7 @@
         <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
         <v>1.25</v>
@@ -3121,13 +3121,13 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="n">
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
         <v>1.5</v>
@@ -3166,7 +3166,7 @@
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
         <v>4.1</v>
@@ -3244,25 +3244,25 @@
         <v>4.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O21" t="n">
         <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q21" t="n">
         <v>2.06</v>
@@ -3283,19 +3283,19 @@
         <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z21" t="n">
         <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
         <v>8.800000000000001</v>
@@ -3307,7 +3307,7 @@
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF21" t="n">
         <v>12</v>
@@ -3331,10 +3331,10 @@
         <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO21" t="n">
         <v>60</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="I22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
         <v>3.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3397,31 +3397,31 @@
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
         <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V22" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="W22" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
@@ -3430,10 +3430,10 @@
         <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8.4</v>
@@ -3445,7 +3445,7 @@
         <v>22</v>
       </c>
       <c r="AF22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
         <v>14</v>
@@ -3457,7 +3457,7 @@
         <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="n">
         <v>36</v>
@@ -3472,7 +3472,7 @@
         <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G23" t="n">
         <v>1.45</v>
       </c>
       <c r="H23" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
         <v>5.2</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.3</v>
@@ -3526,13 +3526,13 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q23" t="n">
         <v>1.63</v>
@@ -3541,7 +3541,7 @@
         <v>1.58</v>
       </c>
       <c r="S23" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T23" t="n">
         <v>1.89</v>
@@ -3550,7 +3550,7 @@
         <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W23" t="n">
         <v>3.2</v>
@@ -3559,22 +3559,22 @@
         <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="n">
         <v>75</v>
       </c>
       <c r="AA23" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
         <v>11.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE23" t="n">
         <v>120</v>
@@ -3586,10 +3586,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
         <v>12.5</v>
@@ -3604,7 +3604,7 @@
         <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AO23" t="n">
         <v>120</v>
@@ -3640,10 +3640,10 @@
         <v>5.1</v>
       </c>
       <c r="G24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I24" t="n">
         <v>1.7</v>
@@ -3658,7 +3658,7 @@
         <v>1.32</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
         <v>5.1</v>
@@ -3667,10 +3667,10 @@
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
         <v>1.55</v>
@@ -3685,13 +3685,13 @@
         <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
@@ -3715,28 +3715,28 @@
         <v>15.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG24" t="n">
         <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ24" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
         <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
         <v>55</v>
@@ -3778,16 +3778,16 @@
         <v>1.24</v>
       </c>
       <c r="H25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="J25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K25" t="n">
         <v>7.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.27</v>
@@ -3802,10 +3802,10 @@
         <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R25" t="n">
         <v>1.68</v>
@@ -3817,19 +3817,19 @@
         <v>2.22</v>
       </c>
       <c r="U25" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X25" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3841,7 +3841,7 @@
         <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD25" t="n">
         <v>60</v>
@@ -3850,7 +3850,7 @@
         <v>350</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
@@ -3862,19 +3862,19 @@
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AK25" t="n">
         <v>14.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G26" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.5</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.55</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -3934,10 +3934,10 @@
         <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P26" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q26" t="n">
         <v>2.06</v>
@@ -3946,7 +3946,7 @@
         <v>1.34</v>
       </c>
       <c r="S26" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
         <v>1.83</v>
@@ -3955,19 +3955,19 @@
         <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="X26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
         <v>13</v>
       </c>
       <c r="Z26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
         <v>70</v>
@@ -3979,19 +3979,19 @@
         <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>44</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
@@ -4000,7 +4000,7 @@
         <v>30</v>
       </c>
       <c r="AK26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL26" t="n">
         <v>40</v>
@@ -4009,10 +4009,10 @@
         <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G27" t="n">
         <v>4.6</v>
       </c>
-      <c r="G27" t="n">
-        <v>4.7</v>
-      </c>
       <c r="H27" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I27" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="J27" t="n">
         <v>4.4</v>
@@ -4060,7 +4060,7 @@
         <v>4.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4069,13 +4069,13 @@
         <v>5.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R27" t="n">
         <v>1.63</v>
@@ -4090,7 +4090,7 @@
         <v>2.5</v>
       </c>
       <c r="V27" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="W27" t="n">
         <v>1.27</v>
@@ -4099,7 +4099,7 @@
         <v>26</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
         <v>13</v>
@@ -4120,7 +4120,7 @@
         <v>16</v>
       </c>
       <c r="AF27" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG27" t="n">
         <v>18</v>
@@ -4138,7 +4138,7 @@
         <v>48</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
         <v>70</v>
@@ -4177,31 +4177,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G28" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K28" t="n">
         <v>7.6</v>
       </c>
-      <c r="K28" t="n">
-        <v>8.4</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O28" t="n">
         <v>1.23</v>
@@ -4210,25 +4210,25 @@
         <v>2.38</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R28" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S28" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T28" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="V28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="X28" t="n">
         <v>26</v>
@@ -4237,7 +4237,7 @@
         <v>48</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4246,13 +4246,13 @@
         <v>8.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE28" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
@@ -4264,19 +4264,19 @@
         <v>55</v>
       </c>
       <c r="AI28" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL28" t="n">
         <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AN28" t="n">
         <v>4.4</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G29" t="n">
         <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I29" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="J29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.4</v>
@@ -4339,46 +4339,46 @@
         <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R29" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="U29" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V29" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W29" t="n">
         <v>1.41</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
         <v>14.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>7.8</v>
@@ -4390,13 +4390,13 @@
         <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI29" t="n">
         <v>38</v>
@@ -4405,10 +4405,10 @@
         <v>60</v>
       </c>
       <c r="AK29" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM29" t="n">
         <v>90</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="I30" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="J30" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -4471,88 +4471,88 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S30" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T30" t="n">
         <v>1.57</v>
       </c>
       <c r="U30" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V30" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="W30" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB30" t="n">
         <v>21</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AC30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN30" t="n">
         <v>34</v>
       </c>
-      <c r="AB30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>26</v>
-      </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="31">
@@ -4585,10 +4585,10 @@
         <v>1.46</v>
       </c>
       <c r="G31" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H31" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I31" t="n">
         <v>9.6</v>
@@ -4600,7 +4600,7 @@
         <v>4.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4633,7 +4633,7 @@
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X31" t="n">
         <v>15.5</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" t="n">
         <v>1.17</v>
       </c>
       <c r="I32" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J32" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="K32" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
         <v>1.27</v>
@@ -4741,13 +4741,13 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O32" t="n">
         <v>1.17</v>
       </c>
       <c r="P32" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="Q32" t="n">
         <v>1.53</v>
@@ -4759,10 +4759,10 @@
         <v>2.32</v>
       </c>
       <c r="T32" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V32" t="n">
         <v>6.2</v>
@@ -4771,22 +4771,22 @@
         <v>1.04</v>
       </c>
       <c r="X32" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA32" t="n">
         <v>8</v>
       </c>
       <c r="AB32" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="AC32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD32" t="n">
         <v>13.5</v>
@@ -4795,13 +4795,13 @@
         <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -4813,7 +4813,7 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AM32" t="n">
         <v>380</v>
@@ -4822,7 +4822,7 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="33">
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G33" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
         <v>3.8</v>
@@ -4882,28 +4882,28 @@
         <v>1.27</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R33" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V33" t="n">
         <v>1.44</v>
       </c>
       <c r="W33" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X33" t="n">
         <v>21</v>
@@ -4915,7 +4915,7 @@
         <v>24</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB33" t="n">
         <v>14.5</v>
@@ -4924,10 +4924,10 @@
         <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF33" t="n">
         <v>17.5</v>
@@ -4939,25 +4939,25 @@
         <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK33" t="n">
         <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM33" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN33" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="G34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="I34" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="J34" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K34" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L34" t="n">
         <v>1.33</v>
@@ -5011,10 +5011,10 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P34" t="n">
         <v>2.28</v>
@@ -5032,10 +5032,10 @@
         <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V34" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="W34" t="n">
         <v>1.1</v>
@@ -5047,22 +5047,22 @@
         <v>9.6</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA34" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AB34" t="n">
         <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD34" t="n">
         <v>11</v>
       </c>
       <c r="AE34" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AF34" t="n">
         <v>95</v>
@@ -5071,28 +5071,28 @@
         <v>38</v>
       </c>
       <c r="AH34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="AK34" t="n">
         <v>170</v>
       </c>
       <c r="AL34" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM34" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN34" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="G35" t="n">
         <v>3.15</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="I35" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J35" t="n">
         <v>3.6</v>
@@ -5170,10 +5170,10 @@
         <v>2.26</v>
       </c>
       <c r="V35" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="W35" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X35" t="n">
         <v>18</v>
@@ -5209,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AI35" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ35" t="n">
         <v>60</v>
@@ -5221,7 +5221,7 @@
         <v>50</v>
       </c>
       <c r="AM35" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AN35" t="n">
         <v>34</v>
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.85</v>
       </c>
-      <c r="J36" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L36" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O36" t="n">
         <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R36" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U36" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="X36" t="n">
         <v>15.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA36" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE36" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI36" t="n">
         <v>55</v>
       </c>
       <c r="AJ36" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL36" t="n">
         <v>36</v>
       </c>
       <c r="AM36" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN36" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="G37" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="I37" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="J37" t="n">
         <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L37" t="n">
         <v>1.37</v>
@@ -5431,64 +5431,64 @@
         <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T37" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U37" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V37" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="W37" t="n">
         <v>1.22</v>
       </c>
       <c r="X37" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA37" t="n">
         <v>17.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD37" t="n">
         <v>12</v>
       </c>
       <c r="AE37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF37" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AG37" t="n">
         <v>21</v>
       </c>
       <c r="AH37" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK37" t="n">
         <v>65</v>
       </c>
       <c r="AL37" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM37" t="n">
         <v>110</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="H38" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I38" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="J38" t="n">
         <v>4.6</v>
@@ -5557,10 +5557,10 @@
         <v>1.24</v>
       </c>
       <c r="P38" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R38" t="n">
         <v>1.48</v>
@@ -5569,34 +5569,34 @@
         <v>2.8</v>
       </c>
       <c r="T38" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U38" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="W38" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Z38" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5605,10 +5605,10 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
@@ -5617,22 +5617,22 @@
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK38" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AL38" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AM38" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AN38" t="n">
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="H39" t="n">
         <v>2.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.2</v>
+        <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L39" t="n">
         <v>1.19</v>
@@ -5695,7 +5695,7 @@
         <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="R39" t="n">
         <v>1.82</v>
@@ -5710,10 +5710,10 @@
         <v>2.84</v>
       </c>
       <c r="V39" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W39" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5746,7 +5746,7 @@
         <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
@@ -5938,7 +5938,7 @@
         <v>5.6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="I41" t="n">
         <v>1.85</v>
@@ -5947,7 +5947,7 @@
         <v>3.65</v>
       </c>
       <c r="K41" t="n">
-        <v>950</v>
+        <v>7.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -6079,10 +6079,10 @@
         <v>16</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.12</v>
@@ -6091,7 +6091,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>1.1</v>
+        <v>2.24</v>
       </c>
       <c r="O42" t="n">
         <v>1.05</v>
@@ -6115,7 +6115,7 @@
         <v>2.48</v>
       </c>
       <c r="V42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W42" t="n">
         <v>5.3</v>
@@ -6349,13 +6349,13 @@
         <v>3.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K44" t="n">
         <v>3.85</v>
       </c>
       <c r="L44" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
@@ -6379,7 +6379,7 @@
         <v>3.05</v>
       </c>
       <c r="T44" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="U44" t="n">
         <v>2.26</v>
@@ -6439,7 +6439,7 @@
         <v>85</v>
       </c>
       <c r="AN44" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO44" t="n">
         <v>38</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="I2" t="n">
         <v>2.86</v>
@@ -691,25 +691,25 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -718,13 +718,13 @@
         <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>22</v>
@@ -733,7 +733,7 @@
         <v>50</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
@@ -742,16 +742,16 @@
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="n">
         <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AL2" t="n">
         <v>60</v>
@@ -769,10 +769,10 @@
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>3.65</v>
@@ -832,16 +832,16 @@
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
         <v>1.81</v>
@@ -850,10 +850,10 @@
         <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
         <v>14</v>
@@ -889,7 +889,7 @@
         <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
         <v>75</v>
@@ -901,7 +901,7 @@
         <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
         <v>46</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -970,7 +970,7 @@
         <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
         <v>1.4</v>
@@ -985,10 +985,10 @@
         <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1000,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>14.5</v>
@@ -1012,10 +1012,10 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
         <v>70</v>
@@ -1033,16 +1033,16 @@
         <v>42</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
         <v>38</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -1078,19 +1078,19 @@
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I5" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="J5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1108,7 +1108,7 @@
         <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
         <v>3.65</v>
@@ -1117,10 +1117,10 @@
         <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="W5" t="n">
         <v>1.25</v>
@@ -1138,7 +1138,7 @@
         <v>19.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
         <v>8.6</v>
@@ -1147,7 +1147,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
         <v>36</v>
@@ -1159,7 +1159,7 @@
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
         <v>130</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
         <v>1.79</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>4.2</v>
@@ -1231,22 +1231,22 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S6" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T6" t="n">
         <v>1.79</v>
@@ -1258,7 +1258,7 @@
         <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -1267,7 +1267,7 @@
         <v>19.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
         <v>120</v>
@@ -1276,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
         <v>18.5</v>
@@ -1294,19 +1294,19 @@
         <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
         <v>9.6</v>
@@ -1372,10 +1372,10 @@
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R7" t="n">
         <v>1.42</v>
@@ -1396,7 +1396,7 @@
         <v>1.35</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1429,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
         <v>70</v>
@@ -1438,13 +1438,13 @@
         <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
         <v>14</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
         <v>3.2</v>
@@ -1486,82 +1486,82 @@
         <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="U8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
         <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
         <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
         <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
         <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>28</v>
@@ -1570,19 +1570,19 @@
         <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="9">
@@ -1615,19 +1615,19 @@
         <v>1.21</v>
       </c>
       <c r="G9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="I9" t="n">
         <v>18.5</v>
       </c>
       <c r="J9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.21</v>
@@ -1657,19 +1657,19 @@
         <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
         <v>5.4</v>
       </c>
       <c r="X9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z9" t="n">
         <v>280</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD9" t="n">
         <v>65</v>
@@ -1693,25 +1693,25 @@
         <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AN9" t="n">
         <v>3.15</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.67</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.7</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.31</v>
@@ -1771,22 +1771,22 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
         <v>1.69</v>
@@ -1795,13 +1795,13 @@
         <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
@@ -1810,22 +1810,22 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB10" t="n">
         <v>25</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -1834,10 +1834,10 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="n">
         <v>65</v>
@@ -1849,10 +1849,10 @@
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.94</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.96</v>
-      </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -1909,7 +1909,7 @@
         <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
         <v>2.48</v>
@@ -1924,28 +1924,28 @@
         <v>2.58</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
@@ -1957,7 +1957,7 @@
         <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -1966,19 +1966,19 @@
         <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
         <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
         <v>65</v>
@@ -1987,7 +1987,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -2026,7 +2026,7 @@
         <v>2.46</v>
       </c>
       <c r="I12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2038,7 +2038,7 @@
         <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>3.6</v>
@@ -2065,7 +2065,7 @@
         <v>2.14</v>
       </c>
       <c r="V12" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
         <v>1.46</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
         <v>10.5</v>
       </c>
       <c r="H13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.42</v>
       </c>
       <c r="J13" t="n">
         <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2188,19 +2188,19 @@
         <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U13" t="n">
         <v>1.86</v>
       </c>
       <c r="V13" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="W13" t="n">
         <v>1.11</v>
@@ -2209,16 +2209,16 @@
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA13" t="n">
         <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
         <v>22</v>
@@ -2230,10 +2230,10 @@
         <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="n">
         <v>30</v>
@@ -2242,19 +2242,19 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="AK13" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AO13" t="n">
         <v>6.2</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="n">
         <v>3.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -2314,19 +2314,19 @@
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
         <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
         <v>1.74</v>
@@ -2335,13 +2335,13 @@
         <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
         <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
         <v>11</v>
@@ -2353,10 +2353,10 @@
         <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
         <v>10.5</v>
@@ -2365,7 +2365,7 @@
         <v>22</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG14" t="n">
         <v>15.5</v>
@@ -2377,7 +2377,7 @@
         <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
         <v>55</v>
@@ -2389,10 +2389,10 @@
         <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2449,10 +2449,10 @@
         <v>3.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q15" t="n">
         <v>2.24</v>
@@ -2470,34 +2470,34 @@
         <v>1.97</v>
       </c>
       <c r="V15" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z15" t="n">
         <v>14</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
         <v>29</v>
@@ -2506,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>50</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G16" t="n">
         <v>2.32</v>
@@ -2566,7 +2566,7 @@
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2599,25 +2599,25 @@
         <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
         <v>2.16</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
         <v>470</v>
@@ -2629,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
         <v>40</v>
@@ -2662,7 +2662,7 @@
         <v>17.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2701,7 +2701,7 @@
         <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
@@ -2746,7 +2746,7 @@
         <v>1.98</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
         <v>17</v>
@@ -2836,13 +2836,13 @@
         <v>2.36</v>
       </c>
       <c r="I18" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
         <v>1.4</v>
@@ -2881,7 +2881,7 @@
         <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
@@ -2932,7 +2932,7 @@
         <v>32</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="19">
@@ -2968,16 +2968,16 @@
         <v>1.49</v>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I19" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.34</v>
@@ -2995,7 +2995,7 @@
         <v>2.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
         <v>1.49</v>
@@ -3013,28 +3013,28 @@
         <v>1.13</v>
       </c>
       <c r="W19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
         <v>48</v>
       </c>
       <c r="Y19" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="Z19" t="n">
         <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="n">
         <v>120</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -3121,25 +3121,25 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="Q20" t="n">
         <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
         <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="n">
         <v>2.32</v>
@@ -3148,7 +3148,7 @@
         <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G21" t="n">
         <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.7</v>
@@ -3268,7 +3268,7 @@
         <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
         <v>3.7</v>
@@ -3280,7 +3280,7 @@
         <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W21" t="n">
         <v>1.98</v>
@@ -3334,7 +3334,7 @@
         <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>60</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H22" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="I22" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.34</v>
@@ -3391,13 +3391,13 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
         <v>1.83</v>
@@ -3415,10 +3415,10 @@
         <v>2.36</v>
       </c>
       <c r="V22" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X22" t="n">
         <v>16.5</v>
@@ -3427,31 +3427,31 @@
         <v>12</v>
       </c>
       <c r="Z22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB22" t="n">
         <v>15</v>
       </c>
-      <c r="AA22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG22" t="n">
         <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
         <v>32</v>
@@ -3469,10 +3469,10 @@
         <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H23" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="J23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L23" t="n">
         <v>1.3</v>
@@ -3532,16 +3532,16 @@
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R23" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T23" t="n">
         <v>1.89</v>
@@ -3550,34 +3550,34 @@
         <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="X23" t="n">
         <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="n">
         <v>75</v>
       </c>
       <c r="AA23" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
         <v>11.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
         <v>9.199999999999999</v>
@@ -3586,10 +3586,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="n">
         <v>12.5</v>
@@ -3604,7 +3604,7 @@
         <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO23" t="n">
         <v>120</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="G24" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="J24" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K24" t="n">
         <v>4.7</v>
@@ -3661,61 +3661,61 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R24" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z24" t="n">
         <v>11</v>
       </c>
-      <c r="Z24" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AA24" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB24" t="n">
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG24" t="n">
         <v>21</v>
@@ -3727,10 +3727,10 @@
         <v>27</v>
       </c>
       <c r="AJ24" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL24" t="n">
         <v>60</v>
@@ -3742,7 +3742,7 @@
         <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="25">
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G25" t="n">
         <v>1.24</v>
       </c>
       <c r="H25" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="I25" t="n">
         <v>18.5</v>
@@ -3787,46 +3787,46 @@
         <v>7.6</v>
       </c>
       <c r="K25" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="S25" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="T25" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="U25" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V25" t="n">
         <v>1.05</v>
       </c>
       <c r="W25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y25" t="n">
         <v>55</v>
@@ -3838,25 +3838,25 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE25" t="n">
         <v>350</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3868,13 +3868,13 @@
         <v>14.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3913,13 +3913,13 @@
         <v>2.36</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
         <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>3.55</v>
@@ -3934,10 +3934,10 @@
         <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q26" t="n">
         <v>2.06</v>
@@ -3976,7 +3976,7 @@
         <v>9.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
         <v>14</v>
@@ -4009,7 +4009,7 @@
         <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO26" t="n">
         <v>40</v>
@@ -4048,106 +4048,106 @@
         <v>4.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I27" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="J27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="S27" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="T27" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V27" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W27" t="n">
         <v>1.27</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA27" t="n">
         <v>19.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
         <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF27" t="n">
         <v>38</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ27" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="n">
         <v>48</v>
       </c>
       <c r="AL27" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN27" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="28">
@@ -4180,19 +4180,19 @@
         <v>1.24</v>
       </c>
       <c r="G28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H28" t="n">
         <v>16</v>
       </c>
       <c r="I28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J28" t="n">
         <v>7.2</v>
       </c>
       <c r="K28" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L28" t="n">
         <v>1.31</v>
@@ -4201,7 +4201,7 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.23</v>
@@ -4213,13 +4213,13 @@
         <v>1.68</v>
       </c>
       <c r="R28" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T28" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="U28" t="n">
         <v>1.63</v>
@@ -4228,13 +4228,13 @@
         <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y28" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z28" t="n">
         <v>200</v>
@@ -4243,10 +4243,10 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
         <v>65</v>
@@ -4258,7 +4258,7 @@
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
         <v>55</v>
@@ -4267,19 +4267,19 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4318,7 +4318,7 @@
         <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I29" t="n">
         <v>2.42</v>
@@ -4327,7 +4327,7 @@
         <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.4</v>
@@ -4336,37 +4336,37 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="T29" t="n">
         <v>1.77</v>
       </c>
       <c r="U29" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V29" t="n">
         <v>1.7</v>
       </c>
       <c r="W29" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4378,16 +4378,16 @@
         <v>32</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
         <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -4408,7 +4408,7 @@
         <v>38</v>
       </c>
       <c r="AL29" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
         <v>90</v>
@@ -4417,7 +4417,7 @@
         <v>34</v>
       </c>
       <c r="AO29" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="G30" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="I30" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="J30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -4471,7 +4471,7 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.19</v>
@@ -4480,40 +4480,40 @@
         <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R30" t="n">
         <v>1.6</v>
       </c>
       <c r="S30" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T30" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U30" t="n">
         <v>2.54</v>
       </c>
       <c r="V30" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -4522,13 +4522,13 @@
         <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG30" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>16</v>
@@ -4537,22 +4537,22 @@
         <v>32</v>
       </c>
       <c r="AJ30" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="n">
         <v>65</v>
       </c>
       <c r="AN30" t="n">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="AO30" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -4582,109 +4582,109 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G31" t="n">
         <v>1.52</v>
       </c>
       <c r="H31" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="I31" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="J31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.14</v>
-      </c>
       <c r="U31" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W31" t="n">
         <v>2.92</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD31" t="n">
         <v>85</v>
       </c>
-      <c r="AA31" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>34</v>
-      </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4720,52 +4720,52 @@
         <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" t="n">
         <v>1.17</v>
       </c>
       <c r="I32" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="J32" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V32" t="n">
         <v>6</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V32" t="n">
-        <v>6.2</v>
       </c>
       <c r="W32" t="n">
         <v>1.04</v>
@@ -4774,34 +4774,34 @@
         <v>36</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AA32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
         <v>350</v>
       </c>
       <c r="AC32" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF32" t="n">
         <v>300</v>
       </c>
       <c r="AG32" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -4810,19 +4810,19 @@
         <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AL32" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="33">
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G33" t="n">
         <v>2.46</v>
       </c>
       <c r="H33" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
         <v>3.8</v>
@@ -4885,25 +4885,25 @@
         <v>2.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U33" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W33" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X33" t="n">
         <v>21</v>
@@ -4918,7 +4918,7 @@
         <v>130</v>
       </c>
       <c r="AB33" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
         <v>8.6</v>
@@ -4987,61 +4987,61 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H34" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="I34" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="J34" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="K34" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="S34" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="T34" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V34" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="W34" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X34" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="n">
         <v>9.6</v>
@@ -5050,49 +5050,49 @@
         <v>8.6</v>
       </c>
       <c r="AA34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AC34" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AD34" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AG34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI34" t="n">
         <v>38</v>
       </c>
-      <c r="AH34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AK34" t="n">
         <v>170</v>
       </c>
       <c r="AL34" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM34" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN34" t="n">
         <v>230</v>
       </c>
       <c r="AO34" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="35">
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="G35" t="n">
         <v>3.15</v>
       </c>
       <c r="H35" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I35" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J35" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N35" t="n">
         <v>3.6</v>
       </c>
-      <c r="K35" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="R35" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="S35" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="T35" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="U35" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="V35" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W35" t="n">
         <v>1.46</v>
       </c>
       <c r="X35" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG35" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF35" t="n">
+      <c r="AH35" t="n">
         <v>25</v>
       </c>
-      <c r="AG35" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>20</v>
-      </c>
       <c r="AI35" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H36" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K36" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L36" t="n">
         <v>1.4</v>
@@ -5287,7 +5287,7 @@
         <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q36" t="n">
         <v>1.93</v>
@@ -5296,73 +5296,73 @@
         <v>1.38</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W36" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y36" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y36" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Z36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
         <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK36" t="n">
         <v>22</v>
       </c>
       <c r="AL36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AN36" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO36" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G37" t="n">
         <v>5.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I37" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J37" t="n">
         <v>4.2</v>
@@ -5425,13 +5425,13 @@
         <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R37" t="n">
         <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T37" t="n">
         <v>1.8</v>
@@ -5440,10 +5440,10 @@
         <v>2.12</v>
       </c>
       <c r="V37" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W37" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X37" t="n">
         <v>18</v>
@@ -5464,13 +5464,13 @@
         <v>9.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AG37" t="n">
         <v>21</v>
@@ -5479,10 +5479,10 @@
         <v>19</v>
       </c>
       <c r="AI37" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="n">
         <v>65</v>
@@ -5497,7 +5497,7 @@
         <v>70</v>
       </c>
       <c r="AO37" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5527,64 +5527,64 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G38" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H38" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="I38" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="J38" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K38" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P38" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="S38" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="U38" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="V38" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="W38" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X38" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
         <v>11.5</v>
@@ -5593,7 +5593,7 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
         <v>42</v>
@@ -5608,16 +5608,16 @@
         <v>170</v>
       </c>
       <c r="AG38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI38" t="n">
         <v>85</v>
       </c>
-      <c r="AH38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ38" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
         <v>290</v>
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="H39" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J39" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K39" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
@@ -5704,16 +5704,16 @@
         <v>1.71</v>
       </c>
       <c r="T39" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="U39" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V39" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W39" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5764,7 +5764,7 @@
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="G40" t="n">
         <v>1.22</v>
       </c>
       <c r="H40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J40" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="I40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.2</v>
-      </c>
       <c r="K40" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.15</v>
@@ -5821,7 +5821,7 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.1</v>
+        <v>2.24</v>
       </c>
       <c r="O40" t="n">
         <v>1.07</v>
@@ -5839,16 +5839,16 @@
         <v>1.54</v>
       </c>
       <c r="T40" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="U40" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
         <v>1.06</v>
       </c>
       <c r="W40" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5872,7 +5872,7 @@
         <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
         <v>1000</v>
@@ -5884,7 +5884,7 @@
         <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5944,7 +5944,7 @@
         <v>1.85</v>
       </c>
       <c r="J41" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K41" t="n">
         <v>7.2</v>
@@ -5956,7 +5956,7 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O41" t="n">
         <v>1.13</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="G42" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I42" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J42" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K42" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="L42" t="n">
         <v>1.12</v>
@@ -6100,31 +6100,31 @@
         <v>6</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="R42" t="n">
         <v>3.25</v>
       </c>
       <c r="S42" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="U42" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="V42" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="W42" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X42" t="n">
         <v>150</v>
       </c>
       <c r="Y42" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6142,7 +6142,7 @@
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6223,19 +6223,19 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>1.34</v>
       </c>
       <c r="O43" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="P43" t="n">
         <v>1.34</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="R43" t="n">
         <v>1.21</v>
@@ -6346,7 +6346,7 @@
         <v>3.55</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J44" t="n">
         <v>3.55</v>
@@ -6355,28 +6355,28 @@
         <v>3.85</v>
       </c>
       <c r="L44" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P44" t="n">
         <v>2.08</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R44" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
         <v>1.58</v>
@@ -6412,7 +6412,7 @@
         <v>17.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF44" t="n">
         <v>18</v>
@@ -6421,7 +6421,7 @@
         <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI44" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -670,16 +670,16 @@
         <v>2.76</v>
       </c>
       <c r="G2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.88</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.86</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
         <v>3.45</v>
@@ -691,19 +691,19 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
         <v>3.7</v>
@@ -712,7 +712,7 @@
         <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
         <v>1.53</v>
@@ -721,58 +721,58 @@
         <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>13</v>
       </c>
-      <c r="Z2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -853,7 +853,7 @@
         <v>1.81</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
         <v>14</v>
@@ -907,7 +907,7 @@
         <v>46</v>
       </c>
       <c r="AO3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>3.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -955,7 +955,7 @@
         <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -985,7 +985,7 @@
         <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
         <v>1.37</v>
@@ -1000,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
         <v>14.5</v>
@@ -1015,7 +1015,7 @@
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1081,7 +1081,7 @@
         <v>1.84</v>
       </c>
       <c r="I5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="n">
         <v>3.9</v>
@@ -1096,10 +1096,10 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
         <v>1.94</v>
@@ -1108,13 +1108,13 @@
         <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
         <v>2.04</v>
@@ -1135,7 +1135,7 @@
         <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>16</v>
@@ -1162,10 +1162,10 @@
         <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
         <v>75</v>
@@ -1222,7 +1222,7 @@
         <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -1231,7 +1231,7 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.26</v>
@@ -1240,25 +1240,25 @@
         <v>2.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
         <v>1.47</v>
       </c>
       <c r="S6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
         <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
         <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -1306,7 +1306,7 @@
         <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="n">
         <v>9.6</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G7" t="n">
         <v>3.85</v>
@@ -1354,10 +1354,10 @@
         <v>2.16</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
@@ -1375,7 +1375,7 @@
         <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
         <v>1.42</v>
@@ -1384,7 +1384,7 @@
         <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
         <v>2.26</v>
@@ -1426,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
         <v>70</v>
@@ -1438,13 +1438,13 @@
         <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
         <v>14</v>
@@ -1516,7 +1516,7 @@
         <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T8" t="n">
         <v>1.59</v>
@@ -1564,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
         <v>55</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K9" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.21</v>
@@ -1642,31 +1642,31 @@
         <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
         <v>2.04</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="X9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="n">
         <v>65</v>
@@ -1687,7 +1687,7 @@
         <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AF9" t="n">
         <v>9.4</v>
@@ -1696,13 +1696,13 @@
         <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -1714,7 +1714,7 @@
         <v>470</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G10" t="n">
         <v>5.7</v>
       </c>
       <c r="H10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.65</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.67</v>
-      </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
         <v>4.8</v>
@@ -1771,13 +1771,13 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q10" t="n">
         <v>1.61</v>
@@ -1786,16 +1786,16 @@
         <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
         <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
@@ -1849,7 +1849,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>7</v>
@@ -1927,7 +1927,7 @@
         <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V11" t="n">
         <v>1.3</v>
@@ -1939,7 +1939,7 @@
         <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -1957,7 +1957,7 @@
         <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -1984,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>34</v>
@@ -2023,7 +2023,7 @@
         <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
         <v>2.54</v>
@@ -2050,19 +2050,19 @@
         <v>1.89</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
         <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
         <v>1.64</v>
@@ -2071,7 +2071,7 @@
         <v>1.46</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
@@ -2155,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>1.38</v>
@@ -2167,7 +2167,7 @@
         <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2176,28 +2176,28 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
         <v>3.5</v>
@@ -2209,7 +2209,7 @@
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>8.800000000000001</v>
@@ -2218,46 +2218,46 @@
         <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>22</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="AK13" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="n">
         <v>150</v>
       </c>
       <c r="AM13" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
         <v>220</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="14">
@@ -2335,13 +2335,13 @@
         <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W14" t="n">
         <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
         <v>11</v>
@@ -2431,7 +2431,7 @@
         <v>2.32</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J15" t="n">
         <v>3.35</v>
@@ -2491,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
@@ -2578,7 +2578,7 @@
         <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
         <v>3.85</v>
@@ -2593,7 +2593,7 @@
         <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
         <v>3.4</v>
@@ -2611,13 +2611,13 @@
         <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
         <v>14.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
         <v>470</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G17" t="n">
         <v>2.02</v>
@@ -2701,7 +2701,7 @@
         <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
@@ -2740,7 +2740,7 @@
         <v>2.12</v>
       </c>
       <c r="V17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
         <v>1.98</v>
@@ -2797,7 +2797,7 @@
         <v>13.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I18" t="n">
         <v>2.52</v>
@@ -2848,7 +2848,7 @@
         <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
         <v>3.8</v>
@@ -2866,7 +2866,7 @@
         <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
         <v>1.72</v>
@@ -2905,7 +2905,7 @@
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
@@ -2929,7 +2929,7 @@
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO18" t="n">
         <v>18.5</v>
@@ -2965,7 +2965,7 @@
         <v>1.47</v>
       </c>
       <c r="G19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>7.8</v>
@@ -2977,7 +2977,7 @@
         <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.34</v>
@@ -3004,7 +3004,7 @@
         <v>2.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
         <v>1.97</v>
@@ -3019,13 +3019,13 @@
         <v>48</v>
       </c>
       <c r="Y19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
         <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="AB19" t="n">
         <v>9.4</v>
@@ -3097,46 +3097,46 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>2.72</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.44</v>
+        <v>1.34</v>
       </c>
       <c r="Q20" t="n">
         <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="T20" t="n">
         <v>1.5</v>
@@ -3145,10 +3145,10 @@
         <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W20" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3268,7 +3268,7 @@
         <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
         <v>3.7</v>
@@ -3286,7 +3286,7 @@
         <v>1.98</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
         <v>14.5</v>
@@ -3373,16 +3373,16 @@
         <v>3.35</v>
       </c>
       <c r="H22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I22" t="n">
         <v>2.38</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
         <v>1.34</v>
@@ -3391,40 +3391,40 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
         <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
         <v>1.43</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
         <v>15.5</v>
@@ -3442,7 +3442,7 @@
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
         <v>23</v>
@@ -3463,7 +3463,7 @@
         <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
         <v>75</v>
@@ -3508,7 +3508,7 @@
         <v>1.47</v>
       </c>
       <c r="H23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I23" t="n">
         <v>8.4</v>
@@ -3520,31 +3520,31 @@
         <v>5.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U23" t="n">
         <v>2.06</v>
@@ -3568,7 +3568,7 @@
         <v>290</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
         <v>11.5</v>
@@ -3601,10 +3601,10 @@
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
         <v>120</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G24" t="n">
         <v>5.6</v>
@@ -3652,7 +3652,7 @@
         <v>4.6</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.32</v>
@@ -3670,13 +3670,13 @@
         <v>2.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
         <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
@@ -3736,13 +3736,13 @@
         <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
         <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="25">
@@ -3781,7 +3781,7 @@
         <v>16.5</v>
       </c>
       <c r="I25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="J25" t="n">
         <v>7.6</v>
@@ -3799,10 +3799,10 @@
         <v>5.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q25" t="n">
         <v>1.6</v>
@@ -3811,16 +3811,16 @@
         <v>1.63</v>
       </c>
       <c r="S25" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
         <v>2.32</v>
       </c>
       <c r="U25" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W25" t="n">
         <v>5.2</v>
@@ -3934,19 +3934,19 @@
         <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P26" t="n">
         <v>1.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R26" t="n">
         <v>1.34</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T26" t="n">
         <v>1.83</v>
@@ -3964,16 +3964,16 @@
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
         <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
         <v>7.6</v>
@@ -3982,7 +3982,7 @@
         <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="n">
         <v>14.5</v>
@@ -3997,7 +3997,7 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
         <v>25</v>
@@ -4048,10 +4048,10 @@
         <v>4.6</v>
       </c>
       <c r="H27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I27" t="n">
         <v>1.81</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.83</v>
       </c>
       <c r="J27" t="n">
         <v>4.3</v>
@@ -4066,31 +4066,31 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S27" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="T27" t="n">
         <v>1.66</v>
       </c>
       <c r="U27" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W27" t="n">
         <v>1.27</v>
@@ -4105,19 +4105,19 @@
         <v>12.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="n">
         <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
         <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF27" t="n">
         <v>38</v>
@@ -4129,7 +4129,7 @@
         <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>95</v>
@@ -4138,7 +4138,7 @@
         <v>48</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
         <v>75</v>
@@ -4147,7 +4147,7 @@
         <v>40</v>
       </c>
       <c r="AO27" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -4180,7 +4180,7 @@
         <v>1.24</v>
       </c>
       <c r="G28" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H28" t="n">
         <v>16</v>
@@ -4189,7 +4189,7 @@
         <v>17</v>
       </c>
       <c r="J28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K28" t="n">
         <v>7.8</v>
@@ -4213,13 +4213,13 @@
         <v>1.68</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S28" t="n">
         <v>2.74</v>
       </c>
       <c r="T28" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U28" t="n">
         <v>1.63</v>
@@ -4228,13 +4228,13 @@
         <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="X28" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="n">
         <v>200</v>
@@ -4252,7 +4252,7 @@
         <v>65</v>
       </c>
       <c r="AE28" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
@@ -4261,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
@@ -4273,7 +4273,7 @@
         <v>16</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AM28" t="n">
         <v>380</v>
@@ -4315,7 +4315,7 @@
         <v>3.3</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H29" t="n">
         <v>2.4</v>
@@ -4336,13 +4336,13 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O29" t="n">
         <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -4408,7 +4408,7 @@
         <v>38</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM29" t="n">
         <v>90</v>
@@ -4471,7 +4471,7 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.19</v>
@@ -4480,7 +4480,7 @@
         <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R30" t="n">
         <v>1.6</v>
@@ -4492,7 +4492,7 @@
         <v>1.58</v>
       </c>
       <c r="U30" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="V30" t="n">
         <v>2</v>
@@ -4507,7 +4507,7 @@
         <v>14</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AA30" t="n">
         <v>25</v>
@@ -4525,7 +4525,7 @@
         <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
@@ -4549,7 +4549,7 @@
         <v>65</v>
       </c>
       <c r="AN30" t="n">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
         <v>9.800000000000001</v>
@@ -4585,19 +4585,19 @@
         <v>1.47</v>
       </c>
       <c r="G31" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I31" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J31" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.35</v>
@@ -4606,37 +4606,37 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
         <v>2.16</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S31" t="n">
         <v>2.84</v>
       </c>
       <c r="T31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U31" t="n">
         <v>1.94</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.91</v>
       </c>
       <c r="V31" t="n">
         <v>1.13</v>
       </c>
       <c r="W31" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="X31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
         <v>26</v>
@@ -4645,22 +4645,22 @@
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AB31" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>11.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
@@ -4669,19 +4669,19 @@
         <v>25</v>
       </c>
       <c r="AI31" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
         <v>16.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
         <v>7</v>
@@ -4759,10 +4759,10 @@
         <v>2.2</v>
       </c>
       <c r="T32" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="U32" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V32" t="n">
         <v>6</v>
@@ -4855,13 +4855,13 @@
         <v>2.38</v>
       </c>
       <c r="G33" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
@@ -4888,7 +4888,7 @@
         <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
@@ -4903,7 +4903,7 @@
         <v>1.46</v>
       </c>
       <c r="W33" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X33" t="n">
         <v>21</v>
@@ -4999,7 +4999,7 @@
         <v>1.43</v>
       </c>
       <c r="J34" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
         <v>5.5</v>
@@ -5062,7 +5062,7 @@
         <v>19</v>
       </c>
       <c r="AE34" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AF34" t="n">
         <v>85</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G35" t="n">
         <v>3.15</v>
       </c>
       <c r="H35" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I35" t="n">
         <v>2.6</v>
@@ -5146,28 +5146,28 @@
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O35" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P35" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="Q35" t="n">
         <v>2.02</v>
       </c>
       <c r="R35" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S35" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U35" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V35" t="n">
         <v>1.63</v>
@@ -5176,19 +5176,19 @@
         <v>1.46</v>
       </c>
       <c r="X35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z35" t="n">
         <v>38</v>
       </c>
       <c r="AA35" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>65</v>
+        <v>12.5</v>
       </c>
       <c r="AC35" t="n">
         <v>8</v>
@@ -5209,7 +5209,7 @@
         <v>25</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ35" t="n">
         <v>55</v>
@@ -5224,10 +5224,10 @@
         <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO35" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
@@ -5272,7 +5272,7 @@
         <v>3.8</v>
       </c>
       <c r="K36" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L36" t="n">
         <v>1.4</v>
@@ -5302,7 +5302,7 @@
         <v>1.79</v>
       </c>
       <c r="U36" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V36" t="n">
         <v>1.32</v>
@@ -5359,10 +5359,10 @@
         <v>330</v>
       </c>
       <c r="AN36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO36" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
@@ -5398,7 +5398,7 @@
         <v>5.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="I37" t="n">
         <v>1.73</v>
@@ -5410,7 +5410,7 @@
         <v>4.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -5419,7 +5419,7 @@
         <v>4.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P37" t="n">
         <v>2.18</v>
@@ -5431,7 +5431,7 @@
         <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T37" t="n">
         <v>1.8</v>
@@ -5461,7 +5461,7 @@
         <v>22</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD37" t="n">
         <v>11.5</v>
@@ -5497,7 +5497,7 @@
         <v>70</v>
       </c>
       <c r="AO37" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -5527,67 +5527,67 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G38" t="n">
         <v>7.6</v>
       </c>
       <c r="H38" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I38" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P38" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R38" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="S38" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="T38" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U38" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="V38" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="W38" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z38" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
@@ -5599,7 +5599,7 @@
         <v>42</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
@@ -5614,10 +5614,10 @@
         <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK38" t="n">
         <v>290</v>
@@ -5632,7 +5632,7 @@
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G39" t="n">
         <v>2.34</v>
       </c>
       <c r="H39" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I39" t="n">
         <v>3.35</v>
@@ -5692,25 +5692,25 @@
         <v>1.1</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="R39" t="n">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="S39" t="n">
-        <v>1.71</v>
+        <v>1.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="U39" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="V39" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W39" t="n">
         <v>1.74</v>
@@ -5752,7 +5752,7 @@
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK39" t="n">
         <v>1000</v>
@@ -5800,19 +5800,19 @@
         <v>1.17</v>
       </c>
       <c r="G40" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="H40" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="J40" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.15</v>
@@ -5848,7 +5848,7 @@
         <v>1.06</v>
       </c>
       <c r="W40" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.85</v>
+        <v>1.04</v>
       </c>
       <c r="G41" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="H41" t="n">
-        <v>1.63</v>
+        <v>1.3</v>
       </c>
       <c r="I41" t="n">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="J41" t="n">
-        <v>4.3</v>
+        <v>1.03</v>
       </c>
       <c r="K41" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,7 +5956,7 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>3.45</v>
+        <v>2.24</v>
       </c>
       <c r="O41" t="n">
         <v>1.13</v>
@@ -5965,25 +5965,25 @@
         <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="R41" t="n">
         <v>1.9</v>
       </c>
       <c r="S41" t="n">
-        <v>1.93</v>
+        <v>1.21</v>
       </c>
       <c r="T41" t="n">
-        <v>1.47</v>
+        <v>1.04</v>
       </c>
       <c r="U41" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="V41" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="W41" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="G42" t="n">
         <v>1.22</v>
@@ -6076,7 +6076,7 @@
         <v>10.5</v>
       </c>
       <c r="I42" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="J42" t="n">
         <v>8.4</v>
@@ -6109,22 +6109,22 @@
         <v>1.4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U42" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W42" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="X42" t="n">
         <v>150</v>
       </c>
       <c r="Y42" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="G43" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="H43" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="I43" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K43" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>1.34</v>
+        <v>3.65</v>
       </c>
       <c r="O43" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P43" t="n">
-        <v>1.34</v>
+        <v>1.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.23</v>
+        <v>1.79</v>
       </c>
       <c r="R43" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="S43" t="n">
-        <v>1.28</v>
+        <v>2.78</v>
       </c>
       <c r="T43" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U43" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V43" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="W43" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6271,7 +6271,7 @@
         <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
         <v>1000</v>
@@ -6340,7 +6340,7 @@
         <v>2.12</v>
       </c>
       <c r="G44" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H44" t="n">
         <v>3.55</v>
@@ -6355,7 +6355,7 @@
         <v>3.85</v>
       </c>
       <c r="L44" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
@@ -6367,7 +6367,7 @@
         <v>1.27</v>
       </c>
       <c r="P44" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q44" t="n">
         <v>1.81</v>
@@ -6379,16 +6379,16 @@
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="U44" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V44" t="n">
         <v>1.35</v>
       </c>
       <c r="W44" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X44" t="n">
         <v>18</v>
@@ -6403,13 +6403,13 @@
         <v>70</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC44" t="n">
         <v>9</v>
       </c>
       <c r="AD44" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE44" t="n">
         <v>44</v>
@@ -6430,16 +6430,16 @@
         <v>28</v>
       </c>
       <c r="AK44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL44" t="n">
         <v>36</v>
       </c>
       <c r="AM44" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO44" t="n">
         <v>38</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="G2" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
@@ -685,67 +685,67 @@
         <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -754,25 +754,25 @@
         <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.7</v>
       </c>
-      <c r="G3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
         <v>1.95</v>
@@ -841,7 +841,7 @@
         <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
         <v>1.81</v>
@@ -850,13 +850,13 @@
         <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.6</v>
@@ -865,25 +865,25 @@
         <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
@@ -901,13 +901,13 @@
         <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
         <v>46</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
         <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
         <v>1.76</v>
@@ -985,10 +985,10 @@
         <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1018,7 +1018,7 @@
         <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>17</v>
@@ -1027,10 +1027,10 @@
         <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
         <v>48</v>
@@ -1042,7 +1042,7 @@
         <v>38</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1075,16 +1075,16 @@
         <v>4.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -1096,13 +1096,13 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q5" t="n">
         <v>2.04</v>
@@ -1111,19 +1111,19 @@
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
         <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1141,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>9.800000000000001</v>
@@ -1165,7 +1165,7 @@
         <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
         <v>75</v>
@@ -1174,7 +1174,7 @@
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO5" t="n">
         <v>12.5</v>
@@ -1213,16 +1213,16 @@
         <v>1.79</v>
       </c>
       <c r="H6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I6" t="n">
         <v>4.9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -1231,13 +1231,13 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q6" t="n">
         <v>1.78</v>
@@ -1249,10 +1249,10 @@
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
         <v>1.25</v>
@@ -1261,16 +1261,16 @@
         <v>2.26</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
         <v>19.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
         <v>10</v>
@@ -1309,10 +1309,10 @@
         <v>85</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G7" t="n">
         <v>3.85</v>
@@ -1354,7 +1354,7 @@
         <v>2.16</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
         <v>3.75</v>
@@ -1372,16 +1372,16 @@
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
         <v>1.74</v>
@@ -1399,7 +1399,7 @@
         <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
         <v>13.5</v>
@@ -1477,43 +1477,43 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I8" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="J8" t="n">
         <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
         <v>2.68</v>
@@ -1522,49 +1522,49 @@
         <v>1.59</v>
       </c>
       <c r="U8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
         <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ8" t="n">
         <v>55</v>
@@ -1573,16 +1573,16 @@
         <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1615,46 +1615,46 @@
         <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H9" t="n">
         <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S9" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
         <v>1.93</v>
@@ -1663,7 +1663,7 @@
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X9" t="n">
         <v>42</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD9" t="n">
         <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AF9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>9.4</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
         <v>470</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G10" t="n">
         <v>5.6</v>
       </c>
-      <c r="G10" t="n">
-        <v>5.7</v>
-      </c>
       <c r="H10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="J10" t="n">
         <v>4.6</v>
@@ -1783,19 +1783,19 @@
         <v>1.61</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
         <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
@@ -1849,7 +1849,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO10" t="n">
         <v>7</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G11" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>4.2</v>
@@ -1894,7 +1894,7 @@
         <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
         <v>4.2</v>
@@ -1906,34 +1906,34 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -1942,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
         <v>85</v>
@@ -1951,16 +1951,16 @@
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
         <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
         <v>10.5</v>
@@ -1972,7 +1972,7 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>17.5</v>
@@ -1984,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AO11" t="n">
         <v>34</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
         <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
         <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
         <v>16.5</v>
@@ -2089,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
         <v>29</v>
@@ -2104,25 +2104,25 @@
         <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AL12" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>1.38</v>
@@ -2164,40 +2164,40 @@
         <v>1.4</v>
       </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
         <v>5.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
         <v>3.5</v>
@@ -2206,10 +2206,10 @@
         <v>1.11</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z13" t="n">
         <v>8.800000000000001</v>
@@ -2221,10 +2221,10 @@
         <v>36</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
         <v>14.5</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="n">
         <v>28</v>
@@ -2242,7 +2242,7 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AK13" t="n">
         <v>150</v>
@@ -2257,7 +2257,7 @@
         <v>220</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2305,10 +2305,10 @@
         <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>4</v>
@@ -2317,16 +2317,16 @@
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
         <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
         <v>1.74</v>
@@ -2335,16 +2335,16 @@
         <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W14" t="n">
         <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
         <v>13.5</v>
@@ -2356,7 +2356,7 @@
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>10.5</v>
@@ -2374,13 +2374,13 @@
         <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
@@ -2389,7 +2389,7 @@
         <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO14" t="n">
         <v>15</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G15" t="n">
         <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
@@ -2446,13 +2446,13 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" t="n">
         <v>2.24</v>
@@ -2461,16 +2461,16 @@
         <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U15" t="n">
         <v>1.97</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="W15" t="n">
         <v>1.37</v>
@@ -2479,16 +2479,16 @@
         <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA15" t="n">
         <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
         <v>7.4</v>
@@ -2497,7 +2497,7 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>29</v>
@@ -2512,7 +2512,7 @@
         <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70</v>
+        <v>530</v>
       </c>
       <c r="AK15" t="n">
         <v>50</v>
@@ -2524,7 +2524,7 @@
         <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
         <v>32</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
@@ -2575,22 +2575,22 @@
         <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R16" t="n">
         <v>1.39</v>
@@ -2608,13 +2608,13 @@
         <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X16" t="n">
         <v>14.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
         <v>24</v>
@@ -2659,10 +2659,10 @@
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2692,70 +2692,70 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
         <v>3.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
         <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
         <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB17" t="n">
         <v>10</v>
@@ -2764,40 +2764,40 @@
         <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>42</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>140</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2830,55 +2830,55 @@
         <v>3.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="I18" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X18" t="n">
         <v>14</v>
@@ -2887,13 +2887,13 @@
         <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA18" t="n">
         <v>36</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
         <v>8.199999999999999</v>
@@ -2902,7 +2902,7 @@
         <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF18" t="n">
         <v>22</v>
@@ -2914,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
         <v>55</v>
@@ -2929,7 +2929,7 @@
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO18" t="n">
         <v>18.5</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G19" t="n">
         <v>1.5</v>
@@ -2971,85 +2971,85 @@
         <v>7.8</v>
       </c>
       <c r="I19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
         <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q19" t="n">
         <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U19" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W19" t="n">
         <v>3</v>
       </c>
       <c r="X19" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>250</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
         <v>13.5</v>
@@ -3100,55 +3100,55 @@
         <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="H20" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>2.72</v>
+        <v>5.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>1.34</v>
+        <v>2.56</v>
       </c>
       <c r="Q20" t="n">
         <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.34</v>
+        <v>1.64</v>
       </c>
       <c r="S20" t="n">
-        <v>1.49</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>2.02</v>
@@ -3241,7 +3241,7 @@
         <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
         <v>3.7</v>
@@ -3250,13 +3250,13 @@
         <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.35</v>
@@ -3280,7 +3280,7 @@
         <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
         <v>1.98</v>
@@ -3295,7 +3295,7 @@
         <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB21" t="n">
         <v>8.800000000000001</v>
@@ -3334,7 +3334,7 @@
         <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO21" t="n">
         <v>60</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
         <v>3.35</v>
@@ -3376,55 +3376,55 @@
         <v>2.34</v>
       </c>
       <c r="I22" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.7</v>
       </c>
-      <c r="K22" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="V22" t="n">
         <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
         <v>15.5</v>
@@ -3433,16 +3433,16 @@
         <v>32</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF22" t="n">
         <v>23</v>
@@ -3451,10 +3451,10 @@
         <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
         <v>60</v>
@@ -3463,16 +3463,16 @@
         <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM22" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,73 +3502,73 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G23" t="n">
         <v>1.47</v>
       </c>
       <c r="H23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I23" t="n">
         <v>8</v>
       </c>
-      <c r="I23" t="n">
-        <v>8.4</v>
-      </c>
       <c r="J23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="R23" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="S23" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W23" t="n">
         <v>3.1</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA23" t="n">
         <v>290</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
         <v>11.5</v>
@@ -3577,37 +3577,37 @@
         <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG23" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I24" t="n">
         <v>1.66</v>
@@ -3655,7 +3655,7 @@
         <v>4.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3670,13 +3670,13 @@
         <v>2.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R24" t="n">
         <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
@@ -3688,7 +3688,7 @@
         <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X24" t="n">
         <v>23</v>
@@ -3715,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG24" t="n">
         <v>21</v>
@@ -3736,7 +3736,7 @@
         <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
         <v>55</v>
@@ -3778,10 +3778,10 @@
         <v>1.24</v>
       </c>
       <c r="H25" t="n">
+        <v>15</v>
+      </c>
+      <c r="I25" t="n">
         <v>16.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>19</v>
       </c>
       <c r="J25" t="n">
         <v>7.6</v>
@@ -3796,37 +3796,37 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R25" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="S25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="U25" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
         <v>1.06</v>
       </c>
       <c r="W25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X25" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
         <v>55</v>
@@ -3838,43 +3838,43 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
         <v>17</v>
       </c>
       <c r="AD25" t="n">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="AE25" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G26" t="n">
         <v>2.36</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
         <v>3.5</v>
@@ -3931,28 +3931,28 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.35</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V26" t="n">
         <v>1.4</v>
@@ -3964,7 +3964,7 @@
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
         <v>23</v>
@@ -3976,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
         <v>14</v>
@@ -3994,19 +3994,19 @@
         <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
         <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL26" t="n">
         <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
         <v>19.5</v>
@@ -4042,61 +4042,61 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.6</v>
       </c>
-      <c r="H27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="Q27" t="n">
         <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T27" t="n">
         <v>1.66</v>
       </c>
       <c r="U27" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V27" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="W27" t="n">
         <v>1.27</v>
       </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
         <v>12</v>
@@ -4105,25 +4105,25 @@
         <v>12.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
         <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH27" t="n">
         <v>17</v>
@@ -4132,7 +4132,7 @@
         <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="n">
         <v>48</v>
@@ -4141,13 +4141,13 @@
         <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
         <v>40</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="28">
@@ -4180,13 +4180,13 @@
         <v>1.24</v>
       </c>
       <c r="G28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H28" t="n">
+        <v>15</v>
+      </c>
+      <c r="I28" t="n">
         <v>16</v>
-      </c>
-      <c r="I28" t="n">
-        <v>17</v>
       </c>
       <c r="J28" t="n">
         <v>7.4</v>
@@ -4195,31 +4195,31 @@
         <v>7.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
         <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R28" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T28" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U28" t="n">
         <v>1.63</v>
@@ -4228,13 +4228,13 @@
         <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X28" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z28" t="n">
         <v>200</v>
@@ -4252,7 +4252,7 @@
         <v>65</v>
       </c>
       <c r="AE28" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
@@ -4261,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
@@ -4270,10 +4270,10 @@
         <v>8.6</v>
       </c>
       <c r="AK28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
         <v>380</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G29" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="I29" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
@@ -4330,7 +4330,7 @@
         <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4342,7 +4342,7 @@
         <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -4351,19 +4351,19 @@
         <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U29" t="n">
         <v>2.2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W29" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
@@ -4372,10 +4372,10 @@
         <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB29" t="n">
         <v>12.5</v>
@@ -4393,7 +4393,7 @@
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>16.5</v>
@@ -4414,10 +4414,10 @@
         <v>90</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="30">
@@ -4447,97 +4447,97 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="I30" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="R30" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="S30" t="n">
-        <v>2.46</v>
+        <v>2.86</v>
       </c>
       <c r="T30" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="U30" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="W30" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
         <v>18.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB30" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>16</v>
       </c>
       <c r="AI30" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK30" t="n">
         <v>40</v>
@@ -4546,13 +4546,13 @@
         <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO30" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -4582,109 +4582,109 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G31" t="n">
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="S31" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="T31" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
         <v>1.13</v>
       </c>
       <c r="W31" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="AJ31" t="n">
         <v>14</v>
       </c>
       <c r="AK31" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AN31" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4720,49 +4720,49 @@
         <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="I32" t="n">
         <v>1.2</v>
       </c>
       <c r="J32" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="R32" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="S32" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="T32" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="U32" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="V32" t="n">
         <v>6</v>
@@ -4771,16 +4771,16 @@
         <v>1.04</v>
       </c>
       <c r="X32" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AA32" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB32" t="n">
         <v>350</v>
@@ -4789,13 +4789,13 @@
         <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE32" t="n">
         <v>14</v>
       </c>
       <c r="AF32" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
@@ -4804,16 +4804,16 @@
         <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="AL32" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AM32" t="n">
         <v>290</v>
@@ -4822,7 +4822,7 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="33">
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
@@ -4870,13 +4870,13 @@
         <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.27</v>
@@ -4885,37 +4885,37 @@
         <v>2.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R33" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V33" t="n">
         <v>1.46</v>
       </c>
       <c r="W33" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA33" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
         <v>12.5</v>
@@ -4927,7 +4927,7 @@
         <v>14.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AF33" t="n">
         <v>17.5</v>
@@ -4939,22 +4939,22 @@
         <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AJ33" t="n">
         <v>85</v>
       </c>
       <c r="AK33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL33" t="n">
         <v>85</v>
       </c>
       <c r="AM33" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4990,28 +4990,28 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="I34" t="n">
         <v>1.43</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K34" t="n">
         <v>5.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.26</v>
@@ -5020,13 +5020,13 @@
         <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R34" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S34" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
         <v>2.02</v>
@@ -5041,55 +5041,55 @@
         <v>1.11</v>
       </c>
       <c r="X34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="n">
         <v>9.6</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA34" t="n">
         <v>20</v>
       </c>
       <c r="AB34" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AC34" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
         <v>85</v>
       </c>
       <c r="AG34" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AH34" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AI34" t="n">
         <v>38</v>
       </c>
       <c r="AJ34" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="AK34" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AL34" t="n">
         <v>140</v>
       </c>
       <c r="AM34" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN34" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AO34" t="n">
         <v>6.6</v>
@@ -5125,61 +5125,61 @@
         <v>2.96</v>
       </c>
       <c r="G35" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I35" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="R35" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="S35" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="T35" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="U35" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="V35" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W35" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y35" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
         <v>38</v>
@@ -5188,10 +5188,10 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
         <v>12.5</v>
@@ -5203,7 +5203,7 @@
         <v>46</v>
       </c>
       <c r="AG35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>25</v>
@@ -5212,19 +5212,19 @@
         <v>150</v>
       </c>
       <c r="AJ35" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AK35" t="n">
         <v>95</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM35" t="n">
         <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>42</v>
@@ -5257,46 +5257,46 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
         <v>3.8</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L36" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
         <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q36" t="n">
         <v>1.93</v>
       </c>
       <c r="R36" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T36" t="n">
         <v>1.79</v>
@@ -5308,16 +5308,16 @@
         <v>1.32</v>
       </c>
       <c r="W36" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X36" t="n">
         <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z36" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA36" t="n">
         <v>85</v>
@@ -5359,7 +5359,7 @@
         <v>330</v>
       </c>
       <c r="AN36" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AO36" t="n">
         <v>48</v>
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="G37" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="H37" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="I37" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="J37" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
         <v>4.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P37" t="n">
         <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R37" t="n">
         <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U37" t="n">
         <v>2.12</v>
       </c>
       <c r="V37" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="W37" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X37" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD37" t="n">
         <v>11</v>
       </c>
-      <c r="Z37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF37" t="n">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="AG37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI37" t="n">
         <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK37" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM37" t="n">
         <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AO37" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="38">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G38" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H38" t="n">
         <v>1.54</v>
@@ -5539,7 +5539,7 @@
         <v>1.56</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K38" t="n">
         <v>5</v>
@@ -5551,28 +5551,28 @@
         <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.26</v>
       </c>
       <c r="P38" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R38" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S38" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U38" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V38" t="n">
         <v>2.78</v>
@@ -5584,10 +5584,10 @@
         <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z38" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
@@ -5596,10 +5596,10 @@
         <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AD38" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
@@ -5617,7 +5617,7 @@
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AK38" t="n">
         <v>290</v>
@@ -5662,46 +5662,46 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H39" t="n">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="I39" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J39" t="n">
         <v>3.85</v>
       </c>
       <c r="K39" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
         <v>1.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P39" t="n">
-        <v>1.25</v>
+        <v>2.92</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.1</v>
+        <v>1.39</v>
       </c>
       <c r="R39" t="n">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
       <c r="S39" t="n">
-        <v>1.1</v>
+        <v>2.12</v>
       </c>
       <c r="T39" t="n">
         <v>1.34</v>
@@ -5710,10 +5710,10 @@
         <v>3.05</v>
       </c>
       <c r="V39" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W39" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="G40" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H40" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="J40" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K40" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.15</v>
@@ -5830,25 +5830,25 @@
         <v>5.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="R40" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="S40" t="n">
         <v>1.54</v>
       </c>
       <c r="T40" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U40" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V40" t="n">
         <v>1.06</v>
       </c>
       <c r="W40" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5884,7 +5884,7 @@
         <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
@@ -5932,31 +5932,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="G41" t="n">
         <v>1000</v>
       </c>
       <c r="H41" t="n">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="I41" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="J41" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K41" t="n">
         <v>1000</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>2.24</v>
+        <v>3.3</v>
       </c>
       <c r="O41" t="n">
         <v>1.13</v>
@@ -5965,13 +5965,13 @@
         <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="R41" t="n">
         <v>1.9</v>
       </c>
       <c r="S41" t="n">
-        <v>1.21</v>
+        <v>1.96</v>
       </c>
       <c r="T41" t="n">
         <v>1.04</v>
@@ -5980,10 +5980,10 @@
         <v>1.04</v>
       </c>
       <c r="V41" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="W41" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6067,25 +6067,25 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="G42" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H42" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="J42" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="K42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L42" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
@@ -6100,34 +6100,34 @@
         <v>6</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="R42" t="n">
         <v>3.25</v>
       </c>
       <c r="S42" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="T42" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="U42" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="V42" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="W42" t="n">
         <v>5.3</v>
       </c>
       <c r="X42" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Y42" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6142,7 +6142,7 @@
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G43" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
         <v>2.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>4.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O43" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P43" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R43" t="n">
         <v>1.37</v>
       </c>
       <c r="S43" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U43" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V43" t="n">
         <v>1.6</v>
       </c>
       <c r="W43" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,112 +6337,112 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="G44" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H44" t="n">
         <v>3.55</v>
       </c>
       <c r="I44" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J44" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K44" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L44" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
         <v>4.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P44" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="R44" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T44" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U44" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W44" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z44" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA44" t="n">
         <v>70</v>
       </c>
       <c r="AB44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC44" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD44" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG44" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH44" t="n">
         <v>17</v>
       </c>
       <c r="AI44" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ44" t="n">
         <v>28</v>
       </c>
       <c r="AK44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL44" t="n">
         <v>36</v>
       </c>
       <c r="AM44" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN44" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="I2" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -709,31 +709,31 @@
         <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
@@ -742,37 +742,37 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL2" t="n">
         <v>130</v>
       </c>
-      <c r="AK2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>50</v>
-      </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -802,76 +802,76 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.12</v>
       </c>
-      <c r="I3" t="n">
-        <v>2.14</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -892,22 +892,22 @@
         <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
         <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G4" t="n">
         <v>3.55</v>
@@ -952,10 +952,10 @@
         <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -967,22 +967,22 @@
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
         <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
         <v>1.81</v>
@@ -991,10 +991,10 @@
         <v>1.39</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>14</v>
@@ -1012,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>25</v>
@@ -1030,19 +1030,19 @@
         <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
         <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.42</v>
@@ -1102,28 +1102,28 @@
         <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.04</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1135,13 +1135,13 @@
         <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
         <v>9.800000000000001</v>
@@ -1150,7 +1150,7 @@
         <v>18.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
         <v>19.5</v>
@@ -1162,7 +1162,7 @@
         <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
         <v>70</v>
@@ -1174,10 +1174,10 @@
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H6" t="n">
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
@@ -1234,34 +1234,34 @@
         <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R6" t="n">
         <v>1.47</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
         <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
         <v>19.5</v>
@@ -1273,10 +1273,10 @@
         <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>18.5</v>
@@ -1288,19 +1288,19 @@
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1312,7 +1312,7 @@
         <v>9.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G7" t="n">
         <v>3.85</v>
       </c>
       <c r="H7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.14</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.16</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
@@ -1372,16 +1372,16 @@
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.74</v>
@@ -1390,13 +1390,13 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W7" t="n">
         <v>1.35</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>10.5</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
         <v>3.3</v>
@@ -1486,52 +1486,52 @@
         <v>2.26</v>
       </c>
       <c r="I8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
         <v>5.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>2.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W8" t="n">
         <v>1.43</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
@@ -1579,10 +1579,10 @@
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9">
@@ -1615,22 +1615,22 @@
         <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
         <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1639,25 +1639,25 @@
         <v>7.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q9" t="n">
         <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
@@ -1666,13 +1666,13 @@
         <v>5.3</v>
       </c>
       <c r="X9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="n">
         <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,13 +1681,13 @@
         <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AF9" t="n">
         <v>9.199999999999999</v>
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
         <v>170</v>
@@ -1705,19 +1705,19 @@
         <v>9.4</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G10" t="n">
         <v>5.6</v>
@@ -1762,7 +1762,7 @@
         <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.31</v>
@@ -1777,19 +1777,19 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q10" t="n">
         <v>1.61</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
         <v>2.34</v>
@@ -1825,7 +1825,7 @@
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -1837,22 +1837,22 @@
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
         <v>50</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="11">
@@ -1882,31 +1882,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J11" t="n">
         <v>4.3</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
@@ -1915,28 +1915,28 @@
         <v>2.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S11" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
         <v>22</v>
@@ -1963,10 +1963,10 @@
         <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>42</v>
@@ -1975,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
         <v>26</v>
@@ -1984,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO11" t="n">
         <v>34</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
         <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I12" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
@@ -2044,46 +2044,46 @@
         <v>3.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
         <v>1.97</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W12" t="n">
         <v>1.47</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
@@ -2092,7 +2092,7 @@
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2104,16 +2104,16 @@
         <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
         <v>200</v>
@@ -2152,88 +2152,88 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J13" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K13" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T13" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="W13" t="n">
         <v>1.11</v>
       </c>
       <c r="X13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA13" t="n">
         <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
         <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG13" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AH13" t="n">
         <v>28</v>
@@ -2242,7 +2242,7 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="AK13" t="n">
         <v>150</v>
@@ -2257,7 +2257,7 @@
         <v>220</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G14" t="n">
         <v>3.9</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>2.08</v>
@@ -2314,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>2.02</v>
@@ -2323,13 +2323,13 @@
         <v>1.91</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
@@ -2338,7 +2338,7 @@
         <v>1.89</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X14" t="n">
         <v>14.5</v>
@@ -2353,7 +2353,7 @@
         <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.199999999999999</v>
@@ -2368,7 +2368,7 @@
         <v>28</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
@@ -2377,7 +2377,7 @@
         <v>36</v>
       </c>
       <c r="AJ14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="n">
         <v>46</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.65</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.7</v>
-      </c>
       <c r="H15" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -2449,28 +2449,28 @@
         <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
         <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U15" t="n">
         <v>1.97</v>
       </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
         <v>1.37</v>
@@ -2479,16 +2479,16 @@
         <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA15" t="n">
         <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC15" t="n">
         <v>7.4</v>
@@ -2497,7 +2497,7 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
         <v>29</v>
@@ -2521,7 +2521,7 @@
         <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
         <v>55</v>
@@ -2566,7 +2566,7 @@
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2581,16 +2581,16 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.96</v>
       </c>
       <c r="R16" t="n">
         <v>1.39</v>
@@ -2599,19 +2599,19 @@
         <v>3.4</v>
       </c>
       <c r="T16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.76</v>
       </c>
-      <c r="U16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.78</v>
-      </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
         <v>14</v>
@@ -2653,16 +2653,16 @@
         <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -2695,10 +2695,10 @@
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
         <v>4.2</v>
@@ -2707,7 +2707,7 @@
         <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>1.41</v>
@@ -2725,28 +2725,28 @@
         <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R17" t="n">
         <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U17" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
         <v>16</v>
@@ -2758,7 +2758,7 @@
         <v>85</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>8.4</v>
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK17" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I18" t="n">
         <v>2.5</v>
@@ -2851,16 +2851,16 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="n">
         <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
         <v>1.37</v>
@@ -2878,19 +2878,19 @@
         <v>1.66</v>
       </c>
       <c r="W18" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X18" t="n">
         <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
         <v>16</v>
       </c>
       <c r="AA18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
@@ -2902,7 +2902,7 @@
         <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
         <v>22</v>
@@ -2914,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="n">
         <v>55</v>
@@ -2962,28 +2962,28 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I19" t="n">
         <v>7.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8</v>
       </c>
       <c r="J19" t="n">
         <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
         <v>4.8</v>
@@ -2998,37 +2998,37 @@
         <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S19" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T19" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
@@ -3040,7 +3040,7 @@
         <v>290</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG19" t="n">
         <v>9.800000000000001</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3124,31 +3124,31 @@
         <v>5.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R20" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="V20" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="W20" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3181,7 +3181,7 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3190,7 +3190,7 @@
         <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3232,43 +3232,43 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.02</v>
-      </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
         <v>3.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q21" t="n">
         <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
         <v>3.7</v>
@@ -3280,22 +3280,22 @@
         <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA21" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB21" t="n">
         <v>8.800000000000001</v>
@@ -3310,22 +3310,22 @@
         <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>38</v>
@@ -3334,7 +3334,7 @@
         <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO21" t="n">
         <v>60</v>
@@ -3376,13 +3376,13 @@
         <v>2.34</v>
       </c>
       <c r="I22" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
         <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
         <v>1.41</v>
@@ -3397,10 +3397,10 @@
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R22" t="n">
         <v>1.41</v>
@@ -3409,25 +3409,25 @@
         <v>3.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W22" t="n">
         <v>1.42</v>
       </c>
       <c r="X22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" t="n">
         <v>14.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>15.5</v>
       </c>
       <c r="AA22" t="n">
         <v>32</v>
@@ -3436,7 +3436,7 @@
         <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
@@ -3460,16 +3460,16 @@
         <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
         <v>85</v>
       </c>
       <c r="AN22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
         <v>17.5</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.46</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.47</v>
       </c>
       <c r="H23" t="n">
         <v>7.6</v>
@@ -3514,10 +3514,10 @@
         <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.29</v>
@@ -3529,25 +3529,25 @@
         <v>5.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V23" t="n">
         <v>1.14</v>
@@ -3565,22 +3565,22 @@
         <v>70</v>
       </c>
       <c r="AA23" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE23" t="n">
         <v>100</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
         <v>9.800000000000001</v>
@@ -3604,7 +3604,7 @@
         <v>95</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO23" t="n">
         <v>90</v>
@@ -3640,19 +3640,19 @@
         <v>5.4</v>
       </c>
       <c r="G24" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="I24" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="J24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3661,61 +3661,61 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
         <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
         <v>2.26</v>
       </c>
       <c r="V24" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="W24" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>11</v>
       </c>
       <c r="AA24" t="n">
         <v>16.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC24" t="n">
         <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG24" t="n">
         <v>21</v>
@@ -3724,10 +3724,10 @@
         <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="n">
         <v>65</v>
@@ -3736,7 +3736,7 @@
         <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
         <v>55</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="G25" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H25" t="n">
+        <v>14</v>
+      </c>
+      <c r="I25" t="n">
         <v>15</v>
       </c>
-      <c r="I25" t="n">
-        <v>16.5</v>
-      </c>
       <c r="J25" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.28</v>
@@ -3796,88 +3796,88 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R25" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="S25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="V25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W25" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y25" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD25" t="n">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="AE25" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G26" t="n">
         <v>2.36</v>
       </c>
       <c r="H26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -3931,28 +3931,28 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.34</v>
       </c>
       <c r="P26" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
         <v>1.4</v>
@@ -3961,7 +3961,7 @@
         <v>1.73</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
         <v>13</v>
@@ -3973,10 +3973,10 @@
         <v>65</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
         <v>14</v>
@@ -3997,10 +3997,10 @@
         <v>50</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL26" t="n">
         <v>40</v>
@@ -4009,10 +4009,10 @@
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G27" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="I27" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="J27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K27" t="n">
         <v>4.6</v>
@@ -4066,37 +4066,37 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S27" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="T27" t="n">
         <v>1.66</v>
       </c>
       <c r="U27" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V27" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
         <v>12</v>
@@ -4108,37 +4108,37 @@
         <v>18.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
         <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF27" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH27" t="n">
         <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK27" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
         <v>70</v>
@@ -4147,7 +4147,7 @@
         <v>40</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="28">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.24</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H28" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="I28" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="J28" t="n">
         <v>7.4</v>
@@ -4201,43 +4201,43 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S28" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="T28" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="U28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W28" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="X28" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Z28" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4249,37 +4249,37 @@
         <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE28" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK28" t="n">
         <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4318,10 +4318,10 @@
         <v>3.45</v>
       </c>
       <c r="H29" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
@@ -4336,13 +4336,13 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -4354,13 +4354,13 @@
         <v>3.55</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V29" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W29" t="n">
         <v>1.4</v>
@@ -4369,7 +4369,7 @@
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
         <v>14</v>
@@ -4447,94 +4447,94 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G30" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H30" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="I30" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="J30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K30" t="n">
         <v>4.1</v>
       </c>
-      <c r="K30" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P30" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="R30" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="S30" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V30" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="W30" t="n">
         <v>1.37</v>
       </c>
       <c r="X30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
         <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB30" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG30" t="n">
         <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ30" t="n">
         <v>70</v>
@@ -4543,16 +4543,16 @@
         <v>40</v>
       </c>
       <c r="AL30" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="X31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB31" t="n">
         <v>8</v>
       </c>
-      <c r="I31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3</v>
-      </c>
-      <c r="X31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -4720,7 +4720,7 @@
         <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H32" t="n">
         <v>1.19</v>
@@ -4729,7 +4729,7 @@
         <v>1.2</v>
       </c>
       <c r="J32" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
         <v>8.800000000000001</v>
@@ -4741,28 +4741,28 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O32" t="n">
         <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R32" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S32" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T32" t="n">
         <v>2.44</v>
       </c>
       <c r="U32" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="V32" t="n">
         <v>6</v>
@@ -4774,19 +4774,19 @@
         <v>34</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="n">
         <v>7.2</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AB32" t="n">
         <v>350</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD32" t="n">
         <v>13.5</v>
@@ -4795,7 +4795,7 @@
         <v>14</v>
       </c>
       <c r="AF32" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
@@ -4804,19 +4804,19 @@
         <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="AL32" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="AM32" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
@@ -4855,19 +4855,19 @@
         <v>2.4</v>
       </c>
       <c r="G33" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
         <v>1.38</v>
@@ -4876,7 +4876,7 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O33" t="n">
         <v>1.27</v>
@@ -4885,7 +4885,7 @@
         <v>2.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R33" t="n">
         <v>1.44</v>
@@ -4894,13 +4894,13 @@
         <v>3.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U33" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W33" t="n">
         <v>1.7</v>
@@ -4921,40 +4921,40 @@
         <v>12.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL33" t="n">
         <v>36</v>
       </c>
-      <c r="AF33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>85</v>
-      </c>
       <c r="AM33" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I34" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.35</v>
@@ -5011,40 +5011,40 @@
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S34" t="n">
         <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U34" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="V34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="W34" t="n">
         <v>1.11</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z34" t="n">
         <v>8.4</v>
@@ -5053,7 +5053,7 @@
         <v>20</v>
       </c>
       <c r="AB34" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC34" t="n">
         <v>11.5</v>
@@ -5062,37 +5062,37 @@
         <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG34" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AH34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AL34" t="n">
         <v>140</v>
       </c>
       <c r="AM34" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="35">
@@ -5122,97 +5122,97 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H35" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
         <v>3.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="R35" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S35" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="T35" t="n">
         <v>1.64</v>
       </c>
       <c r="U35" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V35" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W35" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X35" t="n">
         <v>18</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AF35" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AG35" t="n">
         <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AJ35" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AK35" t="n">
         <v>95</v>
@@ -5221,10 +5221,10 @@
         <v>170</v>
       </c>
       <c r="AM35" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO35" t="n">
         <v>42</v>
@@ -5260,13 +5260,13 @@
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
         <v>3.8</v>
@@ -5278,7 +5278,7 @@
         <v>1.41</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
         <v>4</v>
@@ -5287,13 +5287,13 @@
         <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
         <v>1.93</v>
       </c>
       <c r="R36" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S36" t="n">
         <v>3.3</v>
@@ -5302,49 +5302,49 @@
         <v>1.79</v>
       </c>
       <c r="U36" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W36" t="n">
         <v>1.98</v>
       </c>
       <c r="X36" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z36" t="n">
         <v>30</v>
       </c>
       <c r="AA36" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI36" t="n">
         <v>55</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>60</v>
       </c>
       <c r="AJ36" t="n">
         <v>24</v>
@@ -5356,13 +5356,13 @@
         <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN36" t="n">
         <v>13.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G37" t="n">
         <v>5.9</v>
       </c>
       <c r="H37" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="I37" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="J37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.38</v>
@@ -5425,40 +5425,40 @@
         <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R37" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="T37" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U37" t="n">
         <v>2.12</v>
       </c>
       <c r="V37" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="W37" t="n">
         <v>1.2</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z37" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>10</v>
       </c>
       <c r="AA37" t="n">
         <v>16</v>
       </c>
       <c r="AB37" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AC37" t="n">
         <v>10</v>
@@ -5467,13 +5467,13 @@
         <v>11</v>
       </c>
       <c r="AE37" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="AG37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH37" t="n">
         <v>20</v>
@@ -5482,22 +5482,22 @@
         <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AK37" t="n">
         <v>75</v>
       </c>
       <c r="AL37" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
         <v>90</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G38" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H38" t="n">
         <v>1.54</v>
@@ -5539,67 +5539,67 @@
         <v>1.56</v>
       </c>
       <c r="J38" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
         <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O38" t="n">
         <v>1.26</v>
       </c>
       <c r="P38" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q38" t="n">
         <v>1.76</v>
       </c>
       <c r="R38" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S38" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T38" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="U38" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
         <v>2.78</v>
       </c>
       <c r="W38" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="n">
         <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AD38" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
@@ -5617,7 +5617,7 @@
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AK38" t="n">
         <v>290</v>
@@ -5632,7 +5632,7 @@
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="39">
@@ -5662,58 +5662,58 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="G39" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.86</v>
+        <v>2.1</v>
       </c>
       <c r="I39" t="n">
-        <v>3.3</v>
+        <v>970</v>
       </c>
       <c r="J39" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>5.2</v>
+        <v>970</v>
       </c>
       <c r="L39" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P39" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R39" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="S39" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="T39" t="n">
-        <v>1.34</v>
+        <v>1.04</v>
       </c>
       <c r="U39" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="V39" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5746,13 +5746,13 @@
         <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
         <v>1000</v>
@@ -5764,7 +5764,7 @@
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="G40" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="H40" t="n">
-        <v>8.199999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I40" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>1.09</v>
       </c>
       <c r="K40" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="L40" t="n">
         <v>1.15</v>
@@ -5821,34 +5821,34 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>2.24</v>
+        <v>5.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P40" t="n">
         <v>5.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="R40" t="n">
         <v>2.62</v>
       </c>
       <c r="S40" t="n">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="T40" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="U40" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="V40" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="W40" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5884,7 +5884,7 @@
         <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,25 +5932,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.13</v>
+        <v>3.95</v>
       </c>
       <c r="G41" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="I41" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="J41" t="n">
-        <v>1.09</v>
+        <v>4.3</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -5965,13 +5965,13 @@
         <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="R41" t="n">
         <v>1.9</v>
       </c>
       <c r="S41" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="T41" t="n">
         <v>1.04</v>
@@ -5983,7 +5983,7 @@
         <v>2.16</v>
       </c>
       <c r="W41" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G42" t="n">
         <v>1.23</v>
       </c>
       <c r="H42" t="n">
-        <v>9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="I42" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="J42" t="n">
-        <v>9</v>
+        <v>1.23</v>
       </c>
       <c r="K42" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="L42" t="n">
         <v>1.13</v>
@@ -6091,43 +6091,43 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.24</v>
+        <v>6</v>
       </c>
       <c r="O42" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P42" t="n">
         <v>6</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="R42" t="n">
         <v>3.25</v>
       </c>
       <c r="S42" t="n">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
       <c r="T42" t="n">
-        <v>1.47</v>
+        <v>1.04</v>
       </c>
       <c r="U42" t="n">
-        <v>2.72</v>
+        <v>1.04</v>
       </c>
       <c r="V42" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="W42" t="n">
         <v>5.3</v>
       </c>
       <c r="X42" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6142,7 +6142,7 @@
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G43" t="n">
         <v>3.6</v>
@@ -6229,7 +6229,7 @@
         <v>3.7</v>
       </c>
       <c r="O43" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P43" t="n">
         <v>1.94</v>
@@ -6244,16 +6244,16 @@
         <v>3.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U43" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V43" t="n">
         <v>1.6</v>
       </c>
       <c r="W43" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6274,7 +6274,7 @@
         <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE43" t="n">
         <v>1000</v>
@@ -6337,61 +6337,61 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G44" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H44" t="n">
         <v>3.55</v>
       </c>
       <c r="I44" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J44" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K44" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L44" t="n">
         <v>1.39</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S44" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T44" t="n">
         <v>1.7</v>
       </c>
       <c r="U44" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V44" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W44" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y44" t="n">
         <v>15</v>
@@ -6406,10 +6406,10 @@
         <v>11</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD44" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE44" t="n">
         <v>42</v>
@@ -6436,13 +6436,13 @@
         <v>36</v>
       </c>
       <c r="AM44" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN44" t="n">
         <v>16.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,37 +667,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
@@ -706,34 +706,34 @@
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
@@ -742,22 +742,22 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="n">
         <v>32</v>
@@ -766,13 +766,13 @@
         <v>130</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="n">
         <v>2.12</v>
@@ -817,10 +817,10 @@
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -829,28 +829,28 @@
         <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -859,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z3" t="n">
         <v>12.5</v>
@@ -868,7 +868,7 @@
         <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8</v>
@@ -883,7 +883,7 @@
         <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
@@ -892,22 +892,22 @@
         <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK3" t="n">
         <v>48</v>
       </c>
       <c r="AL3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN3" t="n">
         <v>55</v>
       </c>
-      <c r="AM3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>48</v>
-      </c>
       <c r="AO3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
         <v>3.55</v>
@@ -946,61 +946,61 @@
         <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>1.39</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
         <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB4" t="n">
         <v>14.5</v>
@@ -1018,7 +1018,7 @@
         <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
         <v>17</v>
@@ -1030,7 +1030,7 @@
         <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
         <v>46</v>
@@ -1072,49 +1072,49 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
         <v>2.04</v>
@@ -1126,7 +1126,7 @@
         <v>1.23</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.4</v>
@@ -1138,7 +1138,7 @@
         <v>18.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.6</v>
@@ -1147,7 +1147,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>38</v>
@@ -1174,7 +1174,7 @@
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
         <v>4.3</v>
@@ -1231,22 +1231,22 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
         <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="T6" t="n">
         <v>1.77</v>
@@ -1255,22 +1255,22 @@
         <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
         <v>10.5</v>
@@ -1279,7 +1279,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>60</v>
@@ -1303,16 +1303,16 @@
         <v>16.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>85</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1345,13 +1345,13 @@
         <v>3.8</v>
       </c>
       <c r="G7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.12</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.14</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1372,7 +1372,7 @@
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
         <v>1.87</v>
@@ -1390,10 +1390,10 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X7" t="n">
         <v>16</v>
@@ -1402,22 +1402,22 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB7" t="n">
         <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
         <v>27</v>
@@ -1429,10 +1429,10 @@
         <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
         <v>42</v>
@@ -1441,7 +1441,7 @@
         <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
         <v>38</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
@@ -1501,37 +1501,37 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
         <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V8" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
@@ -1540,25 +1540,25 @@
         <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1567,10 +1567,10 @@
         <v>28</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>36</v>
@@ -1579,10 +1579,10 @@
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -1612,76 +1612,76 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I9" t="n">
         <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="R9" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="S9" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="T9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="n">
         <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD9" t="n">
         <v>60</v>
@@ -1690,10 +1690,10 @@
         <v>290</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
         <v>36</v>
@@ -1714,7 +1714,7 @@
         <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
         <v>330</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="G10" t="n">
         <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="I10" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>4.7</v>
@@ -1771,31 +1771,31 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
         <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
         <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
@@ -1807,10 +1807,10 @@
         <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB10" t="n">
         <v>25</v>
@@ -1819,7 +1819,7 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -1828,7 +1828,7 @@
         <v>46</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
         <v>18</v>
@@ -1885,7 +1885,7 @@
         <v>1.84</v>
       </c>
       <c r="G11" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
         <v>4.3</v>
@@ -1909,25 +1909,25 @@
         <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.54</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.52</v>
       </c>
       <c r="V11" t="n">
         <v>1.29</v>
@@ -1936,25 +1936,25 @@
         <v>2.16</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
         <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
         <v>44</v>
@@ -1966,13 +1966,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
         <v>16.5</v>
@@ -1984,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
         <v>34</v>
@@ -2029,70 +2029,70 @@
         <v>2.52</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W12" t="n">
         <v>1.47</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
         <v>36</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2101,28 +2101,28 @@
         <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,37 +2152,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
         <v>10.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I13" t="n">
         <v>1.39</v>
       </c>
       <c r="J13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K13" t="n">
         <v>6.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
         <v>1.65</v>
@@ -2206,13 +2206,13 @@
         <v>1.11</v>
       </c>
       <c r="X13" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA13" t="n">
         <v>11.5</v>
@@ -2224,13 +2224,13 @@
         <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
         <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
         <v>36</v>
@@ -2239,22 +2239,22 @@
         <v>28</v>
       </c>
       <c r="AI13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AK13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="n">
         <v>150</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AO13" t="n">
         <v>5.5</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G14" t="n">
         <v>3.8</v>
       </c>
-      <c r="G14" t="n">
-        <v>3.9</v>
-      </c>
       <c r="H14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2305,7 +2305,7 @@
         <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2329,19 +2329,19 @@
         <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
@@ -2353,7 +2353,7 @@
         <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
         <v>8.199999999999999</v>
@@ -2368,7 +2368,7 @@
         <v>28</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
@@ -2386,7 +2386,7 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
         <v>44</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G15" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="I15" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -2440,7 +2440,7 @@
         <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2449,31 +2449,31 @@
         <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
         <v>4.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W15" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -2482,13 +2482,13 @@
         <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
         <v>7.4</v>
@@ -2497,37 +2497,37 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>530</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL15" t="n">
         <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO15" t="n">
         <v>55</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2578,49 +2578,49 @@
         <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
         <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA16" t="n">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
@@ -2629,40 +2629,40 @@
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2692,100 +2692,100 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>1.41</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI17" t="n">
         <v>48</v>
       </c>
-      <c r="AF17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK17" t="n">
         <v>24</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>22</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -2794,10 +2794,10 @@
         <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
         <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
@@ -2845,43 +2845,43 @@
         <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="n">
         <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W18" t="n">
         <v>1.45</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
         <v>10.5</v>
@@ -2890,19 +2890,19 @@
         <v>16</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
         <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF18" t="n">
         <v>22</v>
@@ -2911,10 +2911,10 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
         <v>55</v>
@@ -2923,16 +2923,16 @@
         <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G19" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I19" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J19" t="n">
         <v>4.9</v>
@@ -2986,70 +2986,70 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W19" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
         <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AB19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF19" t="n">
         <v>9.4</v>
       </c>
-      <c r="AC19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AG19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="n">
         <v>13.5</v>
@@ -3058,16 +3058,16 @@
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
         <v>470</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3097,58 +3097,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>2.6</v>
+        <v>2.98</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.51</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.42</v>
       </c>
       <c r="U20" t="n">
         <v>2.58</v>
       </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3181,16 +3181,16 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK20" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3199,10 +3199,10 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
         <v>1.34</v>
@@ -3274,7 +3274,7 @@
         <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U21" t="n">
         <v>2.06</v>
@@ -3283,31 +3283,31 @@
         <v>1.29</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
         <v>100</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
         <v>11.5</v>
@@ -3316,7 +3316,7 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>65</v>
@@ -3337,7 +3337,7 @@
         <v>14.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>2.34</v>
       </c>
       <c r="I22" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J22" t="n">
         <v>3.6</v>
@@ -3403,22 +3403,22 @@
         <v>1.91</v>
       </c>
       <c r="R22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S22" t="n">
         <v>3.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
         <v>2.28</v>
       </c>
       <c r="V22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X22" t="n">
         <v>15.5</v>
@@ -3427,10 +3427,10 @@
         <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB22" t="n">
         <v>14</v>
@@ -3442,7 +3442,7 @@
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
         <v>23</v>
@@ -3466,13 +3466,13 @@
         <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
         <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G23" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="H23" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J23" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
         <v>5.8</v>
@@ -3532,40 +3532,40 @@
         <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
         <v>1.65</v>
       </c>
       <c r="S23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U23" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V23" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA23" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AB23" t="n">
         <v>11.5</v>
@@ -3574,25 +3574,25 @@
         <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE23" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK23" t="n">
         <v>14</v>
@@ -3601,13 +3601,13 @@
         <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AO23" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G24" t="n">
         <v>5.5</v>
@@ -3646,7 +3646,7 @@
         <v>1.67</v>
       </c>
       <c r="I24" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J24" t="n">
         <v>4.5</v>
@@ -3655,61 +3655,61 @@
         <v>4.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S24" t="n">
         <v>2.66</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
         <v>2.26</v>
       </c>
       <c r="V24" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="W24" t="n">
         <v>1.22</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z24" t="n">
         <v>11</v>
       </c>
-      <c r="Z24" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AA24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB24" t="n">
         <v>24</v>
       </c>
       <c r="AC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD24" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -3724,7 +3724,7 @@
         <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ24" t="n">
         <v>130</v>
@@ -3736,13 +3736,13 @@
         <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="G25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.27</v>
-      </c>
-      <c r="H25" t="n">
-        <v>14</v>
-      </c>
-      <c r="I25" t="n">
-        <v>15</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.28</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="S25" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="T25" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="U25" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W25" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="X25" t="n">
         <v>30</v>
       </c>
       <c r="Y25" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AA25" t="n">
-        <v>790</v>
+        <v>470</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AE25" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>36</v>
       </c>
       <c r="AM25" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
         <v>190</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>260</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G26" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -3931,13 +3931,13 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
@@ -3946,19 +3946,19 @@
         <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W26" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="X26" t="n">
         <v>13.5</v>
@@ -3970,49 +3970,49 @@
         <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
         <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
         <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
         <v>25</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I27" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K27" t="n">
         <v>4.6</v>
@@ -4066,28 +4066,28 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="R27" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="S27" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="T27" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U27" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
         <v>2.32</v>
@@ -4096,28 +4096,28 @@
         <v>1.25</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
         <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF27" t="n">
         <v>42</v>
@@ -4126,28 +4126,28 @@
         <v>18.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>110</v>
       </c>
       <c r="AK27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL27" t="n">
         <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN27" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="G28" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="H28" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="I28" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="J28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K28" t="n">
         <v>7.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>7.8</v>
       </c>
       <c r="L28" t="n">
         <v>1.32</v>
@@ -4210,13 +4210,13 @@
         <v>2.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R28" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S28" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T28" t="n">
         <v>2.54</v>
@@ -4225,61 +4225,61 @@
         <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X28" t="n">
         <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE28" t="n">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK28" t="n">
         <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4315,7 +4315,7 @@
         <v>3.35</v>
       </c>
       <c r="G29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
         <v>2.36</v>
@@ -4327,10 +4327,10 @@
         <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4339,10 +4339,10 @@
         <v>3.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -4357,13 +4357,13 @@
         <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V29" t="n">
         <v>1.72</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
@@ -4372,7 +4372,7 @@
         <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA29" t="n">
         <v>30</v>
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.45</v>
+        <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>3.65</v>
+        <v>1.92</v>
       </c>
       <c r="H30" t="n">
-        <v>2.12</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.18</v>
+        <v>4.6</v>
       </c>
       <c r="J30" t="n">
         <v>3.9</v>
       </c>
       <c r="K30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
         <v>4.1</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="S30" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="V30" t="n">
-        <v>1.85</v>
+        <v>1.28</v>
       </c>
       <c r="W30" t="n">
-        <v>1.37</v>
+        <v>2.08</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF30" t="n">
         <v>12</v>
       </c>
-      <c r="Z30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>28</v>
-      </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN30" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.58</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.63</v>
-      </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J31" t="n">
         <v>4.3</v>
       </c>
       <c r="K31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="R31" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="U31" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="X31" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y31" t="n">
         <v>21</v>
       </c>
       <c r="Z31" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="n">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="AB31" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AE31" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG31" t="n">
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32">
@@ -4720,7 +4720,7 @@
         <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H32" t="n">
         <v>1.19</v>
@@ -4729,73 +4729,73 @@
         <v>1.2</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K32" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S32" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="U32" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V32" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="W32" t="n">
         <v>1.04</v>
       </c>
       <c r="X32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
         <v>350</v>
       </c>
       <c r="AC32" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
@@ -4804,25 +4804,25 @@
         <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="33">
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G33" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I33" t="n">
         <v>3.25</v>
       </c>
       <c r="J33" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -4882,16 +4882,16 @@
         <v>1.27</v>
       </c>
       <c r="P33" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="R33" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T33" t="n">
         <v>1.69</v>
@@ -4900,13 +4900,13 @@
         <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W33" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y33" t="n">
         <v>14.5</v>
@@ -4918,19 +4918,19 @@
         <v>55</v>
       </c>
       <c r="AB33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
         <v>13.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG33" t="n">
         <v>11.5</v>
@@ -4939,7 +4939,7 @@
         <v>16</v>
       </c>
       <c r="AI33" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="n">
         <v>34</v>
@@ -4957,7 +4957,7 @@
         <v>18.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="J34" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="K34" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L34" t="n">
         <v>1.35</v>
@@ -5011,46 +5011,46 @@
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R34" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S34" t="n">
         <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="W34" t="n">
         <v>1.11</v>
       </c>
       <c r="X34" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="Z34" t="n">
         <v>8.4</v>
       </c>
       <c r="AA34" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
         <v>34</v>
@@ -5059,40 +5059,40 @@
         <v>11.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="n">
         <v>15.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AG34" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI34" t="n">
         <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AK34" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AL34" t="n">
         <v>140</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO34" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="35">
@@ -5122,82 +5122,82 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="G35" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H35" t="n">
         <v>2.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P35" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="R35" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="S35" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="T35" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="U35" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="V35" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W35" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X35" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Y35" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF35" t="n">
         <v>22</v>
@@ -5206,28 +5206,28 @@
         <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI35" t="n">
         <v>110</v>
       </c>
       <c r="AJ35" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AK35" t="n">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="AL35" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN35" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AO35" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="36">
@@ -5248,28 +5248,28 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="G36" t="n">
-        <v>2.02</v>
+        <v>3.9</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K36" t="n">
         <v>3.95</v>
@@ -5281,88 +5281,88 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O36" t="n">
         <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R36" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.31</v>
+        <v>1.89</v>
       </c>
       <c r="W36" t="n">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AC36" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AF36" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="AK36" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AN36" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="AO36" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="G37" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H37" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="I37" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="J37" t="n">
         <v>4.3</v>
@@ -5425,25 +5425,25 @@
         <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R37" t="n">
         <v>1.46</v>
       </c>
       <c r="S37" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U37" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V37" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="W37" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X37" t="n">
         <v>21</v>
@@ -5452,28 +5452,28 @@
         <v>10</v>
       </c>
       <c r="Z37" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD37" t="n">
         <v>11</v>
       </c>
       <c r="AE37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF37" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AG37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH37" t="n">
         <v>20</v>
@@ -5482,19 +5482,19 @@
         <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AK37" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL37" t="n">
         <v>75</v>
       </c>
-      <c r="AL37" t="n">
-        <v>330</v>
-      </c>
       <c r="AM37" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO37" t="n">
         <v>8.199999999999999</v>
@@ -5527,97 +5527,97 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="G38" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="H38" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="I38" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P38" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="R38" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S38" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U38" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V38" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="W38" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA38" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC38" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF38" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AK38" t="n">
         <v>290</v>
@@ -5629,10 +5629,10 @@
         <v>470</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO38" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="39">
@@ -5662,58 +5662,58 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>2.22</v>
       </c>
       <c r="H39" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>970</v>
+        <v>3.55</v>
       </c>
       <c r="J39" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>970</v>
+        <v>4.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R39" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S39" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T39" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="U39" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="V39" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="W39" t="n">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5731,7 +5731,7 @@
         <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD39" t="n">
         <v>1000</v>
@@ -5746,7 +5746,7 @@
         <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
@@ -5764,7 +5764,7 @@
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5788,68 +5788,68 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="G40" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W40" t="n">
         <v>1.27</v>
       </c>
-      <c r="H40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W40" t="n">
-        <v>4.3</v>
-      </c>
       <c r="X40" t="n">
         <v>1000</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -5923,76 +5923,76 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.95</v>
+        <v>1.22</v>
       </c>
       <c r="G41" t="n">
-        <v>4.6</v>
+        <v>1.23</v>
       </c>
       <c r="H41" t="n">
-        <v>1.74</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>1.86</v>
+        <v>14</v>
       </c>
       <c r="J41" t="n">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="K41" t="n">
-        <v>5.2</v>
+        <v>13.5</v>
       </c>
       <c r="L41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M41" t="n">
         <v>1.01</v>
       </c>
-      <c r="M41" t="n">
-        <v>1.02</v>
-      </c>
       <c r="N41" t="n">
-        <v>3.3</v>
+        <v>2.24</v>
       </c>
       <c r="O41" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="P41" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="R41" t="n">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="S41" t="n">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="T41" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="U41" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="V41" t="n">
-        <v>2.16</v>
+        <v>1.07</v>
       </c>
       <c r="W41" t="n">
-        <v>1.27</v>
+        <v>5.3</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
@@ -6007,7 +6007,7 @@
         <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="n">
         <v>1000</v>
@@ -6034,7 +6034,7 @@
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>2.52</v>
       </c>
       <c r="AO41" t="n">
         <v>1000</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,75 +6053,75 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.2</v>
+        <v>3.05</v>
       </c>
       <c r="G42" t="n">
-        <v>1.23</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
-        <v>1.1</v>
+        <v>2.22</v>
       </c>
       <c r="I42" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="J42" t="n">
-        <v>1.23</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L42" t="n">
-        <v>1.13</v>
+        <v>1.37</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="O42" t="n">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="P42" t="n">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="R42" t="n">
-        <v>3.25</v>
+        <v>1.37</v>
       </c>
       <c r="S42" t="n">
-        <v>1.15</v>
+        <v>3.05</v>
       </c>
       <c r="T42" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U42" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V42" t="n">
-        <v>1.06</v>
+        <v>1.62</v>
       </c>
       <c r="W42" t="n">
-        <v>5.3</v>
+        <v>1.37</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y42" t="n">
         <v>1000</v>
@@ -6136,7 +6136,7 @@
         <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,260 +6188,125 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.96</v>
+        <v>2.18</v>
       </c>
       <c r="G43" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.6</v>
       </c>
-      <c r="H43" t="n">
-        <v>2.2</v>
-      </c>
       <c r="I43" t="n">
-        <v>2.66</v>
+        <v>3.8</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K43" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="O43" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="R43" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S43" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U43" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V43" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="W43" t="n">
-        <v>1.34</v>
+        <v>1.8</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD43" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Tigres</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X44" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO44" t="n">
         <v>38</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>2.78</v>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I2" t="n">
         <v>2.86</v>
@@ -697,7 +697,7 @@
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
@@ -706,7 +706,7 @@
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
@@ -715,7 +715,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>1.53</v>
@@ -760,16 +760,16 @@
         <v>44</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
         <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
         <v>30</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
         <v>2.12</v>
@@ -826,10 +826,10 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
         <v>1.94</v>
@@ -838,28 +838,28 @@
         <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
         <v>1.9</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
         <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>12.5</v>
@@ -880,7 +880,7 @@
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.4</v>
@@ -967,10 +967,10 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>1.42</v>
@@ -979,28 +979,28 @@
         <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="W4" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
         <v>14.5</v>
@@ -1027,22 +1027,22 @@
         <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
         <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
         <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I5" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -1099,7 +1099,7 @@
         <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
         <v>1.98</v>
@@ -1114,19 +1114,19 @@
         <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
         <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>8.4</v>
@@ -1138,7 +1138,7 @@
         <v>18.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.6</v>
@@ -1147,13 +1147,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
         <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
@@ -1162,7 +1162,7 @@
         <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
         <v>70</v>
@@ -1174,7 +1174,7 @@
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1216,16 +1216,16 @@
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.3</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1237,22 +1237,22 @@
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T6" t="n">
         <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
         <v>1.24</v>
@@ -1309,10 +1309,10 @@
         <v>85</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>3.8</v>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H7" t="n">
         <v>2.1</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1378,7 +1378,7 @@
         <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
         <v>3.2</v>
@@ -1393,7 +1393,7 @@
         <v>1.89</v>
       </c>
       <c r="W7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X7" t="n">
         <v>16</v>
@@ -1441,13 +1441,13 @@
         <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
         <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
@@ -1489,25 +1489,25 @@
         <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1519,13 +1519,13 @@
         <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W8" t="n">
         <v>1.4</v>
@@ -1537,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA8" t="n">
         <v>28</v>
@@ -1552,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
         <v>27</v>
@@ -1576,7 +1576,7 @@
         <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
         <v>24</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G9" t="n">
         <v>1.23</v>
       </c>
       <c r="H9" t="n">
+        <v>16</v>
+      </c>
+      <c r="I9" t="n">
         <v>16.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>17</v>
       </c>
       <c r="J9" t="n">
         <v>8.199999999999999</v>
@@ -1636,22 +1636,22 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O9" t="n">
         <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="S9" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
         <v>2.02</v>
@@ -1666,7 +1666,7 @@
         <v>5.4</v>
       </c>
       <c r="X9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
         <v>65</v>
@@ -1681,13 +1681,13 @@
         <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD9" t="n">
         <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AF9" t="n">
         <v>9.4</v>
@@ -1696,13 +1696,13 @@
         <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK9" t="n">
         <v>13.5</v>
@@ -1711,13 +1711,13 @@
         <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO9" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.31</v>
@@ -1771,37 +1771,37 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
         <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
         <v>1.69</v>
       </c>
       <c r="U10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.4</v>
       </c>
-      <c r="V10" t="n">
-        <v>2.46</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
@@ -1810,28 +1810,28 @@
         <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC10" t="n">
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
@@ -1849,10 +1849,10 @@
         <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J11" t="n">
         <v>4.4</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.3</v>
-      </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S11" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.52</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
         <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>10</v>
       </c>
-      <c r="AD11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -2020,16 +2020,16 @@
         <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I12" t="n">
         <v>2.52</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
@@ -2041,25 +2041,25 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
         <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
         <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
         <v>2.24</v>
@@ -2068,13 +2068,13 @@
         <v>1.66</v>
       </c>
       <c r="W12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
         <v>16</v>
@@ -2095,7 +2095,7 @@
         <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>
@@ -2113,13 +2113,13 @@
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AO12" t="n">
         <v>19.5</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="I13" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="J13" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2182,31 +2182,31 @@
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="n">
         <v>2.62</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V13" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="W13" t="n">
         <v>1.11</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
@@ -2215,16 +2215,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="n">
         <v>14</v>
@@ -2233,31 +2233,31 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AK13" t="n">
         <v>140</v>
       </c>
       <c r="AL13" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AM13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN13" t="n">
         <v>140</v>
       </c>
-      <c r="AN13" t="n">
-        <v>150</v>
-      </c>
       <c r="AO13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14">
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="I14" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
         <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
         <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="W14" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X14" t="n">
         <v>15.5</v>
@@ -2347,52 +2347,52 @@
         <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB14" t="n">
         <v>26</v>
       </c>
-      <c r="AB14" t="n">
-        <v>16</v>
-      </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
         <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK14" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2422,73 +2422,73 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H15" t="n">
         <v>2.36</v>
       </c>
       <c r="I15" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.4</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="O15" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA15" t="n">
         <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>7.4</v>
@@ -2497,37 +2497,37 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK15" t="n">
         <v>48</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>46</v>
-      </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2560,22 +2560,22 @@
         <v>2.14</v>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2599,16 +2599,16 @@
         <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X16" t="n">
         <v>16</v>
@@ -2620,7 +2620,7 @@
         <v>28</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
@@ -2641,13 +2641,13 @@
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AK16" t="n">
         <v>22</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.24</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.28</v>
-      </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.41</v>
@@ -2725,28 +2725,28 @@
         <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R17" t="n">
         <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
         <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
         <v>15</v>
@@ -2755,19 +2755,19 @@
         <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AB17" t="n">
         <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
         <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
         <v>14.5</v>
@@ -2797,7 +2797,7 @@
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G18" t="n">
         <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I18" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="J18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.65</v>
       </c>
       <c r="L18" t="n">
         <v>1.43</v>
@@ -2857,43 +2857,43 @@
         <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="W18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
         <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA18" t="n">
         <v>36</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
         <v>7.8</v>
@@ -2914,7 +2914,7 @@
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
         <v>55</v>
@@ -2923,7 +2923,7 @@
         <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
         <v>95</v>
@@ -2932,7 +2932,7 @@
         <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>1.47</v>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H19" t="n">
         <v>7.4</v>
       </c>
       <c r="I19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -2986,7 +2986,7 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
@@ -2995,25 +2995,25 @@
         <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R19" t="n">
         <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X19" t="n">
         <v>26</v>
@@ -3022,25 +3022,25 @@
         <v>30</v>
       </c>
       <c r="Z19" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AA19" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB19" t="n">
         <v>9.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
         <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG19" t="n">
         <v>9.6</v>
@@ -3052,7 +3052,7 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
@@ -3061,13 +3061,13 @@
         <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>470</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -3097,31 +3097,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G20" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H20" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
@@ -3130,25 +3130,25 @@
         <v>2.98</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.47</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3181,7 +3181,7 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3199,10 +3199,10 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>600</v>
+        <v>95</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G21" t="n">
         <v>1.97</v>
@@ -3250,7 +3250,7 @@
         <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3262,10 +3262,10 @@
         <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R21" t="n">
         <v>1.35</v>
@@ -3274,13 +3274,13 @@
         <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
         <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W21" t="n">
         <v>2.02</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G22" t="n">
         <v>3.35</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>2.34</v>
@@ -3379,49 +3379,49 @@
         <v>2.36</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
         <v>1.41</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T22" t="n">
         <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V22" t="n">
         <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -3436,7 +3436,7 @@
         <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
@@ -3460,19 +3460,19 @@
         <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM22" t="n">
         <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="23">
@@ -3505,91 +3505,91 @@
         <v>1.5</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H23" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I23" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J23" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K23" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="U23" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W23" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X23" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
         <v>65</v>
       </c>
       <c r="AA23" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>26</v>
       </c>
       <c r="AE23" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG23" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ23" t="n">
         <v>13.5</v>
@@ -3598,16 +3598,16 @@
         <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -3646,7 +3646,7 @@
         <v>1.67</v>
       </c>
       <c r="I24" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J24" t="n">
         <v>4.5</v>
@@ -3658,7 +3658,7 @@
         <v>1.32</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>5.3</v>
@@ -3673,19 +3673,19 @@
         <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
         <v>2.66</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="W24" t="n">
         <v>1.22</v>
@@ -3697,13 +3697,13 @@
         <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA24" t="n">
         <v>16</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
         <v>10</v>
@@ -3715,22 +3715,22 @@
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
         <v>60</v>
@@ -3739,10 +3739,10 @@
         <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="25">
@@ -3772,79 +3772,79 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.29</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J25" t="n">
         <v>6.8</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
         <v>2.32</v>
       </c>
       <c r="T25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V25" t="n">
         <v>1.08</v>
       </c>
       <c r="W25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X25" t="n">
         <v>30</v>
       </c>
       <c r="Y25" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z25" t="n">
         <v>120</v>
       </c>
       <c r="AA25" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="AB25" t="n">
         <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE25" t="n">
         <v>180</v>
@@ -3853,7 +3853,7 @@
         <v>8.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
         <v>29</v>
@@ -3862,22 +3862,22 @@
         <v>140</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO25" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
@@ -3916,7 +3916,7 @@
         <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -3925,28 +3925,28 @@
         <v>3.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R26" t="n">
         <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
         <v>1.79</v>
@@ -3955,7 +3955,7 @@
         <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W26" t="n">
         <v>1.7</v>
@@ -3964,13 +3964,13 @@
         <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
         <v>10.5</v>
@@ -3979,22 +3979,22 @@
         <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="n">
         <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ26" t="n">
         <v>32</v>
@@ -4045,40 +4045,40 @@
         <v>4.9</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I27" t="n">
         <v>1.74</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.76</v>
       </c>
       <c r="J27" t="n">
         <v>4.4</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
         <v>1.64</v>
       </c>
       <c r="R27" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S27" t="n">
         <v>2.62</v>
@@ -4087,16 +4087,16 @@
         <v>1.68</v>
       </c>
       <c r="U27" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
         <v>12</v>
@@ -4114,7 +4114,7 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
         <v>16.5</v>
@@ -4123,10 +4123,10 @@
         <v>42</v>
       </c>
       <c r="AG27" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>26</v>
@@ -4138,7 +4138,7 @@
         <v>55</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
         <v>75</v>
@@ -4147,7 +4147,7 @@
         <v>44</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="28">
@@ -4186,55 +4186,55 @@
         <v>14.5</v>
       </c>
       <c r="I28" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="J28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K28" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S28" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T28" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V28" t="n">
         <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="X28" t="n">
         <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="n">
         <v>170</v>
@@ -4249,10 +4249,10 @@
         <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE28" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
@@ -4264,10 +4264,10 @@
         <v>48</v>
       </c>
       <c r="AI28" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK28" t="n">
         <v>15.5</v>
@@ -4276,7 +4276,7 @@
         <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AN28" t="n">
         <v>4.5</v>
@@ -4318,16 +4318,16 @@
         <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I29" t="n">
         <v>2.38</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.42</v>
@@ -4348,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S29" t="n">
         <v>3.55</v>
@@ -4369,7 +4369,7 @@
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
         <v>14.5</v>
@@ -4381,7 +4381,7 @@
         <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
         <v>11</v>
@@ -4438,28 +4438,28 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.91</v>
+        <v>3.7</v>
       </c>
       <c r="G30" t="n">
-        <v>1.92</v>
+        <v>3.8</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>2.08</v>
       </c>
       <c r="I30" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K30" t="n">
         <v>3.95</v>
@@ -4477,82 +4477,82 @@
         <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S30" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U30" t="n">
         <v>2.14</v>
       </c>
       <c r="V30" t="n">
-        <v>1.28</v>
+        <v>1.89</v>
       </c>
       <c r="W30" t="n">
-        <v>2.08</v>
+        <v>1.35</v>
       </c>
       <c r="X30" t="n">
         <v>16.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL30" t="n">
         <v>55</v>
       </c>
-      <c r="AF30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>34</v>
-      </c>
       <c r="AM30" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>12.5</v>
+        <v>44</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.57</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.58</v>
       </c>
       <c r="H31" t="n">
         <v>7</v>
@@ -4594,40 +4594,40 @@
         <v>7.6</v>
       </c>
       <c r="J31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R31" t="n">
         <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
         <v>2.22</v>
       </c>
       <c r="U31" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V31" t="n">
         <v>1.15</v>
@@ -4645,37 +4645,37 @@
         <v>75</v>
       </c>
       <c r="AA31" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
         <v>32</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
         <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
         <v>46</v>
@@ -4684,10 +4684,10 @@
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32">
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" t="n">
         <v>1.19</v>
@@ -4729,58 +4729,58 @@
         <v>1.2</v>
       </c>
       <c r="J32" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R32" t="n">
         <v>1.6</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S32" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="T32" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="U32" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="V32" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="W32" t="n">
         <v>1.04</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB32" t="n">
         <v>350</v>
@@ -4792,19 +4792,19 @@
         <v>12.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
@@ -4813,16 +4813,16 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G33" t="n">
         <v>2.38</v>
       </c>
-      <c r="G33" t="n">
-        <v>2.46</v>
-      </c>
       <c r="H33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
         <v>1.39</v>
@@ -4888,37 +4888,37 @@
         <v>1.86</v>
       </c>
       <c r="R33" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S33" t="n">
         <v>3.15</v>
       </c>
       <c r="T33" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U33" t="n">
         <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W33" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="X33" t="n">
         <v>17.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC33" t="n">
         <v>8.199999999999999</v>
@@ -4930,34 +4930,34 @@
         <v>36</v>
       </c>
       <c r="AF33" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG33" t="n">
         <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AJ33" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL33" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="n">
         <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G34" t="n">
         <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I34" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.35</v>
@@ -5017,10 +5017,10 @@
         <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R34" t="n">
         <v>1.46</v>
@@ -5029,13 +5029,13 @@
         <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="W34" t="n">
         <v>1.11</v>
@@ -5044,13 +5044,13 @@
         <v>19</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z34" t="n">
         <v>8.4</v>
       </c>
       <c r="AA34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB34" t="n">
         <v>34</v>
@@ -5059,34 +5059,34 @@
         <v>11.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE34" t="n">
         <v>15.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG34" t="n">
         <v>36</v>
       </c>
       <c r="AH34" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AI34" t="n">
         <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="AK34" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AL34" t="n">
         <v>140</v>
       </c>
       <c r="AM34" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN34" t="n">
         <v>200</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I35" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="J35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
         <v>3.8</v>
@@ -5143,19 +5143,19 @@
         <v>1.34</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
         <v>1.56</v>
@@ -5170,25 +5170,25 @@
         <v>2.52</v>
       </c>
       <c r="V35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W35" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X35" t="n">
         <v>32</v>
       </c>
       <c r="Y35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
         <v>8.800000000000001</v>
@@ -5200,10 +5200,10 @@
         <v>24</v>
       </c>
       <c r="AF35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH35" t="n">
         <v>15</v>
@@ -5212,22 +5212,22 @@
         <v>110</v>
       </c>
       <c r="AJ35" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AK35" t="n">
         <v>29</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM35" t="n">
         <v>200</v>
       </c>
       <c r="AN35" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AO35" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="G36" t="n">
-        <v>3.9</v>
+        <v>1.91</v>
       </c>
       <c r="H36" t="n">
-        <v>2.06</v>
+        <v>4.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K36" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>1.41</v>
@@ -5281,7 +5281,7 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O36" t="n">
         <v>1.3</v>
@@ -5290,79 +5290,79 @@
         <v>2.06</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R36" t="n">
         <v>1.41</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>1.89</v>
+        <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="X36" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AB36" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AE36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>21</v>
       </c>
-      <c r="AF36" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH36" t="n">
+      <c r="AK36" t="n">
         <v>20</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AL36" t="n">
         <v>34</v>
       </c>
-      <c r="AJ36" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM36" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN36" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I37" t="n">
         <v>1.65</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.66</v>
       </c>
       <c r="J37" t="n">
         <v>4.3</v>
@@ -5410,7 +5410,7 @@
         <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5425,31 +5425,31 @@
         <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R37" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S37" t="n">
         <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U37" t="n">
         <v>2.06</v>
       </c>
       <c r="V37" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W37" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X37" t="n">
         <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z37" t="n">
         <v>9.800000000000001</v>
@@ -5470,13 +5470,13 @@
         <v>16</v>
       </c>
       <c r="AF37" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG37" t="n">
         <v>23</v>
       </c>
       <c r="AH37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
         <v>34</v>
@@ -5485,7 +5485,7 @@
         <v>160</v>
       </c>
       <c r="AK37" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AL37" t="n">
         <v>75</v>
@@ -5494,7 +5494,7 @@
         <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO37" t="n">
         <v>8.199999999999999</v>
@@ -5530,16 +5530,16 @@
         <v>6.2</v>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H38" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I38" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J38" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
         <v>4.8</v>
@@ -5554,43 +5554,43 @@
         <v>4.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P38" t="n">
         <v>2.14</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R38" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S38" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U38" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="W38" t="n">
         <v>1.17</v>
       </c>
       <c r="X38" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y38" t="n">
         <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA38" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AB38" t="n">
         <v>24</v>
@@ -5608,7 +5608,7 @@
         <v>55</v>
       </c>
       <c r="AG38" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="n">
         <v>23</v>
@@ -5620,10 +5620,10 @@
         <v>210</v>
       </c>
       <c r="AK38" t="n">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="AL38" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="AM38" t="n">
         <v>470</v>
@@ -5632,7 +5632,7 @@
         <v>110</v>
       </c>
       <c r="AO38" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="G39" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="I39" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
         <v>4.6</v>
@@ -5686,34 +5686,34 @@
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O39" t="n">
         <v>1.14</v>
       </c>
       <c r="P39" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T39" t="n">
         <v>1.42</v>
       </c>
-      <c r="R39" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.39</v>
-      </c>
       <c r="U39" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="V39" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="W39" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5767,7 +5767,7 @@
         <v>55</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
@@ -5788,67 +5788,67 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="G40" t="n">
-        <v>4.6</v>
+        <v>1.25</v>
       </c>
       <c r="H40" t="n">
-        <v>1.74</v>
+        <v>10.5</v>
       </c>
       <c r="I40" t="n">
-        <v>1.77</v>
+        <v>17</v>
       </c>
       <c r="J40" t="n">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="K40" t="n">
-        <v>5.2</v>
+        <v>11</v>
       </c>
       <c r="L40" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>6</v>
+        <v>2.24</v>
       </c>
       <c r="O40" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="P40" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="R40" t="n">
-        <v>1.9</v>
+        <v>2.62</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="T40" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="U40" t="n">
-        <v>2.76</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>2.22</v>
+        <v>1.07</v>
       </c>
       <c r="W40" t="n">
-        <v>1.27</v>
+        <v>5</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5923,76 +5923,76 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F41" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L41" t="n">
         <v>1.22</v>
       </c>
-      <c r="G41" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H41" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.12</v>
-      </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>2.24</v>
+        <v>6.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="R41" t="n">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
       <c r="S41" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
         <v>1.5</v>
       </c>
       <c r="U41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.07</v>
+        <v>2.16</v>
       </c>
       <c r="W41" t="n">
-        <v>5.3</v>
+        <v>1.29</v>
       </c>
       <c r="X41" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
@@ -6007,7 +6007,7 @@
         <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
         <v>1000</v>
@@ -6034,16 +6034,16 @@
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>2.52</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,81 +6053,81 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.05</v>
+        <v>1.22</v>
       </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>1.23</v>
       </c>
       <c r="H42" t="n">
-        <v>2.22</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>13.5</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>3.7</v>
+        <v>2.24</v>
       </c>
       <c r="O42" t="n">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="P42" t="n">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.82</v>
+        <v>1.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.37</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>3.05</v>
+        <v>1.41</v>
       </c>
       <c r="T42" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="U42" t="n">
-        <v>2.14</v>
+        <v>2.88</v>
       </c>
       <c r="V42" t="n">
-        <v>1.62</v>
+        <v>1.08</v>
       </c>
       <c r="W42" t="n">
-        <v>1.37</v>
+        <v>5.3</v>
       </c>
       <c r="X42" t="n">
-        <v>18.5</v>
+        <v>130</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6136,13 +6136,13 @@
         <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>2.48</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,126 +6188,261 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="G43" t="n">
-        <v>2.24</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="I43" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="J43" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K43" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L43" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P43" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
         <v>1.42</v>
       </c>
       <c r="S43" t="n">
-        <v>3.2</v>
+        <v>2.68</v>
       </c>
       <c r="T43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T44" t="n">
         <v>1.69</v>
       </c>
-      <c r="U43" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X43" t="n">
+      <c r="U44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X44" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD44" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z43" t="n">
+      <c r="AE44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>28</v>
       </c>
-      <c r="AA43" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL43" t="n">
+      <c r="AK44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL44" t="n">
         <v>36</v>
       </c>
-      <c r="AM43" t="n">
+      <c r="AM44" t="n">
         <v>90</v>
       </c>
-      <c r="AN43" t="n">
+      <c r="AN44" t="n">
         <v>16.5</v>
       </c>
-      <c r="AO43" t="n">
-        <v>38</v>
+      <c r="AO44" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.78</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.76</v>
-      </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -706,7 +706,7 @@
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
@@ -751,7 +751,7 @@
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>46</v>
@@ -760,7 +760,7 @@
         <v>44</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
         <v>70</v>
@@ -772,7 +772,7 @@
         <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
-        <v>4.1</v>
-      </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="n">
         <v>2.12</v>
       </c>
       <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -826,40 +826,40 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
         <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
         <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z3" t="n">
         <v>12.5</v>
@@ -868,10 +868,10 @@
         <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -880,7 +880,7 @@
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
@@ -889,10 +889,10 @@
         <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="n">
         <v>48</v>
@@ -901,13 +901,13 @@
         <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
         <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.16</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.18</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
@@ -1000,10 +1000,10 @@
         <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1012,19 +1012,19 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
         <v>70</v>
@@ -1033,16 +1033,16 @@
         <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="I5" t="n">
         <v>1.83</v>
@@ -1087,43 +1087,43 @@
         <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
         <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1132,22 +1132,22 @@
         <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>18.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>38</v>
@@ -1156,7 +1156,7 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
         <v>36</v>
@@ -1168,10 +1168,10 @@
         <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
         <v>80</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
         <v>4.2</v>
@@ -1225,13 +1225,13 @@
         <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1240,13 +1240,13 @@
         <v>2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T6" t="n">
         <v>1.77</v>
@@ -1258,10 +1258,10 @@
         <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
         <v>20</v>
@@ -1303,7 +1303,7 @@
         <v>16.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
         <v>85</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.8</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
         <v>3.85</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1378,10 +1378,10 @@
         <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
         <v>1.74</v>
@@ -1390,10 +1390,10 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W7" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
         <v>16</v>
@@ -1405,10 +1405,10 @@
         <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
         <v>8.4</v>
@@ -1420,10 +1420,10 @@
         <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
         <v>16.5</v>
@@ -1435,16 +1435,16 @@
         <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
         <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO7" t="n">
         <v>13.5</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J8" t="n">
         <v>3.95</v>
@@ -1507,16 +1507,16 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
         <v>1.6</v>
@@ -1525,22 +1525,22 @@
         <v>2.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
         <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
         <v>15.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB8" t="n">
         <v>18.5</v>
@@ -1555,16 +1555,16 @@
         <v>19.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ8" t="n">
         <v>60</v>
@@ -1576,7 +1576,7 @@
         <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
         <v>24</v>
@@ -1612,67 +1612,67 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.22</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.23</v>
-      </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q9" t="n">
         <v>1.4</v>
       </c>
       <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.97</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
       </c>
       <c r="T9" t="n">
         <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1687,7 +1687,7 @@
         <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AF9" t="n">
         <v>9.4</v>
@@ -1699,25 +1699,25 @@
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ9" t="n">
         <v>9.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
         <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AO9" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="G10" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I10" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="J10" t="n">
         <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.31</v>
@@ -1771,16 +1771,16 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
         <v>1.61</v>
@@ -1795,10 +1795,10 @@
         <v>2.36</v>
       </c>
       <c r="V10" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
         <v>24</v>
@@ -1813,34 +1813,34 @@
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="n">
         <v>55</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.31</v>
@@ -1912,40 +1912,40 @@
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
         <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB11" t="n">
         <v>12.5</v>
@@ -1963,7 +1963,7 @@
         <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
         <v>16.5</v>
@@ -1972,22 +1972,22 @@
         <v>48</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
         <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM11" t="n">
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -2020,28 +2020,28 @@
         <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>2.44</v>
       </c>
       <c r="I12" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.31</v>
@@ -2050,25 +2050,25 @@
         <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2080,10 +2080,10 @@
         <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
@@ -2092,7 +2092,7 @@
         <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2107,22 +2107,22 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2152,64 +2152,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.41</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.43</v>
-      </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="W13" t="n">
         <v>1.11</v>
       </c>
       <c r="X13" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Z13" t="n">
         <v>8.800000000000001</v>
@@ -2221,43 +2221,43 @@
         <v>85</v>
       </c>
       <c r="AC13" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
         <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AH13" t="n">
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="AK13" t="n">
         <v>140</v>
       </c>
       <c r="AL13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G14" t="n">
         <v>4</v>
       </c>
-      <c r="G14" t="n">
-        <v>4.2</v>
-      </c>
       <c r="H14" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="I14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2305,22 +2305,22 @@
         <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R14" t="n">
         <v>1.4</v>
@@ -2329,19 +2329,19 @@
         <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
         <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
@@ -2350,13 +2350,13 @@
         <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>10.5</v>
@@ -2365,10 +2365,10 @@
         <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
@@ -2377,22 +2377,22 @@
         <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AN14" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="15">
@@ -2422,64 +2422,64 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I15" t="n">
         <v>2.42</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V15" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W15" t="n">
         <v>1.39</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z15" t="n">
         <v>14</v>
@@ -2491,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
@@ -2515,16 +2515,16 @@
         <v>70</v>
       </c>
       <c r="AK15" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="AO15" t="n">
         <v>29</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
         <v>2.2</v>
@@ -2566,13 +2566,13 @@
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>1.41</v>
@@ -2581,58 +2581,58 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
         <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
         <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AF16" t="n">
         <v>13.5</v>
@@ -2644,7 +2644,7 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AJ16" t="n">
         <v>27</v>
@@ -2656,13 +2656,13 @@
         <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.41</v>
@@ -2716,37 +2716,37 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
         <v>15</v>
@@ -2755,19 +2755,19 @@
         <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
         <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
         <v>14.5</v>
@@ -2776,28 +2776,28 @@
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO17" t="n">
         <v>36</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -2836,7 +2836,7 @@
         <v>2.48</v>
       </c>
       <c r="I18" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
@@ -2845,28 +2845,28 @@
         <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
         <v>1.77</v>
@@ -2875,13 +2875,13 @@
         <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W18" t="n">
         <v>1.46</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>10.5</v>
@@ -2914,7 +2914,7 @@
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
         <v>55</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.47</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.48</v>
-      </c>
       <c r="H19" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K19" t="n">
         <v>5.4</v>
@@ -2995,31 +2995,31 @@
         <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="Z19" t="n">
         <v>170</v>
@@ -3031,10 +3031,10 @@
         <v>9.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>120</v>
@@ -3049,7 +3049,7 @@
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="AJ19" t="n">
         <v>13</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="J20" t="n">
         <v>4.2</v>
@@ -3121,31 +3121,31 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U20" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="V20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
         <v>1.73</v>
@@ -3169,7 +3169,7 @@
         <v>42</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3181,7 +3181,7 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3199,10 +3199,10 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>16.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
@@ -3238,34 +3238,34 @@
         <v>1.97</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
         <v>4.5</v>
       </c>
       <c r="J21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.8</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
         <v>1.35</v>
@@ -3274,7 +3274,7 @@
         <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U21" t="n">
         <v>2.06</v>
@@ -3286,10 +3286,10 @@
         <v>2.02</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
         <v>32</v>
@@ -3304,7 +3304,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G22" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.35</v>
       </c>
       <c r="H22" t="n">
         <v>2.34</v>
@@ -3400,7 +3400,7 @@
         <v>2.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R22" t="n">
         <v>1.43</v>
@@ -3409,10 +3409,10 @@
         <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V22" t="n">
         <v>1.73</v>
@@ -3448,13 +3448,13 @@
         <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
         <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
         <v>60</v>
@@ -3508,103 +3508,103 @@
         <v>1.52</v>
       </c>
       <c r="H23" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I23" t="n">
         <v>7.6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K23" t="n">
         <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U23" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="V23" t="n">
         <v>1.15</v>
       </c>
       <c r="W23" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="n">
         <v>65</v>
       </c>
       <c r="AA23" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AB23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC23" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>11</v>
-      </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE23" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG23" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AO23" t="n">
         <v>130</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G24" t="n">
         <v>5.5</v>
@@ -3646,37 +3646,37 @@
         <v>1.67</v>
       </c>
       <c r="I24" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J24" t="n">
         <v>4.5</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.32</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T24" t="n">
         <v>1.74</v>
@@ -3685,7 +3685,7 @@
         <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="W24" t="n">
         <v>1.22</v>
@@ -3697,13 +3697,13 @@
         <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC24" t="n">
         <v>10</v>
@@ -3715,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -3727,10 +3727,10 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL24" t="n">
         <v>60</v>
@@ -3742,7 +3742,7 @@
         <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="25">
@@ -3772,85 +3772,85 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.28</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H25" t="n">
-        <v>13</v>
-      </c>
-      <c r="I25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.26</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U25" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="V25" t="n">
         <v>1.08</v>
       </c>
       <c r="W25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X25" t="n">
         <v>30</v>
       </c>
       <c r="Y25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA25" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD25" t="n">
         <v>44</v>
       </c>
       <c r="AE25" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
@@ -3859,25 +3859,25 @@
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ25" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
         <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AO25" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G26" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="H26" t="n">
         <v>3.25</v>
@@ -3925,7 +3925,7 @@
         <v>3.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
@@ -3937,10 +3937,10 @@
         <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>1.37</v>
@@ -3958,7 +3958,7 @@
         <v>1.43</v>
       </c>
       <c r="W26" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X26" t="n">
         <v>13.5</v>
@@ -3988,13 +3988,13 @@
         <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ26" t="n">
         <v>32</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H27" t="n">
         <v>1.73</v>
@@ -4081,22 +4081,22 @@
         <v>1.6</v>
       </c>
       <c r="S27" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T27" t="n">
         <v>1.68</v>
       </c>
       <c r="U27" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W27" t="n">
         <v>1.24</v>
       </c>
       <c r="X27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
         <v>12</v>
@@ -4105,7 +4105,7 @@
         <v>12</v>
       </c>
       <c r="AA27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB27" t="n">
         <v>23</v>
@@ -4117,7 +4117,7 @@
         <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF27" t="n">
         <v>42</v>
@@ -4126,7 +4126,7 @@
         <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI27" t="n">
         <v>26</v>
@@ -4147,7 +4147,7 @@
         <v>44</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="28">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.25</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H28" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="I28" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="J28" t="n">
         <v>7.4</v>
@@ -4213,13 +4213,13 @@
         <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
         <v>2.8</v>
       </c>
       <c r="T28" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="U28" t="n">
         <v>1.63</v>
@@ -4228,7 +4228,7 @@
         <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="X28" t="n">
         <v>24</v>
@@ -4237,7 +4237,7 @@
         <v>42</v>
       </c>
       <c r="Z28" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4246,13 +4246,13 @@
         <v>8.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AE28" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
@@ -4264,10 +4264,10 @@
         <v>48</v>
       </c>
       <c r="AI28" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK28" t="n">
         <v>15.5</v>
@@ -4315,13 +4315,13 @@
         <v>3.35</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
         <v>2.34</v>
       </c>
       <c r="I29" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J29" t="n">
         <v>3.55</v>
@@ -4330,19 +4330,19 @@
         <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O29" t="n">
         <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -4351,22 +4351,22 @@
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U29" t="n">
         <v>2.2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W29" t="n">
         <v>1.41</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4378,7 +4378,7 @@
         <v>30</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>7.8</v>
@@ -4396,7 +4396,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
         <v>38</v>
@@ -4417,7 +4417,7 @@
         <v>36</v>
       </c>
       <c r="AO29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -4459,7 +4459,7 @@
         <v>2.12</v>
       </c>
       <c r="J30" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K30" t="n">
         <v>3.95</v>
@@ -4477,22 +4477,22 @@
         <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q30" t="n">
         <v>1.91</v>
       </c>
       <c r="R30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S30" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V30" t="n">
         <v>1.89</v>
@@ -4501,13 +4501,13 @@
         <v>1.35</v>
       </c>
       <c r="X30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
         <v>26</v>
@@ -4516,43 +4516,43 @@
         <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF30" t="n">
         <v>28</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AJ30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN30" t="n">
         <v>44</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="31">
@@ -4582,52 +4582,52 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K31" t="n">
         <v>4.4</v>
       </c>
-      <c r="K31" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="n">
         <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T31" t="n">
         <v>2.14</v>
       </c>
-      <c r="R31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.22</v>
-      </c>
       <c r="U31" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V31" t="n">
         <v>1.15</v>
@@ -4636,28 +4636,28 @@
         <v>2.72</v>
       </c>
       <c r="X31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
         <v>75</v>
       </c>
       <c r="AA31" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="AB31" t="n">
         <v>7</v>
       </c>
       <c r="AC31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="n">
         <v>8.199999999999999</v>
@@ -4666,16 +4666,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI31" t="n">
         <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AL31" t="n">
         <v>46</v>
@@ -4687,7 +4687,7 @@
         <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="J32" t="n">
         <v>8</v>
@@ -4747,64 +4747,64 @@
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S32" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T32" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U32" t="n">
         <v>1.6</v>
       </c>
       <c r="V32" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="W32" t="n">
         <v>1.04</v>
       </c>
       <c r="X32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AB32" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD32" t="n">
         <v>12.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AF32" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
@@ -4813,16 +4813,16 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="AM32" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="33">
@@ -4852,73 +4852,73 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G33" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
         <v>2.08</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R33" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V33" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W33" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="X33" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
         <v>8.199999999999999</v>
@@ -4927,37 +4927,37 @@
         <v>13.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG33" t="n">
         <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI33" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL33" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AM33" t="n">
         <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="I34" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="J34" t="n">
         <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.35</v>
@@ -5011,52 +5011,52 @@
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R34" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
         <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W34" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y34" t="n">
         <v>8.6</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA34" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC34" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
         <v>18.5</v>
@@ -5065,31 +5065,31 @@
         <v>15.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AG34" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AH34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI34" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AJ34" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="AK34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN34" t="n">
         <v>160</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>200</v>
       </c>
       <c r="AO34" t="n">
         <v>6.4</v>
@@ -5128,16 +5128,16 @@
         <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I35" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L35" t="n">
         <v>1.34</v>
@@ -5152,22 +5152,22 @@
         <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R35" t="n">
         <v>1.56</v>
       </c>
       <c r="S35" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T35" t="n">
         <v>1.59</v>
       </c>
       <c r="U35" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V35" t="n">
         <v>1.67</v>
@@ -5176,19 +5176,19 @@
         <v>1.47</v>
       </c>
       <c r="X35" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y35" t="n">
         <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AB35" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AC35" t="n">
         <v>8.800000000000001</v>
@@ -5200,7 +5200,7 @@
         <v>24</v>
       </c>
       <c r="AF35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG35" t="n">
         <v>13.5</v>
@@ -5209,25 +5209,25 @@
         <v>15</v>
       </c>
       <c r="AI35" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AJ35" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AK35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL35" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G36" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H36" t="n">
         <v>4.4</v>
@@ -5269,10 +5269,10 @@
         <v>4.6</v>
       </c>
       <c r="J36" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>1.41</v>
@@ -5281,37 +5281,37 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R36" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U36" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V36" t="n">
         <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X36" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
         <v>16.5</v>
@@ -5323,10 +5323,10 @@
         <v>100</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD36" t="n">
         <v>17.5</v>
@@ -5338,28 +5338,28 @@
         <v>12</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH36" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI36" t="n">
         <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK36" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL36" t="n">
         <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO36" t="n">
         <v>55</v>
@@ -5398,31 +5398,31 @@
         <v>6.4</v>
       </c>
       <c r="H37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I37" t="n">
         <v>1.64</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.65</v>
-      </c>
       <c r="J37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O37" t="n">
         <v>1.26</v>
       </c>
       <c r="P37" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q37" t="n">
         <v>1.78</v>
@@ -5431,16 +5431,16 @@
         <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T37" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="U37" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V37" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="W37" t="n">
         <v>1.18</v>
@@ -5449,28 +5449,28 @@
         <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE37" t="n">
         <v>16</v>
       </c>
       <c r="AF37" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG37" t="n">
         <v>23</v>
@@ -5482,22 +5482,22 @@
         <v>34</v>
       </c>
       <c r="AJ37" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="n">
         <v>160</v>
       </c>
-      <c r="AK37" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>75</v>
-      </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H38" t="n">
         <v>1.58</v>
       </c>
       <c r="I38" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K38" t="n">
         <v>4.8</v>
@@ -5554,13 +5554,13 @@
         <v>4.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P38" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R38" t="n">
         <v>1.43</v>
@@ -5572,19 +5572,19 @@
         <v>1.87</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V38" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W38" t="n">
         <v>1.17</v>
       </c>
       <c r="X38" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="Z38" t="n">
         <v>9.800000000000001</v>
@@ -5599,16 +5599,16 @@
         <v>10.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
         <v>55</v>
       </c>
       <c r="AG38" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="n">
         <v>23</v>
@@ -5617,22 +5617,22 @@
         <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AK38" t="n">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="AL38" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM38" t="n">
-        <v>470</v>
+        <v>130</v>
       </c>
       <c r="AN38" t="n">
         <v>110</v>
       </c>
       <c r="AO38" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="39">
@@ -5662,112 +5662,112 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H39" t="n">
         <v>2.24</v>
       </c>
-      <c r="G39" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.76</v>
-      </c>
       <c r="I39" t="n">
-        <v>3.05</v>
+        <v>2.46</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K39" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P39" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R39" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S39" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="T39" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="U39" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="W39" t="n">
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC39" t="n">
         <v>42</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>60</v>
       </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AN39" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AO39" t="n">
-        <v>48</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5797,31 +5797,31 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G40" t="n">
         <v>1.2</v>
       </c>
-      <c r="G40" t="n">
-        <v>1.25</v>
-      </c>
       <c r="H40" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="I40" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J40" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="K40" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>2.24</v>
+        <v>12</v>
       </c>
       <c r="O40" t="n">
         <v>1.06</v>
@@ -5833,22 +5833,22 @@
         <v>1.21</v>
       </c>
       <c r="R40" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="S40" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="T40" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="U40" t="n">
         <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="W40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5878,13 +5878,13 @@
         <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH40" t="n">
         <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,82 +5932,82 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="G41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J41" t="n">
         <v>4.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.4</v>
-      </c>
       <c r="K41" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P41" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q41" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T41" t="n">
         <v>1.42</v>
       </c>
-      <c r="R41" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S41" t="n">
+      <c r="U41" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V41" t="n">
         <v>2</v>
       </c>
-      <c r="T41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.16</v>
-      </c>
       <c r="W41" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y41" t="n">
         <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC41" t="n">
         <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
         <v>1000</v>
@@ -6016,19 +6016,19 @@
         <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
@@ -6037,7 +6037,7 @@
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="42">
@@ -6067,67 +6067,67 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="G42" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="I42" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="J42" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K42" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L42" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.24</v>
+        <v>15</v>
       </c>
       <c r="O42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P42" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.05</v>
       </c>
-      <c r="P42" t="n">
+      <c r="W42" t="n">
         <v>6</v>
       </c>
-      <c r="Q42" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W42" t="n">
-        <v>5.3</v>
-      </c>
       <c r="X42" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="Y42" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="Z42" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6142,7 +6142,7 @@
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,64 +6202,64 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.7</v>
+        <v>2.94</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="I43" t="n">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="J43" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="K43" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L43" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O43" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R43" t="n">
         <v>1.42</v>
       </c>
       <c r="S43" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="T43" t="n">
         <v>1.62</v>
       </c>
       <c r="U43" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="V43" t="n">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="W43" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
         <v>1000</v>
@@ -6274,7 +6274,7 @@
         <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
         <v>1000</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6337,25 +6337,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G44" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I44" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6367,28 +6367,28 @@
         <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R44" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U44" t="n">
         <v>2.2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W44" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X44" t="n">
         <v>15</v>
@@ -6406,22 +6406,22 @@
         <v>10.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD44" t="n">
         <v>15.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG44" t="n">
         <v>10.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI44" t="n">
         <v>50</v>
@@ -6430,7 +6430,7 @@
         <v>28</v>
       </c>
       <c r="AK44" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL44" t="n">
         <v>36</v>
@@ -6439,10 +6439,10 @@
         <v>90</v>
       </c>
       <c r="AN44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO44" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.76</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2.78</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W2" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G3" t="n">
         <v>3.95</v>
       </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="I3" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="J3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.65</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -838,40 +838,40 @@
         <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
         <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
         <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -883,31 +883,31 @@
         <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
         <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -937,76 +937,76 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="I4" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="W4" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
         <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
         <v>11</v>
@@ -1015,10 +1015,10 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
         <v>16.5</v>
@@ -1027,19 +1027,19 @@
         <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
         <v>14</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.97</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD5" t="n">
         <v>10</v>
       </c>
-      <c r="AA5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG5" t="n">
         <v>17</v>
       </c>
-      <c r="AC5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AH5" t="n">
         <v>18</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
         <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="S6" t="n">
-        <v>2.94</v>
+        <v>2.54</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.24</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.28</v>
-      </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z6" t="n">
         <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>18</v>
       </c>
-      <c r="AI6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AK6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G7" t="n">
         <v>3.95</v>
@@ -1357,10 +1357,10 @@
         <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1375,10 +1375,10 @@
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
         <v>3.15</v>
@@ -1387,7 +1387,7 @@
         <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
         <v>1.92</v>
@@ -1399,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>13</v>
@@ -1408,7 +1408,7 @@
         <v>24</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.4</v>
@@ -1417,7 +1417,7 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>28</v>
@@ -1432,13 +1432,13 @@
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
         <v>80</v>
@@ -1447,7 +1447,7 @@
         <v>42</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="I8" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="J8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>1.31</v>
@@ -1501,88 +1501,88 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.58</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
         <v>19.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG8" t="n">
         <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AI8" t="n">
         <v>27</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL8" t="n">
         <v>34</v>
       </c>
-      <c r="AL8" t="n">
-        <v>36</v>
-      </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,97 +1612,97 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="G9" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="H9" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="J9" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="S9" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="T9" t="n">
         <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="X9" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="Y9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -1711,13 +1711,13 @@
         <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="AO9" t="n">
-        <v>290</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.72</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.73</v>
-      </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
         <v>2.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD10" t="n">
         <v>10</v>
       </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
         <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.3</v>
       </c>
-      <c r="K11" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="H12" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="I12" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="J12" t="n">
         <v>3.7</v>
@@ -2035,94 +2035,94 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
         <v>16</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>38</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="n">
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
         <v>1.4</v>
@@ -2164,100 +2164,100 @@
         <v>1.41</v>
       </c>
       <c r="J13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K13" t="n">
         <v>5.4</v>
       </c>
-      <c r="K13" t="n">
-        <v>5.6</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="V13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="W13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="AK13" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="AL13" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>790</v>
       </c>
       <c r="AN13" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I14" t="n">
         <v>2.1</v>
       </c>
       <c r="J14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>1.41</v>
@@ -2314,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
         <v>2.02</v>
@@ -2323,40 +2323,40 @@
         <v>1.94</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
         <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>25</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>10.5</v>
@@ -2365,34 +2365,34 @@
         <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="n">
         <v>48</v>
       </c>
       <c r="AL14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN14" t="n">
         <v>55</v>
       </c>
-      <c r="AM14" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>46</v>
-      </c>
       <c r="AO14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.38</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.42</v>
       </c>
       <c r="J15" t="n">
         <v>3.3</v>
@@ -2440,7 +2440,7 @@
         <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -2449,13 +2449,13 @@
         <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R15" t="n">
         <v>1.25</v>
@@ -2467,67 +2467,67 @@
         <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
       </c>
       <c r="AI15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="n">
         <v>55</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
         <v>70</v>
       </c>
-      <c r="AK15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>110</v>
-      </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2584,7 +2584,7 @@
         <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
         <v>2.04</v>
@@ -2596,31 +2596,31 @@
         <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
         <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
@@ -2629,10 +2629,10 @@
         <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
         <v>13.5</v>
@@ -2644,7 +2644,7 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
         <v>27</v>
@@ -2656,13 +2656,13 @@
         <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
         <v>15.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G17" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2722,58 +2722,58 @@
         <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R17" t="n">
         <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="n">
         <v>2.28</v>
       </c>
       <c r="V17" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
         <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>16.5</v>
@@ -2794,7 +2794,7 @@
         <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO17" t="n">
         <v>36</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="I18" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
@@ -2845,94 +2845,94 @@
         <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W18" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
         <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL18" t="n">
         <v>55</v>
       </c>
-      <c r="AK18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>48</v>
-      </c>
       <c r="AM18" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -2968,7 +2968,7 @@
         <v>1.47</v>
       </c>
       <c r="H19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I19" t="n">
         <v>8.199999999999999</v>
@@ -2980,49 +2980,49 @@
         <v>5.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
         <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W19" t="n">
         <v>3.1</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="n">
         <v>250</v>
@@ -3043,31 +3043,31 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
         <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
         <v>6.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="H20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P20" t="n">
         <v>2.78</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.92</v>
-      </c>
       <c r="Q20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="T20" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="U20" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="W20" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB20" t="n">
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3232,46 +3232,46 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O21" t="n">
         <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q21" t="n">
         <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
         <v>1.89</v>
@@ -3280,13 +3280,13 @@
         <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
         <v>15</v>
@@ -3301,10 +3301,10 @@
         <v>8.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
@@ -3316,7 +3316,7 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI21" t="n">
         <v>65</v>
@@ -3331,10 +3331,10 @@
         <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>65</v>
@@ -3370,58 +3370,58 @@
         <v>3.25</v>
       </c>
       <c r="G22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S22" t="n">
         <v>3.3</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.2</v>
-      </c>
       <c r="T22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.72</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.73</v>
       </c>
       <c r="W22" t="n">
         <v>1.42</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -3430,10 +3430,10 @@
         <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
@@ -3442,7 +3442,7 @@
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF22" t="n">
         <v>23</v>
@@ -3454,10 +3454,10 @@
         <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
         <v>40</v>
@@ -3472,7 +3472,7 @@
         <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G23" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H23" t="n">
         <v>7.4</v>
       </c>
       <c r="I23" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K23" t="n">
         <v>5</v>
@@ -3538,22 +3538,22 @@
         <v>1.73</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
         <v>2.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U23" t="n">
         <v>2.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W23" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3568,10 +3568,10 @@
         <v>230</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>27</v>
@@ -3583,13 +3583,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
@@ -3598,7 +3598,7 @@
         <v>14.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
         <v>110</v>
@@ -3637,61 +3637,61 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G24" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H24" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="I24" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
         <v>2.62</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="W24" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
         <v>11.5</v>
@@ -3700,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB24" t="n">
         <v>24</v>
@@ -3709,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -3718,16 +3718,16 @@
         <v>46</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ24" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="n">
         <v>65</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.29</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J25" t="n">
         <v>6.6</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.28</v>
@@ -3808,34 +3808,34 @@
         <v>1.56</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S25" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T25" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V25" t="n">
         <v>1.08</v>
       </c>
       <c r="W25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X25" t="n">
         <v>30</v>
       </c>
       <c r="Y25" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="n">
         <v>130</v>
       </c>
       <c r="AA25" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
@@ -3850,7 +3850,7 @@
         <v>190</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
@@ -3871,13 +3871,13 @@
         <v>36</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="n">
         <v>4.3</v>
       </c>
       <c r="AO25" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>2.42</v>
       </c>
       <c r="G26" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H26" t="n">
         <v>3.25</v>
@@ -3934,31 +3934,31 @@
         <v>3.85</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
         <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U26" t="n">
         <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W26" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X26" t="n">
         <v>13.5</v>
@@ -3988,13 +3988,13 @@
         <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ26" t="n">
         <v>32</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H27" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="I27" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="J27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.32</v>
@@ -4072,16 +4072,16 @@
         <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
         <v>1.6</v>
       </c>
       <c r="S27" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T27" t="n">
         <v>1.68</v>
@@ -4093,16 +4093,16 @@
         <v>2.36</v>
       </c>
       <c r="W27" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA27" t="n">
         <v>17.5</v>
@@ -4111,19 +4111,19 @@
         <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
         <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF27" t="n">
         <v>42</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH27" t="n">
         <v>17.5</v>
@@ -4144,7 +4144,7 @@
         <v>75</v>
       </c>
       <c r="AN27" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO27" t="n">
         <v>7.6</v>
@@ -4201,28 +4201,28 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S28" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="T28" t="n">
         <v>2.52</v>
       </c>
       <c r="U28" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V28" t="n">
         <v>1.06</v>
@@ -4231,55 +4231,55 @@
         <v>5</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
         <v>42</v>
       </c>
       <c r="Z28" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD28" t="n">
         <v>70</v>
       </c>
       <c r="AE28" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AG28" t="n">
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I29" t="n">
         <v>2.34</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.36</v>
       </c>
       <c r="J29" t="n">
         <v>3.55</v>
@@ -4330,55 +4330,55 @@
         <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R29" t="n">
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
         <v>1.8</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
         <v>13.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
         <v>7.8</v>
@@ -4387,13 +4387,13 @@
         <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH29" t="n">
         <v>17</v>
@@ -4402,10 +4402,10 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK29" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL29" t="n">
         <v>48</v>
@@ -4414,7 +4414,7 @@
         <v>90</v>
       </c>
       <c r="AN29" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO29" t="n">
         <v>18</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="I30" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="J30" t="n">
         <v>3.85</v>
@@ -4465,67 +4465,67 @@
         <v>3.95</v>
       </c>
       <c r="L30" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P30" t="n">
         <v>2.04</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R30" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U30" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="W30" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB30" t="n">
         <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AG30" t="n">
         <v>16.5</v>
@@ -4537,22 +4537,22 @@
         <v>50</v>
       </c>
       <c r="AJ30" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK30" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AL30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN30" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO30" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -4582,49 +4582,49 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G31" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K31" t="n">
         <v>4.3</v>
       </c>
-      <c r="K31" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R31" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U31" t="n">
         <v>1.77</v>
@@ -4633,49 +4633,49 @@
         <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z31" t="n">
         <v>75</v>
       </c>
       <c r="AA31" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AB31" t="n">
         <v>7</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
         <v>30</v>
       </c>
       <c r="AE31" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="AF31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL31" t="n">
         <v>46</v>
@@ -4687,7 +4687,7 @@
         <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32">
@@ -4717,94 +4717,94 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="I32" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="R32" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="S32" t="n">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="T32" t="n">
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
       <c r="U32" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="V32" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="W32" t="n">
         <v>1.04</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC32" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE32" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AH32" t="n">
         <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
@@ -4813,16 +4813,16 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="G33" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="H33" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I33" t="n">
         <v>3.15</v>
       </c>
-      <c r="I33" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J33" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
         <v>3.7</v>
@@ -4876,19 +4876,19 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P33" t="n">
         <v>2.08</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R33" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S33" t="n">
         <v>3.2</v>
@@ -4897,13 +4897,13 @@
         <v>1.73</v>
       </c>
       <c r="U33" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V33" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W33" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="X33" t="n">
         <v>17</v>
@@ -4915,7 +4915,7 @@
         <v>22</v>
       </c>
       <c r="AA33" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AB33" t="n">
         <v>12</v>
@@ -4930,10 +4930,10 @@
         <v>34</v>
       </c>
       <c r="AF33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
         <v>16</v>
@@ -4942,10 +4942,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
         <v>36</v>
@@ -4954,10 +4954,10 @@
         <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO33" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -4987,112 +4987,112 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="G34" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I34" t="n">
         <v>1.42</v>
       </c>
-      <c r="I34" t="n">
-        <v>1.44</v>
-      </c>
       <c r="J34" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.77</v>
       </c>
-      <c r="R34" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.89</v>
-      </c>
       <c r="V34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W34" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X34" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA34" t="n">
         <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AE34" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF34" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AG34" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AH34" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AI34" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="AK34" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AL34" t="n">
         <v>290</v>
       </c>
       <c r="AM34" t="n">
-        <v>170</v>
+        <v>790</v>
       </c>
       <c r="AN34" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="AO34" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H35" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I35" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
@@ -5140,55 +5140,55 @@
         <v>3.85</v>
       </c>
       <c r="L35" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O35" t="n">
         <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R35" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S35" t="n">
         <v>2.64</v>
       </c>
       <c r="T35" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U35" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V35" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="W35" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X35" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA35" t="n">
         <v>34</v>
       </c>
       <c r="AB35" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
         <v>8.800000000000001</v>
@@ -5197,25 +5197,25 @@
         <v>12</v>
       </c>
       <c r="AE35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG35" t="n">
         <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AK35" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL35" t="n">
         <v>34</v>
@@ -5257,25 +5257,25 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="G36" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="H36" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I36" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
         <v>3.95</v>
       </c>
       <c r="L36" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
@@ -5290,79 +5290,79 @@
         <v>2.08</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R36" t="n">
         <v>1.43</v>
       </c>
       <c r="S36" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U36" t="n">
         <v>2.2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W36" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA36" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
         <v>12</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="AK36" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM36" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN36" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -5392,31 +5392,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G37" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="I37" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="J37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O37" t="n">
         <v>1.26</v>
@@ -5425,22 +5425,22 @@
         <v>2.24</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R37" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S37" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T37" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V37" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="W37" t="n">
         <v>1.18</v>
@@ -5452,28 +5452,28 @@
         <v>10.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA37" t="n">
         <v>15</v>
       </c>
       <c r="AB37" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD37" t="n">
         <v>10.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AG37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH37" t="n">
         <v>21</v>
@@ -5488,16 +5488,16 @@
         <v>80</v>
       </c>
       <c r="AL37" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="38">
@@ -5533,13 +5533,13 @@
         <v>6.6</v>
       </c>
       <c r="H38" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="I38" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="J38" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
         <v>4.8</v>
@@ -5548,7 +5548,7 @@
         <v>1.38</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
         <v>4.3</v>
@@ -5566,25 +5566,25 @@
         <v>1.43</v>
       </c>
       <c r="S38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U38" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="V38" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="W38" t="n">
         <v>1.17</v>
       </c>
       <c r="X38" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z38" t="n">
         <v>9.800000000000001</v>
@@ -5593,46 +5593,46 @@
         <v>15.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD38" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD38" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF38" t="n">
         <v>55</v>
       </c>
       <c r="AG38" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI38" t="n">
         <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AK38" t="n">
         <v>290</v>
       </c>
       <c r="AL38" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AM38" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN38" t="n">
         <v>110</v>
       </c>
       <c r="AO38" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -5662,76 +5662,76 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G39" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I39" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="J39" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K39" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P39" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T39" t="n">
         <v>1.36</v>
       </c>
-      <c r="R39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.38</v>
-      </c>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="V39" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="W39" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
         <v>90</v>
       </c>
       <c r="Y39" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z39" t="n">
         <v>25</v>
       </c>
-      <c r="Z39" t="n">
-        <v>30</v>
-      </c>
       <c r="AA39" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB39" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AC39" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD39" t="n">
         <v>13</v>
@@ -5740,7 +5740,7 @@
         <v>22</v>
       </c>
       <c r="AF39" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG39" t="n">
         <v>15</v>
@@ -5749,25 +5749,25 @@
         <v>25</v>
       </c>
       <c r="AI39" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ39" t="n">
         <v>60</v>
       </c>
       <c r="AK39" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AL39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM39" t="n">
         <v>46</v>
       </c>
       <c r="AN39" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AO39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5797,58 +5797,58 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="H40" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="I40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K40" t="n">
         <v>21</v>
       </c>
-      <c r="J40" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>13.5</v>
-      </c>
       <c r="L40" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P40" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="R40" t="n">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="S40" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="T40" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U40" t="n">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="V40" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5878,13 +5878,13 @@
         <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
         <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>2.36</v>
+        <v>1.97</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,76 +5932,76 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="G41" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="H41" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="I41" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="J41" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K41" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.12</v>
       </c>
       <c r="P41" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="R41" t="n">
         <v>1.94</v>
       </c>
       <c r="S41" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U41" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="W41" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="X41" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB41" t="n">
         <v>34</v>
       </c>
-      <c r="Y41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>30</v>
-      </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD41" t="n">
         <v>11.5</v>
@@ -6010,34 +6010,34 @@
         <v>17</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH41" t="n">
         <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL41" t="n">
         <v>36</v>
       </c>
-      <c r="AL41" t="n">
-        <v>34</v>
-      </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="42">
@@ -6067,64 +6067,64 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G42" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H42" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I42" t="n">
+        <v>34</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K42" t="n">
         <v>21</v>
       </c>
-      <c r="J42" t="n">
-        <v>10</v>
-      </c>
-      <c r="K42" t="n">
-        <v>14</v>
-      </c>
       <c r="L42" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="O42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W42" t="n">
         <v>6.8</v>
       </c>
-      <c r="Q42" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W42" t="n">
-        <v>6</v>
-      </c>
       <c r="X42" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G43" t="n">
         <v>3.5</v>
       </c>
       <c r="H43" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I43" t="n">
         <v>2.72</v>
@@ -6220,7 +6220,7 @@
         <v>3.75</v>
       </c>
       <c r="L43" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
@@ -6244,10 +6244,10 @@
         <v>2.92</v>
       </c>
       <c r="T43" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U43" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V43" t="n">
         <v>1.58</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G44" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H44" t="n">
         <v>3.75</v>
@@ -6349,31 +6349,31 @@
         <v>3.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="n">
         <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P44" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R44" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S44" t="n">
         <v>3.3</v>
@@ -6388,10 +6388,10 @@
         <v>1.34</v>
       </c>
       <c r="W44" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y44" t="n">
         <v>15</v>
@@ -6406,7 +6406,7 @@
         <v>10.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD44" t="n">
         <v>15.5</v>
@@ -6418,10 +6418,10 @@
         <v>14</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI44" t="n">
         <v>50</v>
@@ -6439,10 +6439,10 @@
         <v>90</v>
       </c>
       <c r="AN44" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>3.15</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>2.76</v>
+        <v>1.28</v>
       </c>
       <c r="I2" t="n">
-        <v>2.78</v>
+        <v>1.29</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>2.22</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>4.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>1.71</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>7.6</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>5.8</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="AN2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16</v>
+        <v>29</v>
       </c>
       <c r="I3" t="n">
-        <v>2.18</v>
+        <v>42</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.85</v>
+        <v>1.03</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>3.9</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1.67</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>5.4</v>
       </c>
       <c r="AN3" t="n">
-        <v>50</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.55</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>1.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22</v>
+        <v>1.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>1.73</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>2.34</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>60</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>3.9</v>
       </c>
       <c r="U4" t="n">
-        <v>2.36</v>
+        <v>1.29</v>
       </c>
       <c r="V4" t="n">
-        <v>1.82</v>
+        <v>5.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>1.63</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.93</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>1.94</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>1.66</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>10.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.06</v>
+        <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>4.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>32</v>
       </c>
-      <c r="AG5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18</v>
-      </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="AJ5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.79</v>
+        <v>1.11</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>18.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8</v>
+        <v>190</v>
       </c>
       <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S6" t="n">
+        <v>120</v>
+      </c>
+      <c r="T6" t="n">
         <v>4.3</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.48</v>
+        <v>1.19</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>2.24</v>
+        <v>8.6</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>1.51</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="AE6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="AK6" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>6.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>1.13</v>
       </c>
       <c r="V7" t="n">
-        <v>1.92</v>
+        <v>100</v>
       </c>
       <c r="W7" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>24</v>
+        <v>1.52</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>46</v>
       </c>
       <c r="H8" t="n">
-        <v>2.26</v>
+        <v>1.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.28</v>
+        <v>1.26</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>1.81</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>2.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>9.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="S8" t="n">
-        <v>2.48</v>
+        <v>75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.7</v>
+        <v>1.33</v>
       </c>
       <c r="V8" t="n">
-        <v>1.78</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>1.85</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AF8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="AI8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="H9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="I9" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.01</v>
       </c>
-      <c r="N9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="W9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
         <v>2.16</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X9" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>220</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>13</v>
-      </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="AO9" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H10" t="n">
+        <v>48</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S10" t="n">
+        <v>70</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W10" t="n">
         <v>5.4</v>
       </c>
-      <c r="G10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
         <v>1.72</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>380</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.77</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.78</v>
+        <v>1.19</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>100</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S11" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.76</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>2.28</v>
+        <v>6.6</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>1.76</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>8.6</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>4.9</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.4</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>1.03</v>
       </c>
       <c r="G12" t="n">
-        <v>2.84</v>
+        <v>1.04</v>
       </c>
       <c r="H12" t="n">
-        <v>2.64</v>
+        <v>90</v>
       </c>
       <c r="I12" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>28</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>50</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>7.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>1.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>34</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>470</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AK12" t="n">
         <v>28</v>
       </c>
-      <c r="AF12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9.800000000000001</v>
+        <v>230</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="I13" t="n">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>65</v>
       </c>
       <c r="K13" t="n">
-        <v>5.4</v>
+        <v>290</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>8.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.16</v>
+        <v>6.6</v>
       </c>
       <c r="U13" t="n">
-        <v>1.76</v>
+        <v>1.15</v>
       </c>
       <c r="V13" t="n">
-        <v>3.45</v>
+        <v>55</v>
       </c>
       <c r="W13" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.4</v>
+        <v>1.83</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AJ13" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>60</v>
       </c>
       <c r="H14" t="n">
-        <v>2.06</v>
+        <v>1.23</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>5.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.92</v>
+        <v>5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.31</v>
+        <v>1.02</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AE14" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>21</v>
-      </c>
       <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>990</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
         <v>30</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15.5</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.6</v>
+        <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
-        <v>2.32</v>
+        <v>1.18</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>1.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>1.77</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>2.24</v>
       </c>
       <c r="P15" t="n">
-        <v>1.7</v>
+        <v>1.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.38</v>
+        <v>8.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="S15" t="n">
-        <v>4.6</v>
+        <v>48</v>
       </c>
       <c r="T15" t="n">
-        <v>1.97</v>
+        <v>4.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>5.6</v>
       </c>
       <c r="W15" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.4</v>
+        <v>1.92</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.5</v>
+        <v>5.2</v>
       </c>
       <c r="AA15" t="n">
         <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>27</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.12</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>2.18</v>
+        <v>18.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>1.43</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>1.47</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>1.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>1.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>50</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>3.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>1.86</v>
       </c>
       <c r="Z16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>530</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
         <v>27</v>
       </c>
-      <c r="AA16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>340</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.32</v>
+        <v>1.26</v>
       </c>
       <c r="G17" t="n">
-        <v>2.36</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>32</v>
       </c>
       <c r="I17" t="n">
-        <v>3.45</v>
+        <v>40</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="T17" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="W17" t="n">
-        <v>1.73</v>
+        <v>4.8</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>1.86</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>5.8</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AL17" t="n">
         <v>23</v>
       </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H18" t="n">
-        <v>2.38</v>
+        <v>5.1</v>
       </c>
       <c r="I18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2.42</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="S18" t="n">
-        <v>3.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T18" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.7</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>1.66</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>440</v>
       </c>
       <c r="AJ18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="G19" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="H19" t="n">
-        <v>7.6</v>
+        <v>55</v>
       </c>
       <c r="I19" t="n">
-        <v>8.199999999999999</v>
+        <v>95</v>
       </c>
       <c r="J19" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="K19" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="S19" t="n">
-        <v>2.8</v>
+        <v>1.96</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>2.06</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AI19" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.5</v>
+        <v>4.2</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="AO19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="G20" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="H20" t="n">
-        <v>2.64</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="S20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="U20" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AA20" t="n">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO20" t="n">
         <v>23</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3232,40 +3232,40 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
         <v>3.65</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
         <v>1.34</v>
@@ -3274,67 +3274,67 @@
         <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U21" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF21" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK21" t="n">
         <v>22</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AO21" t="n">
         <v>65</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.42</v>
@@ -3397,82 +3397,82 @@
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
         <v>3.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V22" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="X22" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AK22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
         <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -3502,70 +3502,70 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="H23" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="I23" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S23" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T23" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="U23" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z23" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="AB23" t="n">
         <v>9.4</v>
@@ -3574,40 +3574,40 @@
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="H24" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="I24" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="J24" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="S24" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V24" t="n">
         <v>2.3</v>
       </c>
-      <c r="V24" t="n">
-        <v>2.52</v>
-      </c>
       <c r="W24" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
       </c>
       <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z24" t="n">
-        <v>11</v>
-      </c>
       <c r="AA24" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="G25" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="H25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I25" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J25" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="K25" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R25" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="T25" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="U25" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="V25" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W25" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="X25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AA25" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD25" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AE25" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AO25" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26">
@@ -3907,76 +3907,76 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U26" t="n">
         <v>2.42</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W26" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA26" t="n">
         <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
         <v>13.5</v>
@@ -3985,34 +3985,34 @@
         <v>38</v>
       </c>
       <c r="AF26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN26" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AO26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="I27" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="J27" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
         <v>1.32</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P27" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U27" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.42</v>
-      </c>
       <c r="V27" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="W27" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y27" t="n">
         <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD27" t="n">
         <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AG27" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
         <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AK27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN27" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="28">
@@ -4177,67 +4177,67 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="G28" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="H28" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J28" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="R28" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="T28" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="U28" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="V28" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="W28" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Z28" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4246,40 +4246,40 @@
         <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AD28" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI28" t="n">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AK28" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,97 +4312,97 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="G29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N29" t="n">
         <v>3.5</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.9</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R29" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T29" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U29" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X29" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
       </c>
       <c r="Z29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG29" t="n">
         <v>14</v>
       </c>
-      <c r="AA29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="n">
         <v>40</v>
@@ -4411,13 +4411,13 @@
         <v>48</v>
       </c>
       <c r="AM29" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN29" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G30" t="n">
         <v>3.85</v>
       </c>
-      <c r="G30" t="n">
-        <v>4.1</v>
-      </c>
       <c r="H30" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J30" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
         <v>3.95</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -4474,40 +4474,40 @@
         <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>2.04</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R30" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S30" t="n">
         <v>3.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V30" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="W30" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X30" t="n">
         <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA30" t="n">
         <v>25</v>
@@ -4519,40 +4519,40 @@
         <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK30" t="n">
         <v>46</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>48</v>
       </c>
       <c r="AL30" t="n">
         <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H31" t="n">
         <v>7.2</v>
@@ -4594,49 +4594,49 @@
         <v>7.6</v>
       </c>
       <c r="J31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K31" t="n">
         <v>4.2</v>
       </c>
-      <c r="K31" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="n">
         <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q31" t="n">
         <v>2.14</v>
       </c>
       <c r="R31" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T31" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U31" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
         <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
         <v>21</v>
@@ -4645,19 +4645,19 @@
         <v>75</v>
       </c>
       <c r="AA31" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AB31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF31" t="n">
         <v>8.199999999999999</v>
@@ -4666,28 +4666,28 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
@@ -4717,100 +4717,100 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G32" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H32" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="I32" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="K32" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P32" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="R32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.44</v>
       </c>
-      <c r="S32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.47</v>
-      </c>
       <c r="V32" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="X32" t="n">
         <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA32" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AB32" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AC32" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AD32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF32" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="AG32" t="n">
         <v>110</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>860</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>
@@ -4822,7 +4822,7 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -4852,43 +4852,43 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="G33" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="H33" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="I33" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
         <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
         <v>2.08</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R33" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S33" t="n">
         <v>3.2</v>
@@ -4897,40 +4897,40 @@
         <v>1.73</v>
       </c>
       <c r="U33" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="W33" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AB33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
@@ -4939,25 +4939,25 @@
         <v>16</v>
       </c>
       <c r="AI33" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL33" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
         <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO33" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -4987,64 +4987,64 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G34" t="n">
         <v>9.4</v>
       </c>
-      <c r="G34" t="n">
-        <v>10</v>
-      </c>
       <c r="H34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="I34" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J34" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P34" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S34" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T34" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U34" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V34" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="W34" t="n">
         <v>1.11</v>
       </c>
       <c r="X34" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="Z34" t="n">
         <v>7.8</v>
@@ -5053,46 +5053,46 @@
         <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF34" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AH34" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AK34" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AL34" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="AM34" t="n">
         <v>790</v>
       </c>
       <c r="AN34" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="AO34" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="G35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>2.46</v>
@@ -5134,7 +5134,7 @@
         <v>2.52</v>
       </c>
       <c r="J35" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K35" t="n">
         <v>3.85</v>
@@ -5146,64 +5146,64 @@
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O35" t="n">
         <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R35" t="n">
         <v>1.57</v>
       </c>
       <c r="S35" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="T35" t="n">
         <v>1.6</v>
       </c>
       <c r="U35" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V35" t="n">
         <v>1.65</v>
       </c>
       <c r="W35" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
         <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
         <v>12</v>
       </c>
       <c r="AE35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF35" t="n">
         <v>23</v>
       </c>
       <c r="AG35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>14.5</v>
@@ -5212,7 +5212,7 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AK35" t="n">
         <v>28</v>
@@ -5224,10 +5224,10 @@
         <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G36" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H36" t="n">
         <v>4.8</v>
       </c>
       <c r="I36" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
         <v>3.9</v>
@@ -5290,16 +5290,16 @@
         <v>2.08</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R36" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S36" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U36" t="n">
         <v>2.2</v>
@@ -5308,49 +5308,49 @@
         <v>1.25</v>
       </c>
       <c r="W36" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X36" t="n">
         <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z36" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
         <v>18.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="n">
         <v>12</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>18</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="n">
         <v>32</v>
@@ -5362,7 +5362,7 @@
         <v>11.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="G37" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="I37" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="J37" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.37</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P37" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="R37" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="U37" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="W37" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z37" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z37" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AA37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB37" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
         <v>10.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG37" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
         <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AK37" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL37" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM37" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO37" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="G38" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H38" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="I38" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="J38" t="n">
         <v>4.5</v>
@@ -5545,7 +5545,7 @@
         <v>4.8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5554,85 +5554,85 @@
         <v>4.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
         <v>2.12</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R38" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S38" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T38" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U38" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V38" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="W38" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X38" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z38" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA38" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AB38" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC38" t="n">
         <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE38" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG38" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AH38" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AJ38" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AK38" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AL38" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM38" t="n">
         <v>130</v>
       </c>
-      <c r="AM38" t="n">
-        <v>120</v>
-      </c>
       <c r="AN38" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AO38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -5662,61 +5662,61 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="I39" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="J39" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K39" t="n">
         <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O39" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R39" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S39" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T39" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="U39" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="V39" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="W39" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X39" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y39" t="n">
         <v>26</v>
@@ -5725,49 +5725,49 @@
         <v>25</v>
       </c>
       <c r="AA39" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AB39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AD39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI39" t="n">
         <v>22</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AJ39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK39" t="n">
         <v>34</v>
       </c>
-      <c r="AG39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>36</v>
-      </c>
       <c r="AL39" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM39" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN39" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="40">
@@ -5797,58 +5797,58 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="G40" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H40" t="n">
-        <v>34</v>
+        <v>1.04</v>
       </c>
       <c r="I40" t="n">
         <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="L40" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>15.5</v>
+        <v>2.24</v>
       </c>
       <c r="O40" t="n">
         <v>1.04</v>
       </c>
       <c r="P40" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="R40" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="S40" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="U40" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="V40" t="n">
         <v>1.01</v>
       </c>
       <c r="W40" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1.97</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="G41" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="H41" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="I41" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="J41" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.22</v>
@@ -5956,10 +5956,10 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P41" t="n">
         <v>3.3</v>
@@ -5968,76 +5968,76 @@
         <v>1.38</v>
       </c>
       <c r="R41" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T41" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="U41" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="V41" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="W41" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="X41" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
         <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AD41" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AE41" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG41" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH41" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI41" t="n">
         <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
         <v>44</v>
       </c>
-      <c r="AL41" t="n">
-        <v>36</v>
-      </c>
       <c r="AM41" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G42" t="n">
         <v>1.15</v>
       </c>
-      <c r="G42" t="n">
-        <v>1.17</v>
-      </c>
       <c r="H42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I42" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J42" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="K42" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L42" t="n">
         <v>1.1</v>
@@ -6091,7 +6091,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.02</v>
@@ -6100,31 +6100,31 @@
         <v>7.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="R42" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="S42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T42" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="U42" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="V42" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W42" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H43" t="n">
         <v>2.32</v>
       </c>
       <c r="I43" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="J43" t="n">
         <v>3.05</v>
@@ -6232,13 +6232,13 @@
         <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q43" t="n">
         <v>1.79</v>
       </c>
       <c r="R43" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S43" t="n">
         <v>2.92</v>
@@ -6250,10 +6250,10 @@
         <v>2.24</v>
       </c>
       <c r="V43" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W43" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6340,13 +6340,13 @@
         <v>2.2</v>
       </c>
       <c r="G44" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="n">
         <v>3.4</v>
@@ -6355,7 +6355,7 @@
         <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6367,28 +6367,28 @@
         <v>1.31</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R44" t="n">
         <v>1.4</v>
       </c>
       <c r="S44" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U44" t="n">
         <v>2.2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W44" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X44" t="n">
         <v>14.5</v>
@@ -6415,7 +6415,7 @@
         <v>44</v>
       </c>
       <c r="AF44" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG44" t="n">
         <v>11</v>
@@ -6424,7 +6424,7 @@
         <v>17</v>
       </c>
       <c r="AI44" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ44" t="n">
         <v>28</v>
@@ -6439,7 +6439,7 @@
         <v>90</v>
       </c>
       <c r="AN44" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO44" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-11.xlsx
@@ -658,67 +658,67 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="G2" t="n">
+        <v>690</v>
+      </c>
+      <c r="H2" t="n">
+        <v>110</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.1</v>
       </c>
-      <c r="H2" t="n">
-        <v>13</v>
-      </c>
-      <c r="I2" t="n">
-        <v>110</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>34</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="U2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.83</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>1.5</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>1.67</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="n">
-        <v>1.69</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.27</v>
+        <v>500</v>
       </c>
       <c r="X3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>2.12</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.15</v>
+        <v>11.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.16</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>1.48</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>1.52</v>
       </c>
       <c r="J4" t="n">
-        <v>9.800000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>16</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.08</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.7</v>
-      </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>960</v>
+        <v>3.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.04</v>
+        <v>620</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.8</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
